--- a/UNITE_curation_dictionary.xlsx
+++ b/UNITE_curation_dictionary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ari/Dropbox/Documents/UDA/PROJECTS- ICU big data/UNITE-COVID/curation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ari/Dropbox/Documents/UDA/PROJECTS- ICU big data/UNITE COVID/UNITE-COVID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7FC525-DC4D-C94D-8374-3472561929D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6218D79F-8DA6-7F48-9D75-2F632F90227F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4460" yWindow="3360" windowWidth="39020" windowHeight="24600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4580" yWindow="3080" windowWidth="39020" windowHeight="24600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="names" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="422">
   <si>
     <t>variable number</t>
   </si>
@@ -1266,6 +1266,27 @@
   </si>
   <si>
     <t>Antibiotic 4</t>
+  </si>
+  <si>
+    <t>NEW_COAG_DVT_DAILY_DOSE</t>
+  </si>
+  <si>
+    <t>NEW VARIABLE- FREETEXT ANALYSIS OF COAG_DVT_DOSE_TXT</t>
+  </si>
+  <si>
+    <t>NEW1</t>
+  </si>
+  <si>
+    <t>NEW2</t>
+  </si>
+  <si>
+    <t>NEW_COAG_ANTIPLAT_DAILY_DOSE</t>
+  </si>
+  <si>
+    <t>NEW VARIABLE- FREETEXT ANALYSIS OF COAG_ANTIPLAT_DOSE_TXT</t>
+  </si>
+  <si>
+    <t>missing likely to represent not given</t>
   </si>
 </sst>
 </file>
@@ -1345,7 +1366,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1356,6 +1377,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCFE2F3"/>
         <bgColor rgb="FFCFE2F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1371,7 +1398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1430,6 +1457,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1647,8 +1678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="E165" sqref="E165"/>
+    <sheetView tabSelected="1" topLeftCell="A228" workbookViewId="0">
+      <selection activeCell="I200" sqref="I200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -10094,65 +10125,93 @@
       <c r="AA192" s="10"/>
       <c r="AB192" s="10"/>
     </row>
-    <row r="193" spans="1:28" ht="12.75" customHeight="1">
-      <c r="A193" s="10"/>
-      <c r="B193" s="10"/>
-      <c r="C193" s="10"/>
-      <c r="D193" s="10"/>
-      <c r="E193" s="10"/>
-      <c r="F193" s="10"/>
-      <c r="G193" s="10"/>
-      <c r="H193" s="10"/>
-      <c r="I193" s="10"/>
-      <c r="J193" s="10"/>
-      <c r="K193" s="10"/>
-      <c r="L193" s="10"/>
-      <c r="M193" s="10"/>
-      <c r="N193" s="10"/>
-      <c r="O193" s="10"/>
-      <c r="P193" s="10"/>
-      <c r="Q193" s="10"/>
-      <c r="R193" s="10"/>
-      <c r="S193" s="10"/>
-      <c r="T193" s="10"/>
-      <c r="U193" s="10"/>
-      <c r="V193" s="10"/>
-      <c r="W193" s="10"/>
-      <c r="X193" s="10"/>
-      <c r="Y193" s="10"/>
-      <c r="Z193" s="10"/>
-      <c r="AA193" s="10"/>
-      <c r="AB193" s="10"/>
-    </row>
-    <row r="194" spans="1:28" ht="12.75" customHeight="1">
-      <c r="A194" s="10"/>
-      <c r="B194" s="10"/>
-      <c r="C194" s="10"/>
-      <c r="D194" s="10"/>
-      <c r="E194" s="10"/>
-      <c r="F194" s="10"/>
-      <c r="G194" s="10"/>
-      <c r="H194" s="10"/>
-      <c r="I194" s="10"/>
-      <c r="J194" s="10"/>
-      <c r="K194" s="10"/>
-      <c r="L194" s="10"/>
-      <c r="M194" s="10"/>
-      <c r="N194" s="10"/>
-      <c r="O194" s="10"/>
-      <c r="P194" s="10"/>
-      <c r="Q194" s="10"/>
-      <c r="R194" s="10"/>
-      <c r="S194" s="10"/>
-      <c r="T194" s="10"/>
-      <c r="U194" s="10"/>
-      <c r="V194" s="10"/>
-      <c r="W194" s="10"/>
-      <c r="X194" s="10"/>
-      <c r="Y194" s="10"/>
-      <c r="Z194" s="10"/>
-      <c r="AA194" s="10"/>
-      <c r="AB194" s="10"/>
+    <row r="193" spans="1:28" s="25" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A193" s="24" t="s">
+        <v>417</v>
+      </c>
+      <c r="B193" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C193" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="D193" s="24" t="s">
+        <v>416</v>
+      </c>
+      <c r="E193" s="24"/>
+      <c r="F193" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="G193" s="24"/>
+      <c r="H193" s="24">
+        <v>682</v>
+      </c>
+      <c r="I193" s="24" t="s">
+        <v>421</v>
+      </c>
+      <c r="J193" s="24"/>
+      <c r="K193" s="24"/>
+      <c r="L193" s="24"/>
+      <c r="M193" s="24"/>
+      <c r="N193" s="24"/>
+      <c r="O193" s="24"/>
+      <c r="P193" s="24"/>
+      <c r="Q193" s="24"/>
+      <c r="R193" s="24"/>
+      <c r="S193" s="24"/>
+      <c r="T193" s="24"/>
+      <c r="U193" s="24"/>
+      <c r="V193" s="24"/>
+      <c r="W193" s="24"/>
+      <c r="X193" s="24"/>
+      <c r="Y193" s="24"/>
+      <c r="Z193" s="24"/>
+      <c r="AA193" s="24"/>
+      <c r="AB193" s="24"/>
+    </row>
+    <row r="194" spans="1:28" s="25" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A194" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="B194" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C194" s="24" t="s">
+        <v>419</v>
+      </c>
+      <c r="D194" s="24" t="s">
+        <v>420</v>
+      </c>
+      <c r="E194" s="24"/>
+      <c r="F194" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="G194" s="24"/>
+      <c r="H194" s="24">
+        <v>3894</v>
+      </c>
+      <c r="I194" s="24" t="s">
+        <v>421</v>
+      </c>
+      <c r="J194" s="24"/>
+      <c r="K194" s="24"/>
+      <c r="L194" s="24"/>
+      <c r="M194" s="24"/>
+      <c r="N194" s="24"/>
+      <c r="O194" s="24"/>
+      <c r="P194" s="24"/>
+      <c r="Q194" s="24"/>
+      <c r="R194" s="24"/>
+      <c r="S194" s="24"/>
+      <c r="T194" s="24"/>
+      <c r="U194" s="24"/>
+      <c r="V194" s="24"/>
+      <c r="W194" s="24"/>
+      <c r="X194" s="24"/>
+      <c r="Y194" s="24"/>
+      <c r="Z194" s="24"/>
+      <c r="AA194" s="24"/>
+      <c r="AB194" s="24"/>
     </row>
     <row r="195" spans="1:28" ht="12.75" customHeight="1">
       <c r="A195" s="10"/>

--- a/UNITE_curation_dictionary.xlsx
+++ b/UNITE_curation_dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ari/Dropbox/Documents/UDA/PROJECTS- ICU big data/UNITE COVID/UNITE-COVID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6218D79F-8DA6-7F48-9D75-2F632F90227F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465EFCF4-E043-5A40-A566-70442CAD5F2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4580" yWindow="3080" windowWidth="39020" windowHeight="24600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="426">
   <si>
     <t>variable number</t>
   </si>
@@ -1287,6 +1287,18 @@
   </si>
   <si>
     <t>missing likely to represent not given</t>
+  </si>
+  <si>
+    <t>There are a number of patients with implausible weights &lt; 40kg</t>
+  </si>
+  <si>
+    <t>Represents the daily dose of all antiplatelets on day 1</t>
+  </si>
+  <si>
+    <t>Dose of t/p LMWH on first day of ICU admission</t>
+  </si>
+  <si>
+    <t>Represents the daily dose of LMWH on first day of ICU admission (irrespective of whether therapeutic or prophylactic)</t>
   </si>
 </sst>
 </file>
@@ -1678,8 +1690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A228" workbookViewId="0">
-      <selection activeCell="I200" sqref="I200"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="C194" sqref="C194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -2198,7 +2210,9 @@
       <c r="H11" s="5">
         <v>268</v>
       </c>
-      <c r="I11" s="6"/>
+      <c r="I11" s="6" t="s">
+        <v>422</v>
+      </c>
       <c r="J11" s="5" t="s">
         <v>51</v>
       </c>
@@ -7516,7 +7530,9 @@
       <c r="D137" s="20" t="s">
         <v>379</v>
       </c>
-      <c r="E137" s="6"/>
+      <c r="E137" s="6" t="s">
+        <v>424</v>
+      </c>
       <c r="F137" s="20" t="s">
         <v>376</v>
       </c>
@@ -10138,7 +10154,9 @@
       <c r="D193" s="24" t="s">
         <v>416</v>
       </c>
-      <c r="E193" s="24"/>
+      <c r="E193" s="24" t="s">
+        <v>425</v>
+      </c>
       <c r="F193" s="24" t="s">
         <v>178</v>
       </c>
@@ -10182,7 +10200,9 @@
       <c r="D194" s="24" t="s">
         <v>420</v>
       </c>
-      <c r="E194" s="24"/>
+      <c r="E194" s="24" t="s">
+        <v>423</v>
+      </c>
       <c r="F194" s="24" t="s">
         <v>178</v>
       </c>

--- a/UNITE_curation_dictionary.xlsx
+++ b/UNITE_curation_dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ari/Dropbox/Documents/UDA/PROJECTS- ICU big data/UNITE COVID/UNITE-COVID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D4BF8F-8898-744C-BBF2-5B2054E5AA4D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8F045C-13B3-6F4C-9085-2F3B337F8422}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6540" yWindow="4200" windowWidth="39020" windowHeight="24600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6900" yWindow="5280" windowWidth="39020" windowHeight="24600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="names" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="517">
   <si>
     <t>variable number</t>
   </si>
@@ -940,9 +940,6 @@
     <t>Pathogen name</t>
   </si>
   <si>
-    <t>COAG_WITHOUT_ANTIMIC_INT</t>
-  </si>
-  <si>
     <t>Days alive without anti-microbial therapy at day 30</t>
   </si>
   <si>
@@ -988,584 +985,593 @@
     <t>Outcome</t>
   </si>
   <si>
-    <t>"Still in ICU", "Hospitalized", "Transfer to other facility", 
+    <t>OUT_ICU_DURATION_INT</t>
+  </si>
+  <si>
+    <t>Outcome : ICU admission duration</t>
+  </si>
+  <si>
+    <t>OUT_DEAD_DURING_ICU_YN</t>
+  </si>
+  <si>
+    <t>If dead, did patient die in the ICU?</t>
+  </si>
+  <si>
+    <t>OUT_HOSP_DURATION_INT</t>
+  </si>
+  <si>
+    <t>If discharged alive - hospital admission duration</t>
+  </si>
+  <si>
+    <t>OUT_DISCHARGE_RRT_YN</t>
+  </si>
+  <si>
+    <t>Discharged still on RRT</t>
+  </si>
+  <si>
+    <t>OUT_DEATH_DURING_ICU_YN</t>
+  </si>
+  <si>
+    <t>If the outcome is 'Death', did the patient die during the ICU stay?</t>
+  </si>
+  <si>
+    <t>Should we drop this variable,which is similar and inconsistent with OUT_DEATH_DURING_ICU_YN? Moreover, there is 1 patients "transfered to other facilities" in working.df$OUTCOME_LD and death in ICU here</t>
+  </si>
+  <si>
+    <t>Healthcare worker?</t>
+  </si>
+  <si>
+    <t>Is the patient a healthcare worker</t>
+  </si>
+  <si>
+    <t>Pregnancy</t>
+  </si>
+  <si>
+    <t>Is thepatient pregnant</t>
+  </si>
+  <si>
+    <t>High degree of missingness: likely to represent 'NO'</t>
+  </si>
+  <si>
+    <t>Patient admitted in surge capacity bed</t>
+  </si>
+  <si>
+    <t>Chronic cardiac disease</t>
+  </si>
+  <si>
+    <t>Chronic liver disease</t>
+  </si>
+  <si>
+    <t>Excluding hypertension</t>
+  </si>
+  <si>
+    <t>Chronic neurological disease</t>
+  </si>
+  <si>
+    <t>History of hypertension</t>
+  </si>
+  <si>
+    <t>Chronic pulmonary disease</t>
+  </si>
+  <si>
+    <t>Diabetes</t>
+  </si>
+  <si>
+    <t>Asthma</t>
+  </si>
+  <si>
+    <t>Malignant neoplasm</t>
+  </si>
+  <si>
+    <t>History of malignancy</t>
+  </si>
+  <si>
+    <t>Chronic kidney disease</t>
+  </si>
+  <si>
+    <t>History of CKD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Immunosuppression </t>
+  </si>
+  <si>
+    <t>Immunosuppressed chronically</t>
+  </si>
+  <si>
+    <t>HIV</t>
+  </si>
+  <si>
+    <t>HIV status</t>
+  </si>
+  <si>
+    <t>ACE inhibitor history</t>
+  </si>
+  <si>
+    <t>Anticoagulation</t>
+  </si>
+  <si>
+    <t>Angiotensin II receptor antagonist treatment</t>
+  </si>
+  <si>
+    <t>Antiplatelet treatment</t>
+  </si>
+  <si>
+    <t>Hospital Length of stay prior to ICU admission</t>
+  </si>
+  <si>
+    <t>Unknown length of stay before ICU admission</t>
+  </si>
+  <si>
+    <t>Interval start of symptoms ? hospital admission</t>
+  </si>
+  <si>
+    <t>One patient negative 7 days recoded to positive</t>
+  </si>
+  <si>
+    <t>Unknown - Interval start of symptoms ? hospital admission</t>
+  </si>
+  <si>
+    <t>Imputed to FALSE</t>
+  </si>
+  <si>
+    <t>Coagulation: Highest D-dimers (ng/mL)</t>
+  </si>
+  <si>
+    <t>There are a small number of &gt;&gt;100000 likely to represent wrong unit but impossible to be sure. Unlikely to be a big problem as very small numbers</t>
+  </si>
+  <si>
+    <t>Coagulation: Lowest platelet count</t>
+  </si>
+  <si>
+    <t>Coagulation: Highest platelet count</t>
+  </si>
+  <si>
+    <t>Numbers look reasonable: v few outlieers so not modified</t>
+  </si>
+  <si>
+    <t>Highest prothrombin time</t>
+  </si>
+  <si>
+    <t>Highest APTT</t>
+  </si>
+  <si>
+    <t>Highest ferritin</t>
+  </si>
+  <si>
+    <t>Free text</t>
+  </si>
+  <si>
+    <t>Uncuratable: Wide mixture of unformatted values.</t>
+  </si>
+  <si>
+    <t>Coagulation: DVT prophylaxis</t>
+  </si>
+  <si>
+    <t>Coagulation: DVT prophylaxis free text</t>
+  </si>
+  <si>
+    <t>Coagulation: antiplatelet dosing free text</t>
+  </si>
+  <si>
+    <t>categorical</t>
+  </si>
+  <si>
+    <t>aspirin, clopidogrel, ticlodipine, ticagrelor, other, none</t>
+  </si>
+  <si>
+    <t>Coagulation: Antiplatelet prophylaxis</t>
+  </si>
+  <si>
+    <t>UFH/calciparine, fondaparinux, enoxaparin, dalteparin, tinzaparin, nadroparin, other, none</t>
+  </si>
+  <si>
+    <t>Type I, Type II, Unknown, No</t>
+  </si>
+  <si>
+    <t>From lines</t>
+  </si>
+  <si>
+    <t>Source of bleeding?</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>From GI tract</t>
+  </si>
+  <si>
+    <t>TRUE, FALSE</t>
+  </si>
+  <si>
+    <t>NA recoded as false</t>
+  </si>
+  <si>
+    <t>From respiratory tract</t>
+  </si>
+  <si>
+    <t>From CNS</t>
+  </si>
+  <si>
+    <t>Other location</t>
+  </si>
+  <si>
+    <t>Number of packed red cells transfused</t>
+  </si>
+  <si>
+    <t>Thromboembolic complication</t>
+  </si>
+  <si>
+    <t>DVT</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>Limb ischaemia</t>
+  </si>
+  <si>
+    <t>Stroke</t>
+  </si>
+  <si>
+    <t>Therapeutic anticoagulation?</t>
+  </si>
+  <si>
+    <t>Type of therapeutic anticoagulation</t>
+  </si>
+  <si>
+    <t>UFH, LMWH, other, NA</t>
+  </si>
+  <si>
+    <t>NA likely to represent not anticoagulated</t>
+  </si>
+  <si>
+    <t>Anticoagulation therapy: interval after ICU admission</t>
+  </si>
+  <si>
+    <t>NA likely to represent not anticoagulated and tallies with above</t>
+  </si>
+  <si>
+    <t>DVT, PE, MI, limb ischaemia, line or filter clot, prophylaxis, previous condition, NA</t>
+  </si>
+  <si>
+    <t>Anticoagulat indication</t>
+  </si>
+  <si>
+    <t>Antibiotics?</t>
+  </si>
+  <si>
+    <t>Antibiotic 1</t>
+  </si>
+  <si>
+    <t>Antibiotic 2</t>
+  </si>
+  <si>
+    <t>Antibiotic 3</t>
+  </si>
+  <si>
+    <t>Antibiotic 4</t>
+  </si>
+  <si>
+    <t>NEW_COAG_DVT_DAILY_DOSE</t>
+  </si>
+  <si>
+    <t>NEW VARIABLE- FREETEXT ANALYSIS OF COAG_DVT_DOSE_TXT</t>
+  </si>
+  <si>
+    <t>NEW1</t>
+  </si>
+  <si>
+    <t>NEW2</t>
+  </si>
+  <si>
+    <t>NEW_COAG_ANTIPLAT_DAILY_DOSE</t>
+  </si>
+  <si>
+    <t>NEW VARIABLE- FREETEXT ANALYSIS OF COAG_ANTIPLAT_DOSE_TXT</t>
+  </si>
+  <si>
+    <t>missing likely to represent not given</t>
+  </si>
+  <si>
+    <t>There are a number of patients with implausible weights &lt; 40kg</t>
+  </si>
+  <si>
+    <t>Represents the daily dose of all antiplatelets on day 1</t>
+  </si>
+  <si>
+    <t>Dose of t/p LMWH on first day of ICU admission</t>
+  </si>
+  <si>
+    <t>Represents the daily dose of LMWH on first day of ICU admission (irrespective of whether therapeutic or prophylactic)</t>
+  </si>
+  <si>
+    <t>2=unknown recoded as NA since semantically same concept (very small number)</t>
+  </si>
+  <si>
+    <t>2=unknown recoded as NA since semantically same concept (n=16)</t>
+  </si>
+  <si>
+    <t>2=unknown recoded as NA since semantically same concept (n=99)</t>
+  </si>
+  <si>
+    <t>2=unknown recoded as NA since semantically same concept (n=47)</t>
+  </si>
+  <si>
+    <t>2=unknown recoded as NA since semantically same concept (n=215)</t>
+  </si>
+  <si>
+    <t>Non-invasive ventilation used?</t>
+  </si>
+  <si>
+    <t>Was the patient intubated at ICU admission?</t>
+  </si>
+  <si>
+    <t>If the patient was intubated during the ICU stay, how many days after admission</t>
+  </si>
+  <si>
+    <t>If not, was the patient intubated during the ICU stay?</t>
+  </si>
+  <si>
+    <t>Total duration of NIV before intubation</t>
+  </si>
+  <si>
+    <t>Total duration of HFNO before intubation</t>
+  </si>
+  <si>
+    <t>High flow nasal oxygen used?</t>
+  </si>
+  <si>
+    <t>Invasive ventilation used?</t>
+  </si>
+  <si>
+    <t>Duration of invasive ventilation</t>
+  </si>
+  <si>
+    <t>ECMO used?</t>
+  </si>
+  <si>
+    <t>Total duration of ECMO</t>
+  </si>
+  <si>
+    <t>Was prone positioning used?</t>
+  </si>
+  <si>
+    <t>Duration of prone positioning when intubated</t>
+  </si>
+  <si>
+    <t>Duration of prone positioning when not-intubated</t>
+  </si>
+  <si>
+    <t>Neuromuscular blockade used?</t>
+  </si>
+  <si>
+    <t>Duration of neuromuscular blockade</t>
+  </si>
+  <si>
+    <t>Post-extubation support: standard Oxygen?</t>
+  </si>
+  <si>
+    <t>Post-extubation support: High flow nasal oxygen?</t>
+  </si>
+  <si>
+    <t>Post-extubation support: CPAP?</t>
+  </si>
+  <si>
+    <t>Post-extubation support: NIV?</t>
+  </si>
+  <si>
+    <t>TRUE, NA</t>
+  </si>
+  <si>
+    <t>Ventilation mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"APRV", "BIPAP", "PCV", "PSV", "VCV", &lt;NA&gt; </t>
+  </si>
+  <si>
+    <t>&lt;1 multiplied by 10, &lt;21 converted to NA</t>
+  </si>
+  <si>
+    <t>Numeric (21-100)</t>
+  </si>
+  <si>
+    <t>FiO2 (percentage)</t>
+  </si>
+  <si>
+    <t>Problem since osme sites seem to have used Kpa/mmHg</t>
+  </si>
+  <si>
+    <t>PaCO2</t>
+  </si>
+  <si>
+    <t>Mostly seem to be mmHg but small number of likely KPA</t>
+  </si>
+  <si>
+    <t>Specify other admission diagnostic</t>
+  </si>
+  <si>
+    <t>Did the patient receive respiratory support before ICU admission?</t>
+  </si>
+  <si>
+    <t>2=unknown recoded as NA since semantically same concept (316)</t>
+  </si>
+  <si>
+    <t>2=unknown recoded as NA since semantically same concept (64)</t>
+  </si>
+  <si>
+    <t>2=unknown recoded as NA since semantically same concept (319)</t>
+  </si>
+  <si>
+    <t>2=unknown recoded as NA since semantically same concept (331)</t>
+  </si>
+  <si>
+    <t>2=unknown recoded as NA since semantically same concept (286)</t>
+  </si>
+  <si>
+    <t>2=unknown recoded as NA since semantically same concept (195)</t>
+  </si>
+  <si>
+    <t>2=unknown recoded as NA since semantically same concept (34)</t>
+  </si>
+  <si>
+    <t>2=unknown recoded as NA since semantically same concept (197)</t>
+  </si>
+  <si>
+    <t>2=unknown recoded as NA since semantically same concept (123)</t>
+  </si>
+  <si>
+    <t>2=unknown recoded as NA since semantically same concept (170)</t>
+  </si>
+  <si>
+    <t>2=unknown recoded as NA since semantically same concept (n=50)</t>
+  </si>
+  <si>
+    <t>Prolonged delirium</t>
+  </si>
+  <si>
+    <t>Sepsis induced cardiomyopathy?</t>
+  </si>
+  <si>
+    <t>Stree induced cardiomyopathy?</t>
+  </si>
+  <si>
+    <t>Myocarditis?</t>
+  </si>
+  <si>
+    <t>Pericardial effusion?</t>
+  </si>
+  <si>
+    <t>Pneumothorax?</t>
+  </si>
+  <si>
+    <t>Atelectasis?</t>
+  </si>
+  <si>
+    <t>Seizure?</t>
+  </si>
+  <si>
+    <t>Pressure sores- facial (prone)?</t>
+  </si>
+  <si>
+    <t>"Respiratory failure due to COVID-19", "Other complication of COVID-19", "Other diagnosis", "Referral rom another ICU", NA</t>
+  </si>
+  <si>
+    <t>ICU admission diagnosis</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Thromboembolic complications at admission - DVT</t>
+  </si>
+  <si>
+    <t>Thromboembolic complications at admission - PE</t>
+  </si>
+  <si>
+    <t>Thromboembolic complications at admission - none</t>
+  </si>
+  <si>
+    <t>Thromboembolic complications at admission - Other</t>
+  </si>
+  <si>
+    <t>If YES, which type of support?</t>
+  </si>
+  <si>
+    <t>Total duration of support (HFNO, CPAP and/or NIV) before admission(days)</t>
+  </si>
+  <si>
+    <t>Highest total white cell count</t>
+  </si>
+  <si>
+    <t>Highest neutrophil count (10E9/L of blood)</t>
+  </si>
+  <si>
+    <t>Lowest Lymphocyte count</t>
+  </si>
+  <si>
+    <t>Highest C-reactive protein</t>
+  </si>
+  <si>
+    <t>Highest pro-calcitonin (ng/mL)</t>
+  </si>
+  <si>
+    <t>Highest ferritin(mg/L)</t>
+  </si>
+  <si>
+    <t>Highest hs-troponinT (ng/mL)</t>
+  </si>
+  <si>
+    <t>Highest fibrinogen (g/L)</t>
+  </si>
+  <si>
+    <t>Lowest platelets count</t>
+  </si>
+  <si>
+    <t>Highest D-dimers (ng/mL)</t>
+  </si>
+  <si>
+    <t>Highest aPTT (sec)</t>
+  </si>
+  <si>
+    <t>Highest prothrombin time (sec)</t>
+  </si>
+  <si>
+    <t>Cardiac arrhythmia req therapy?</t>
+  </si>
+  <si>
+    <t>highest: NIV &gt; CPAP &gt; HFNO &gt; standard oxygen</t>
+  </si>
+  <si>
+    <t>Respiratory wean</t>
+  </si>
+  <si>
+    <t>"Difficult", "Normal", "Prolonged", NA</t>
+  </si>
+  <si>
+    <t>Coagulation: Highest fibrinogen (g/L)</t>
+  </si>
+  <si>
+    <t>Was the patient reintubated after initial extubation</t>
+  </si>
+  <si>
+    <t>Ventilator not routinely used in your ICU?</t>
+  </si>
+  <si>
+    <t>Driving Pressure (cmH2O)</t>
+  </si>
+  <si>
+    <t>P/F ratio:</t>
+  </si>
+  <si>
+    <t>PEEP (cmH2O)</t>
+  </si>
+  <si>
+    <t>Tidal Volume (mL)</t>
+  </si>
+  <si>
+    <t>"Hyper-inflammation", "Other", "Pneumonitis", Pre-existing condition", "Shock", NA</t>
+  </si>
+  <si>
+    <t>"Standard oxygen", "HFNO", "CPAP, "NIV", NA</t>
+  </si>
+  <si>
+    <t>"Still in ICU", "Hospitalized", "Transfer to other facility", "Discharged alive", "Death", "Palliative discharge", NA
  "Discharged alive", "Death", "Palliative discharge", "Unknown"</t>
   </si>
   <si>
-    <t>OUT_ICU_DURATION_INT</t>
-  </si>
-  <si>
-    <t>Outcome : ICU admission duration</t>
-  </si>
-  <si>
-    <t>OUT_DEAD_DURING_ICU_YN</t>
-  </si>
-  <si>
-    <t>If dead, did patient die in the ICU?</t>
-  </si>
-  <si>
-    <t>OUT_HOSP_DURATION_INT</t>
-  </si>
-  <si>
-    <t>If discharged alive - hospital admission duration</t>
-  </si>
-  <si>
-    <t>OUT_DISCHARGE_RRT_YN</t>
-  </si>
-  <si>
-    <t>Discharged still on RRT</t>
-  </si>
-  <si>
-    <t>OUT_DEATH_DURING_ICU_YN</t>
-  </si>
-  <si>
-    <t>If the outcome is 'Death', did the patient die during the ICU stay?</t>
-  </si>
-  <si>
-    <t>Should we drop this variable,which is similar and inconsistent with OUT_DEATH_DURING_ICU_YN? Moreover, there is 1 patients "transfered to other facilities" in working.df$OUTCOME_LD and death in ICU here</t>
-  </si>
-  <si>
-    <t>Healthcare worker?</t>
-  </si>
-  <si>
-    <t>Is the patient a healthcare worker</t>
-  </si>
-  <si>
-    <t>Pregnancy</t>
-  </si>
-  <si>
-    <t>Is thepatient pregnant</t>
-  </si>
-  <si>
-    <t>High degree of missingness: likely to represent 'NO'</t>
-  </si>
-  <si>
-    <t>Patient admitted in surge capacity bed</t>
-  </si>
-  <si>
-    <t>Chronic cardiac disease</t>
-  </si>
-  <si>
-    <t>Chronic liver disease</t>
-  </si>
-  <si>
-    <t>Excluding hypertension</t>
-  </si>
-  <si>
-    <t>Chronic neurological disease</t>
-  </si>
-  <si>
-    <t>History of hypertension</t>
-  </si>
-  <si>
-    <t>Chronic pulmonary disease</t>
-  </si>
-  <si>
-    <t>Diabetes</t>
-  </si>
-  <si>
-    <t>Asthma</t>
-  </si>
-  <si>
-    <t>Malignant neoplasm</t>
-  </si>
-  <si>
-    <t>History of malignancy</t>
-  </si>
-  <si>
-    <t>Chronic kidney disease</t>
-  </si>
-  <si>
-    <t>History of CKD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Immunosuppression </t>
-  </si>
-  <si>
-    <t>Immunosuppressed chronically</t>
-  </si>
-  <si>
-    <t>HIV</t>
-  </si>
-  <si>
-    <t>HIV status</t>
-  </si>
-  <si>
-    <t>ACE inhibitor history</t>
-  </si>
-  <si>
-    <t>Anticoagulation</t>
-  </si>
-  <si>
-    <t>Angiotensin II receptor antagonist treatment</t>
-  </si>
-  <si>
-    <t>Antiplatelet treatment</t>
-  </si>
-  <si>
-    <t>Hospital Length of stay prior to ICU admission</t>
-  </si>
-  <si>
-    <t>Unknown length of stay before ICU admission</t>
-  </si>
-  <si>
-    <t>Interval start of symptoms ? hospital admission</t>
-  </si>
-  <si>
-    <t>One patient negative 7 days recoded to positive</t>
-  </si>
-  <si>
-    <t>Unknown - Interval start of symptoms ? hospital admission</t>
-  </si>
-  <si>
-    <t>Imputed to FALSE</t>
-  </si>
-  <si>
-    <t>Coagulation: Highest D-dimers (ng/mL)</t>
-  </si>
-  <si>
-    <t>There are a small number of &gt;&gt;100000 likely to represent wrong unit but impossible to be sure. Unlikely to be a big problem as very small numbers</t>
-  </si>
-  <si>
-    <t>Coagulation: Lowest platelet count</t>
-  </si>
-  <si>
-    <t>Coagulation: Highest platelet count</t>
-  </si>
-  <si>
-    <t>Numbers look reasonable: v few outlieers so not modified</t>
-  </si>
-  <si>
-    <t>Highest prothrombin time</t>
-  </si>
-  <si>
-    <t>Highest APTT</t>
-  </si>
-  <si>
-    <t>Highest ferritin</t>
-  </si>
-  <si>
-    <t>Free text</t>
-  </si>
-  <si>
-    <t>Uncuratable: Wide mixture of unformatted values.</t>
-  </si>
-  <si>
-    <t>Coagulation: DVT prophylaxis</t>
-  </si>
-  <si>
-    <t>Coagulation: DVT prophylaxis free text</t>
-  </si>
-  <si>
-    <t>Coagulation: antiplatelet dosing free text</t>
-  </si>
-  <si>
-    <t>categorical</t>
-  </si>
-  <si>
-    <t>aspirin, clopidogrel, ticlodipine, ticagrelor, other, none</t>
-  </si>
-  <si>
-    <t>Coagulation: Antiplatelet prophylaxis</t>
-  </si>
-  <si>
-    <t>UFH/calciparine, fondaparinux, enoxaparin, dalteparin, tinzaparin, nadroparin, other, none</t>
-  </si>
-  <si>
-    <t>Type I, Type II, Unknown, No</t>
-  </si>
-  <si>
-    <t>From lines</t>
-  </si>
-  <si>
-    <t>Source of bleeding?</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>From GI tract</t>
-  </si>
-  <si>
-    <t>TRUE, FALSE</t>
-  </si>
-  <si>
-    <t>NA recoded as false</t>
-  </si>
-  <si>
-    <t>From respiratory tract</t>
-  </si>
-  <si>
-    <t>From CNS</t>
-  </si>
-  <si>
-    <t>Other location</t>
-  </si>
-  <si>
-    <t>Number of packed red cells transfused</t>
-  </si>
-  <si>
-    <t>Thromboembolic complication</t>
-  </si>
-  <si>
-    <t>DVT</t>
-  </si>
-  <si>
-    <t>PE</t>
-  </si>
-  <si>
-    <t>MI</t>
-  </si>
-  <si>
-    <t>Limb ischaemia</t>
-  </si>
-  <si>
-    <t>Stroke</t>
-  </si>
-  <si>
-    <t>Therapeutic anticoagulation?</t>
-  </si>
-  <si>
-    <t>Type of therapeutic anticoagulation</t>
-  </si>
-  <si>
-    <t>UFH, LMWH, other, NA</t>
-  </si>
-  <si>
-    <t>NA likely to represent not anticoagulated</t>
-  </si>
-  <si>
-    <t>Anticoagulation therapy: interval after ICU admission</t>
-  </si>
-  <si>
-    <t>NA likely to represent not anticoagulated and tallies with above</t>
-  </si>
-  <si>
-    <t>DVT, PE, MI, limb ischaemia, line or filter clot, prophylaxis, previous condition, NA</t>
-  </si>
-  <si>
-    <t>Anticoagulat indication</t>
-  </si>
-  <si>
-    <t>Antibiotics?</t>
-  </si>
-  <si>
-    <t>Antibiotic 1</t>
-  </si>
-  <si>
-    <t>Antibiotic 2</t>
-  </si>
-  <si>
-    <t>Antibiotic 3</t>
-  </si>
-  <si>
-    <t>Antibiotic 4</t>
-  </si>
-  <si>
-    <t>NEW_COAG_DVT_DAILY_DOSE</t>
-  </si>
-  <si>
-    <t>NEW VARIABLE- FREETEXT ANALYSIS OF COAG_DVT_DOSE_TXT</t>
-  </si>
-  <si>
-    <t>NEW1</t>
-  </si>
-  <si>
-    <t>NEW2</t>
-  </si>
-  <si>
-    <t>NEW_COAG_ANTIPLAT_DAILY_DOSE</t>
-  </si>
-  <si>
-    <t>NEW VARIABLE- FREETEXT ANALYSIS OF COAG_ANTIPLAT_DOSE_TXT</t>
-  </si>
-  <si>
-    <t>missing likely to represent not given</t>
-  </si>
-  <si>
-    <t>There are a number of patients with implausible weights &lt; 40kg</t>
-  </si>
-  <si>
-    <t>Represents the daily dose of all antiplatelets on day 1</t>
-  </si>
-  <si>
-    <t>Dose of t/p LMWH on first day of ICU admission</t>
-  </si>
-  <si>
-    <t>Represents the daily dose of LMWH on first day of ICU admission (irrespective of whether therapeutic or prophylactic)</t>
-  </si>
-  <si>
-    <t>2=unknown recoded as NA since semantically same concept (very small number)</t>
-  </si>
-  <si>
-    <t>2=unknown recoded as NA since semantically same concept (n=16)</t>
-  </si>
-  <si>
-    <t>2=unknown recoded as NA since semantically same concept (n=99)</t>
-  </si>
-  <si>
-    <t>2=unknown recoded as NA since semantically same concept (n=47)</t>
-  </si>
-  <si>
-    <t>2=unknown recoded as NA since semantically same concept (n=215)</t>
-  </si>
-  <si>
-    <t>NA likely to represent not intubated</t>
-  </si>
-  <si>
-    <t>Non-invasive ventilation used?</t>
-  </si>
-  <si>
-    <t>Was the patient intubated at ICU admission?</t>
-  </si>
-  <si>
-    <t>If the patient was intubated during the ICU stay, how many days after admission</t>
-  </si>
-  <si>
-    <t>If not, was the patient intubated during the ICU stay?</t>
-  </si>
-  <si>
-    <t>Total duration of NIV before intubation</t>
-  </si>
-  <si>
-    <t>Total duration of HFNO before intubation</t>
-  </si>
-  <si>
-    <t>High flow nasal oxygen used?</t>
-  </si>
-  <si>
-    <t>Invasive ventilation used?</t>
-  </si>
-  <si>
-    <t>Duration of invasive ventilation</t>
-  </si>
-  <si>
-    <t>ECMO used?</t>
-  </si>
-  <si>
-    <t>Total duration of ECMO</t>
-  </si>
-  <si>
-    <t>Was prone positioning used?</t>
-  </si>
-  <si>
-    <t>Duration of prone positioning when intubated</t>
-  </si>
-  <si>
-    <t>Duration of prone positioning when not-intubated</t>
-  </si>
-  <si>
-    <t>Neuromuscular blockade used?</t>
-  </si>
-  <si>
-    <t>Duration of neuromuscular blockade</t>
-  </si>
-  <si>
-    <t>Post-extubation support: standard Oxygen?</t>
-  </si>
-  <si>
-    <t>Post-extubation support: High flow nasal oxygen?</t>
-  </si>
-  <si>
-    <t>Post-extubation support: CPAP?</t>
-  </si>
-  <si>
-    <t>Post-extubation support: NIV?</t>
-  </si>
-  <si>
-    <t>TRUE, NA</t>
-  </si>
-  <si>
-    <t>Ventilation mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"APRV", "BIPAP", "PCV", "PSV", "VCV", &lt;NA&gt; </t>
-  </si>
-  <si>
-    <t>&lt;1 multiplied by 10, &lt;21 converted to NA</t>
-  </si>
-  <si>
-    <t>Numeric (21-100)</t>
-  </si>
-  <si>
-    <t>FiO2 (percentage)</t>
-  </si>
-  <si>
-    <t>Problem since osme sites seem to have used Kpa/mmHg</t>
-  </si>
-  <si>
-    <t>PaCO2</t>
-  </si>
-  <si>
-    <t>Mostly seem to be mmHg but small number of likely KPA</t>
-  </si>
-  <si>
-    <t>Specify other admission diagnostic</t>
-  </si>
-  <si>
-    <t>Did the patient receive respiratory support before ICU admission?</t>
-  </si>
-  <si>
-    <t>2=unknown recoded as NA since semantically same concept (316)</t>
-  </si>
-  <si>
-    <t>2=unknown recoded as NA since semantically same concept (64)</t>
-  </si>
-  <si>
-    <t>2=unknown recoded as NA since semantically same concept (319)</t>
-  </si>
-  <si>
-    <t>2=unknown recoded as NA since semantically same concept (331)</t>
-  </si>
-  <si>
-    <t>2=unknown recoded as NA since semantically same concept (286)</t>
-  </si>
-  <si>
-    <t>2=unknown recoded as NA since semantically same concept (195)</t>
-  </si>
-  <si>
-    <t>2=unknown recoded as NA since semantically same concept (34)</t>
-  </si>
-  <si>
-    <t>2=unknown recoded as NA since semantically same concept (197)</t>
-  </si>
-  <si>
-    <t>2=unknown recoded as NA since semantically same concept (123)</t>
-  </si>
-  <si>
-    <t>2=unknown recoded as NA since semantically same concept (170)</t>
-  </si>
-  <si>
-    <t>2=unknown recoded as NA since semantically same concept (n=50)</t>
-  </si>
-  <si>
-    <t>Prolonged delirium</t>
-  </si>
-  <si>
-    <t>Sepsis induced cardiomyopathy?</t>
-  </si>
-  <si>
-    <t>Stree induced cardiomyopathy?</t>
-  </si>
-  <si>
-    <t>Myocarditis?</t>
-  </si>
-  <si>
-    <t>Pericardial effusion?</t>
-  </si>
-  <si>
-    <t>Pneumothorax?</t>
-  </si>
-  <si>
-    <t>Atelectasis?</t>
-  </si>
-  <si>
-    <t>Seizure?</t>
-  </si>
-  <si>
-    <t>Pressure sores- facial (prone)?</t>
-  </si>
-  <si>
-    <t>"Respiratory failure due to COVID-19", "Other complication of COVID-19", "Other diagnosis", "Referral rom another ICU", NA</t>
-  </si>
-  <si>
-    <t>ICU admission diagnosis</t>
-  </si>
-  <si>
-    <t>Text</t>
-  </si>
-  <si>
-    <t>Thromboembolic complications at admission - DVT</t>
-  </si>
-  <si>
-    <t>Thromboembolic complications at admission - PE</t>
-  </si>
-  <si>
-    <t>Thromboembolic complications at admission - none</t>
-  </si>
-  <si>
-    <t>Thromboembolic complications at admission - Other</t>
-  </si>
-  <si>
-    <t>If YES, which type of support?</t>
-  </si>
-  <si>
-    <t>Total duration of support (HFNO, CPAP and/or NIV) before admission(days)</t>
-  </si>
-  <si>
-    <t>Highest total white cell count</t>
-  </si>
-  <si>
-    <t>Highest neutrophil count (10E9/L of blood)</t>
-  </si>
-  <si>
-    <t>Lowest Lymphocyte count</t>
-  </si>
-  <si>
-    <t>Highest C-reactive protein</t>
-  </si>
-  <si>
-    <t>Highest pro-calcitonin (ng/mL)</t>
-  </si>
-  <si>
-    <t>Highest ferritin(mg/L)</t>
-  </si>
-  <si>
-    <t>Highest hs-troponinT (ng/mL)</t>
-  </si>
-  <si>
-    <t>Highest fibrinogen (g/L)</t>
-  </si>
-  <si>
-    <t>Lowest platelets count</t>
-  </si>
-  <si>
-    <t>Highest D-dimers (ng/mL)</t>
-  </si>
-  <si>
-    <t>Highest aPTT (sec)</t>
-  </si>
-  <si>
-    <t>Highest prothrombin time (sec)</t>
-  </si>
-  <si>
-    <t>Cardiac arrhythmia req therapy?</t>
-  </si>
-  <si>
-    <t>highest: NIV &gt; CPAP &gt; HFNO &gt; standard oxygen</t>
-  </si>
-  <si>
-    <t>"Standard oxygen", "HFNC", "CPAP, "NIV", NA</t>
-  </si>
-  <si>
-    <t>Respiratory wean</t>
-  </si>
-  <si>
-    <t>"Difficult", "Normal", "Prolonged", NA</t>
-  </si>
-  <si>
-    <t>Coagulation: Highest fibrinogen (g/L)</t>
-  </si>
-  <si>
-    <t>Was the patient reintubated after initial extubation</t>
-  </si>
-  <si>
-    <t>Ventilator not routinely used in your ICU?</t>
-  </si>
-  <si>
-    <t>Driving Pressure (cmH2O)</t>
-  </si>
-  <si>
-    <t>P/F ratio:</t>
-  </si>
-  <si>
-    <t>PEEP (cmH2O)</t>
-  </si>
-  <si>
-    <t>Tidal Volume (mL)</t>
-  </si>
-  <si>
-    <t>"Hyper-inflammation", "Other", "Pneumonitis", Pre-existing condition", "Shock", NA</t>
+    <t>"unknown" =7 recoded as NA</t>
+  </si>
+  <si>
+    <t>NA likely to represent not intubated- however there are 192 patients who are 'reintubated' but were not 'intubated' on basis of RESP_INTUBATED_YN: ambiguous how to correct this.</t>
+  </si>
+  <si>
+    <t>INF_WITHOUT_ANTIMIC_INT</t>
+  </si>
+  <si>
+    <t>Now renamed correctly (was incorrectly "COAG_WITHOUT_ANTIMIC_INT" in original data)</t>
   </si>
 </sst>
 </file>
@@ -1704,7 +1710,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1773,6 +1779,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1991,8 +2000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H77" sqref="H77"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -2481,7 +2490,7 @@
         <v>268</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>50</v>
@@ -2515,10 +2524,10 @@
         <v>52</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>18</v>
@@ -2528,7 +2537,7 @@
         <v>4995</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="J12" s="11" t="s">
         <v>27</v>
@@ -2562,10 +2571,10 @@
         <v>53</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>18</v>
@@ -2605,7 +2614,7 @@
         <v>54</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="19" t="s">
@@ -2646,7 +2655,7 @@
         <v>55</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="19" t="s">
@@ -2657,10 +2666,10 @@
         <v>0</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
@@ -2691,7 +2700,7 @@
         <v>56</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="19" t="s">
@@ -2703,7 +2712,7 @@
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="19" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
@@ -2734,7 +2743,7 @@
         <v>57</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="19" t="s">
@@ -2745,10 +2754,10 @@
         <v>0</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
@@ -2779,7 +2788,7 @@
         <v>58</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="19" t="s">
@@ -2820,10 +2829,10 @@
         <v>59</v>
       </c>
       <c r="D19" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E19" s="19" t="s">
         <v>340</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>342</v>
       </c>
       <c r="F19" s="19" t="s">
         <v>18</v>
@@ -2863,7 +2872,7 @@
         <v>60</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="19" t="s">
@@ -2904,7 +2913,7 @@
         <v>61</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="19" t="s">
@@ -2945,7 +2954,7 @@
         <v>62</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="19" t="s">
@@ -2986,7 +2995,7 @@
         <v>63</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="19" t="s">
@@ -3027,14 +3036,14 @@
         <v>64</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="19" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H24" s="5">
         <v>158</v>
@@ -3070,7 +3079,7 @@
         <v>65</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="19" t="s">
@@ -3111,10 +3120,10 @@
         <v>66</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F26" s="19" t="s">
         <v>18</v>
@@ -3154,10 +3163,10 @@
         <v>67</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F27" s="19" t="s">
         <v>18</v>
@@ -3197,10 +3206,10 @@
         <v>68</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F28" s="19" t="s">
         <v>18</v>
@@ -3240,10 +3249,10 @@
         <v>69</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F29" s="19" t="s">
         <v>18</v>
@@ -3283,7 +3292,7 @@
         <v>70</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="19" t="s">
@@ -3324,7 +3333,7 @@
         <v>71</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="19" t="s">
@@ -3365,7 +3374,7 @@
         <v>72</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="19" t="s">
@@ -3406,7 +3415,7 @@
         <v>73</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="19" t="s">
@@ -3447,14 +3456,14 @@
         <v>75</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="9" t="s">
         <v>25</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="H34" s="9">
         <v>171</v>
@@ -3490,16 +3499,16 @@
         <v>76</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="9" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
@@ -3531,7 +3540,7 @@
         <v>77</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="26" t="s">
@@ -3572,7 +3581,7 @@
         <v>78</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="26" t="s">
@@ -3613,7 +3622,7 @@
         <v>79</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="26" t="s">
@@ -3654,7 +3663,7 @@
         <v>80</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="26" t="s">
@@ -3695,7 +3704,7 @@
         <v>81</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="26" t="s">
@@ -3709,7 +3718,7 @@
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
@@ -3740,16 +3749,16 @@
         <v>82</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F41" s="9" t="s">
         <v>25</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="H41" s="9">
         <v>1675</v>
@@ -3785,7 +3794,7 @@
         <v>83</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="9" t="s">
@@ -3865,7 +3874,7 @@
         <v>85</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="9" t="s">
@@ -3904,7 +3913,7 @@
         <v>86</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E45" s="9"/>
       <c r="F45" s="9" t="s">
@@ -3943,7 +3952,7 @@
         <v>87</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E46" s="9"/>
       <c r="F46" s="9" t="s">
@@ -3982,7 +3991,7 @@
         <v>88</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="9" t="s">
@@ -4021,7 +4030,7 @@
         <v>89</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E48" s="9"/>
       <c r="F48" s="9" t="s">
@@ -4060,7 +4069,7 @@
         <v>90</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E49" s="9"/>
       <c r="F49" s="9" t="s">
@@ -4099,7 +4108,7 @@
         <v>91</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="9" t="s">
@@ -4138,7 +4147,7 @@
         <v>92</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E51" s="9"/>
       <c r="F51" s="9" t="s">
@@ -4177,7 +4186,7 @@
         <v>93</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="9" t="s">
@@ -4216,7 +4225,7 @@
         <v>94</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="9" t="s">
@@ -4255,7 +4264,7 @@
         <v>95</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E54" s="9"/>
       <c r="F54" s="9" t="s">
@@ -4294,7 +4303,7 @@
         <v>96</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="9" t="s">
@@ -4333,7 +4342,7 @@
         <v>97</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="26" t="s">
@@ -4347,7 +4356,7 @@
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
@@ -4378,7 +4387,7 @@
         <v>98</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E57" s="9"/>
       <c r="F57" s="26" t="s">
@@ -4392,7 +4401,7 @@
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="K57" s="9"/>
       <c r="L57" s="9"/>
@@ -4423,7 +4432,7 @@
         <v>99</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E58" s="9"/>
       <c r="F58" s="26" t="s">
@@ -4437,7 +4446,7 @@
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
@@ -4468,7 +4477,7 @@
         <v>100</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E59" s="9"/>
       <c r="F59" s="26" t="s">
@@ -4482,7 +4491,7 @@
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="K59" s="9"/>
       <c r="L59" s="9"/>
@@ -4513,7 +4522,7 @@
         <v>101</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="26" t="s">
@@ -4527,7 +4536,7 @@
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
@@ -4558,7 +4567,7 @@
         <v>102</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E61" s="9"/>
       <c r="F61" s="26" t="s">
@@ -4572,7 +4581,7 @@
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="K61" s="9"/>
       <c r="L61" s="9"/>
@@ -4603,7 +4612,7 @@
         <v>103</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E62" s="9"/>
       <c r="F62" s="26" t="s">
@@ -4617,7 +4626,7 @@
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="K62" s="9"/>
       <c r="L62" s="9"/>
@@ -4648,7 +4657,7 @@
         <v>104</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E63" s="9"/>
       <c r="F63" s="26" t="s">
@@ -4662,7 +4671,7 @@
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="K63" s="9"/>
       <c r="L63" s="9"/>
@@ -4693,7 +4702,7 @@
         <v>105</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E64" s="9"/>
       <c r="F64" s="26" t="s">
@@ -4707,7 +4716,7 @@
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="K64" s="9"/>
       <c r="L64" s="9"/>
@@ -4738,7 +4747,7 @@
         <v>106</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E65" s="9"/>
       <c r="F65" s="26" t="s">
@@ -4752,7 +4761,7 @@
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="K65" s="9"/>
       <c r="L65" s="9"/>
@@ -5244,7 +5253,7 @@
         <v>25</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="H76" s="4">
         <v>2545</v>
@@ -6254,7 +6263,7 @@
         <v>195</v>
       </c>
       <c r="D99" s="26" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E99" s="26"/>
       <c r="F99" s="26" t="s">
@@ -6297,7 +6306,7 @@
         <v>196</v>
       </c>
       <c r="D100" s="26" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E100" s="26"/>
       <c r="F100" s="26" t="s">
@@ -6340,7 +6349,7 @@
         <v>197</v>
       </c>
       <c r="D101" s="26" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="E101" s="26"/>
       <c r="F101" s="27"/>
@@ -6374,7 +6383,7 @@
         <v>198</v>
       </c>
       <c r="D102" s="26" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="E102" s="26"/>
       <c r="F102" s="26" t="s">
@@ -6388,7 +6397,7 @@
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="K102" s="9"/>
       <c r="L102" s="9"/>
@@ -6419,7 +6428,7 @@
         <v>199</v>
       </c>
       <c r="D103" s="25" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E103" s="26"/>
       <c r="F103" s="26"/>
@@ -6456,7 +6465,7 @@
         <v>200</v>
       </c>
       <c r="D104" s="26" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E104" s="26"/>
       <c r="F104" s="26" t="s">
@@ -6470,7 +6479,7 @@
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="K104" s="9"/>
       <c r="L104" s="9"/>
@@ -6501,7 +6510,7 @@
         <v>201</v>
       </c>
       <c r="D105" s="26" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E105" s="26"/>
       <c r="F105" s="26"/>
@@ -6538,7 +6547,7 @@
         <v>202</v>
       </c>
       <c r="D106" s="26" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E106" s="26"/>
       <c r="F106" s="26" t="s">
@@ -6552,7 +6561,7 @@
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="K106" s="9"/>
       <c r="L106" s="9"/>
@@ -6583,7 +6592,7 @@
         <v>203</v>
       </c>
       <c r="D107" s="26" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E107" s="26"/>
       <c r="F107" s="26"/>
@@ -6620,7 +6629,7 @@
         <v>204</v>
       </c>
       <c r="D108" s="26" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E108" s="26"/>
       <c r="F108" s="26" t="s">
@@ -6634,7 +6643,7 @@
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="K108" s="9"/>
       <c r="L108" s="9"/>
@@ -6665,7 +6674,7 @@
         <v>205</v>
       </c>
       <c r="D109" s="26" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E109" s="26"/>
       <c r="F109" s="26"/>
@@ -6702,7 +6711,7 @@
         <v>206</v>
       </c>
       <c r="D110" s="26" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E110" s="26"/>
       <c r="F110" s="26" t="s">
@@ -6716,7 +6725,7 @@
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="K110" s="9"/>
       <c r="L110" s="9"/>
@@ -6747,7 +6756,7 @@
         <v>207</v>
       </c>
       <c r="D111" s="26" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E111" s="26"/>
       <c r="F111" s="26"/>
@@ -6786,7 +6795,7 @@
         <v>208</v>
       </c>
       <c r="D112" s="26" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E112" s="26"/>
       <c r="F112" s="26"/>
@@ -6796,7 +6805,7 @@
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="K112" s="9"/>
       <c r="L112" s="9"/>
@@ -6827,7 +6836,7 @@
         <v>209</v>
       </c>
       <c r="D113" s="26" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E113" s="26"/>
       <c r="F113" s="26" t="s">
@@ -6870,7 +6879,7 @@
         <v>210</v>
       </c>
       <c r="D114" s="26" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="E114" s="26"/>
       <c r="G114" s="26"/>
@@ -6906,14 +6915,14 @@
         <v>211</v>
       </c>
       <c r="D115" s="26" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E115" s="26"/>
       <c r="F115" s="26" t="s">
         <v>18</v>
       </c>
       <c r="G115" s="26" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="H115" s="9"/>
       <c r="I115" s="9"/>
@@ -6947,14 +6956,14 @@
         <v>212</v>
       </c>
       <c r="D116" s="26" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E116" s="26"/>
       <c r="F116" s="26" t="s">
         <v>18</v>
       </c>
       <c r="G116" s="26" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="H116" s="9"/>
       <c r="I116" s="9"/>
@@ -6988,14 +6997,14 @@
         <v>213</v>
       </c>
       <c r="D117" s="26" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E117" s="26"/>
       <c r="F117" s="26" t="s">
         <v>18</v>
       </c>
       <c r="G117" s="26" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="H117" s="9"/>
       <c r="I117" s="9"/>
@@ -7029,14 +7038,14 @@
         <v>214</v>
       </c>
       <c r="D118" s="26" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E118" s="26"/>
       <c r="F118" s="26" t="s">
         <v>18</v>
       </c>
       <c r="G118" s="26" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="H118" s="9"/>
       <c r="I118" s="9"/>
@@ -7070,14 +7079,14 @@
         <v>215</v>
       </c>
       <c r="D119" s="26" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E119" s="26"/>
       <c r="F119" s="26" t="s">
         <v>25</v>
       </c>
       <c r="G119" s="26" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H119" s="9">
         <v>993</v>
@@ -7113,7 +7122,7 @@
         <v>216</v>
       </c>
       <c r="D120" s="26" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="E120" s="26"/>
       <c r="F120" s="26" t="s">
@@ -7152,7 +7161,7 @@
         <v>217</v>
       </c>
       <c r="D121" s="26" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E121" s="26"/>
       <c r="F121" s="26" t="s">
@@ -7191,17 +7200,17 @@
         <v>218</v>
       </c>
       <c r="D122" s="26" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E122" s="26"/>
       <c r="F122" s="26" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G122" s="26"/>
       <c r="H122" s="9"/>
       <c r="I122" s="9"/>
       <c r="J122" s="9" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="K122" s="9"/>
       <c r="L122" s="9"/>
@@ -7232,7 +7241,7 @@
         <v>219</v>
       </c>
       <c r="D123" s="26" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="E123" s="26"/>
       <c r="F123" s="26" t="s">
@@ -7242,7 +7251,7 @@
       <c r="H123" s="9"/>
       <c r="I123" s="9"/>
       <c r="J123" s="9" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="K123" s="9"/>
       <c r="L123" s="9"/>
@@ -7273,7 +7282,7 @@
         <v>220</v>
       </c>
       <c r="D124" s="26" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="E124" s="26"/>
       <c r="F124" s="26" t="s">
@@ -7283,7 +7292,7 @@
       <c r="H124" s="9"/>
       <c r="I124" s="9"/>
       <c r="J124" s="9" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="K124" s="9"/>
       <c r="L124" s="9"/>
@@ -7314,7 +7323,7 @@
         <v>221</v>
       </c>
       <c r="D125" s="26" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="E125" s="26"/>
       <c r="F125" s="26" t="s">
@@ -7353,7 +7362,7 @@
         <v>222</v>
       </c>
       <c r="D126" s="26" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E126" s="26"/>
       <c r="F126" s="26" t="s">
@@ -7396,14 +7405,14 @@
         <v>223</v>
       </c>
       <c r="D127" s="26" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="E127" s="26"/>
       <c r="F127" s="26" t="s">
         <v>25</v>
       </c>
       <c r="G127" s="26" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="H127" s="9">
         <v>1543</v>
@@ -7439,7 +7448,7 @@
         <v>224</v>
       </c>
       <c r="D128" s="26" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="E128" s="26"/>
       <c r="F128" s="26" t="s">
@@ -7452,10 +7461,10 @@
         <v>1544</v>
       </c>
       <c r="I128" s="9" t="s">
-        <v>429</v>
+        <v>514</v>
       </c>
       <c r="J128" s="9" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="K128" s="9"/>
       <c r="L128" s="9"/>
@@ -7486,7 +7495,7 @@
         <v>225</v>
       </c>
       <c r="D129" s="26" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E129" s="9"/>
       <c r="F129" s="9" t="s">
@@ -7525,7 +7534,7 @@
         <v>226</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E130" s="5"/>
       <c r="F130" s="11" t="s">
@@ -7566,7 +7575,7 @@
         <v>227</v>
       </c>
       <c r="D131" s="19" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E131" s="5"/>
       <c r="F131" s="11" t="s">
@@ -7577,7 +7586,7 @@
         <v>251</v>
       </c>
       <c r="I131" s="19" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="J131" s="5"/>
       <c r="K131" s="5"/>
@@ -7609,7 +7618,7 @@
         <v>228</v>
       </c>
       <c r="D132" s="19" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E132" s="5"/>
       <c r="F132" s="11" t="s">
@@ -7620,7 +7629,7 @@
         <v>257</v>
       </c>
       <c r="I132" s="19" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="J132" s="5"/>
       <c r="K132" s="5"/>
@@ -7652,7 +7661,7 @@
         <v>229</v>
       </c>
       <c r="D133" s="19" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E133" s="5"/>
       <c r="F133" s="11" t="s">
@@ -7663,7 +7672,7 @@
         <v>1413</v>
       </c>
       <c r="I133" s="19" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J133" s="5"/>
       <c r="K133" s="5"/>
@@ -7695,7 +7704,7 @@
         <v>230</v>
       </c>
       <c r="D134" s="19" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E134" s="5"/>
       <c r="F134" s="11" t="s">
@@ -7706,7 +7715,7 @@
         <v>1413</v>
       </c>
       <c r="I134" s="19" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J134" s="5"/>
       <c r="K134" s="5"/>
@@ -7738,7 +7747,7 @@
         <v>231</v>
       </c>
       <c r="D135" s="19" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E135" s="5"/>
       <c r="F135" s="11" t="s">
@@ -7749,7 +7758,7 @@
         <v>1363</v>
       </c>
       <c r="I135" s="19" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J135" s="5"/>
       <c r="K135" s="5"/>
@@ -7781,14 +7790,14 @@
         <v>232</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E136" s="5"/>
       <c r="F136" s="19" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G136" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H136" s="5">
         <v>208</v>
@@ -7824,18 +7833,18 @@
         <v>233</v>
       </c>
       <c r="D137" s="19" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F137" s="19" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G137" s="5"/>
       <c r="H137" s="5"/>
       <c r="I137" s="19" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="J137" s="5"/>
       <c r="K137" s="5"/>
@@ -7867,14 +7876,14 @@
         <v>234</v>
       </c>
       <c r="D138" s="19" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E138" s="5"/>
       <c r="F138" s="19" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G138" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H138" s="5">
         <v>208</v>
@@ -7910,16 +7919,16 @@
         <v>235</v>
       </c>
       <c r="D139" s="19" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E139" s="5"/>
       <c r="F139" s="19" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G139" s="5"/>
       <c r="H139" s="5"/>
       <c r="I139" s="19" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="J139" s="5"/>
       <c r="K139" s="5"/>
@@ -7986,22 +7995,22 @@
         <v>237</v>
       </c>
       <c r="D141" s="19" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E141" s="19" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F141" s="19" t="s">
         <v>18</v>
       </c>
       <c r="G141" s="21" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H141" s="5">
         <v>0</v>
       </c>
       <c r="I141" s="19" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="J141" s="5"/>
       <c r="K141" s="5"/>
@@ -8033,22 +8042,22 @@
         <v>238</v>
       </c>
       <c r="D142" s="19" t="s">
+        <v>383</v>
+      </c>
+      <c r="E142" s="19" t="s">
         <v>385</v>
-      </c>
-      <c r="E142" s="19" t="s">
-        <v>387</v>
       </c>
       <c r="F142" s="19" t="s">
         <v>18</v>
       </c>
       <c r="G142" s="21" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H142" s="11">
         <v>0</v>
       </c>
       <c r="I142" s="19" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="J142" s="5"/>
       <c r="K142" s="5"/>
@@ -8080,22 +8089,22 @@
         <v>239</v>
       </c>
       <c r="D143" s="19" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E143" s="19" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F143" s="19" t="s">
         <v>18</v>
       </c>
       <c r="G143" s="21" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H143" s="11">
         <v>0</v>
       </c>
       <c r="I143" s="19" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="J143" s="5"/>
       <c r="K143" s="5"/>
@@ -8127,22 +8136,22 @@
         <v>240</v>
       </c>
       <c r="D144" s="19" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E144" s="19" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F144" s="19" t="s">
         <v>18</v>
       </c>
       <c r="G144" s="21" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H144" s="11">
         <v>0</v>
       </c>
       <c r="I144" s="19" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="J144" s="5"/>
       <c r="K144" s="5"/>
@@ -8174,22 +8183,22 @@
         <v>241</v>
       </c>
       <c r="D145" s="19" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E145" s="19" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F145" s="19" t="s">
         <v>18</v>
       </c>
       <c r="G145" s="21" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H145" s="11">
         <v>0</v>
       </c>
       <c r="I145" s="19" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="J145" s="5"/>
       <c r="K145" s="5"/>
@@ -8221,22 +8230,22 @@
         <v>242</v>
       </c>
       <c r="D146" s="19" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E146" s="19" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F146" s="19" t="s">
         <v>18</v>
       </c>
       <c r="G146" s="21" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H146" s="11">
         <v>0</v>
       </c>
       <c r="I146" s="19" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="J146" s="5"/>
       <c r="K146" s="5"/>
@@ -8268,7 +8277,7 @@
         <v>243</v>
       </c>
       <c r="D147" s="19" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E147" s="5"/>
       <c r="F147" s="19" t="s">
@@ -8279,7 +8288,7 @@
         <v>687</v>
       </c>
       <c r="I147" s="19" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="J147" s="5"/>
       <c r="K147" s="5"/>
@@ -8311,22 +8320,22 @@
         <v>244</v>
       </c>
       <c r="D148" s="19" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E148" s="19" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F148" s="19" t="s">
         <v>18</v>
       </c>
       <c r="G148" s="21" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H148" s="5">
         <v>0</v>
       </c>
       <c r="I148" s="19" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="J148" s="5"/>
       <c r="K148" s="5"/>
@@ -8358,22 +8367,22 @@
         <v>245</v>
       </c>
       <c r="D149" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="E149" s="19" t="s">
         <v>394</v>
-      </c>
-      <c r="E149" s="19" t="s">
-        <v>396</v>
       </c>
       <c r="F149" s="19" t="s">
         <v>18</v>
       </c>
       <c r="G149" s="21" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H149" s="5">
         <v>0</v>
       </c>
       <c r="I149" s="19" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="J149" s="5"/>
       <c r="K149" s="5"/>
@@ -8405,22 +8414,22 @@
         <v>246</v>
       </c>
       <c r="D150" s="19" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E150" s="19" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F150" s="19" t="s">
         <v>18</v>
       </c>
       <c r="G150" s="21" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H150" s="5">
         <v>0</v>
       </c>
       <c r="I150" s="19" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="J150" s="5"/>
       <c r="K150" s="5"/>
@@ -8452,22 +8461,22 @@
         <v>247</v>
       </c>
       <c r="D151" s="19" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E151" s="19" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F151" s="19" t="s">
         <v>18</v>
       </c>
       <c r="G151" s="21" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H151" s="5">
         <v>0</v>
       </c>
       <c r="I151" s="19" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="J151" s="5"/>
       <c r="K151" s="5"/>
@@ -8499,22 +8508,22 @@
         <v>248</v>
       </c>
       <c r="D152" s="19" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E152" s="19" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F152" s="19" t="s">
         <v>18</v>
       </c>
       <c r="G152" s="21" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H152" s="5">
         <v>0</v>
       </c>
       <c r="I152" s="19" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="J152" s="5"/>
       <c r="K152" s="5"/>
@@ -8546,22 +8555,22 @@
         <v>249</v>
       </c>
       <c r="D153" s="19" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E153" s="19" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F153" s="19" t="s">
         <v>18</v>
       </c>
       <c r="G153" s="21" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H153" s="11">
         <v>0</v>
       </c>
       <c r="I153" s="19" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="J153" s="5"/>
       <c r="K153" s="5"/>
@@ -8593,7 +8602,7 @@
         <v>250</v>
       </c>
       <c r="D154" s="19" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E154" s="5"/>
       <c r="F154" s="19" t="s">
@@ -8636,20 +8645,20 @@
         <v>251</v>
       </c>
       <c r="D155" s="19" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E155" s="5"/>
       <c r="F155" s="19" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G155" s="19" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H155" s="5">
         <v>2911</v>
       </c>
       <c r="I155" s="19" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="J155" s="5"/>
       <c r="K155" s="5"/>
@@ -8681,18 +8690,18 @@
         <v>252</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E156" s="5"/>
       <c r="F156" s="19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G156" s="5"/>
       <c r="H156" s="5">
         <v>2918</v>
       </c>
       <c r="I156" s="19" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="J156" s="5"/>
       <c r="K156" s="5"/>
@@ -8724,20 +8733,20 @@
         <v>253</v>
       </c>
       <c r="D157" s="19" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E157" s="5"/>
       <c r="F157" s="19" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G157" s="5" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H157" s="5">
         <v>2949</v>
       </c>
       <c r="I157" s="19" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="J157" s="5"/>
       <c r="K157" s="5"/>
@@ -8769,7 +8778,7 @@
         <v>254</v>
       </c>
       <c r="D158" s="19" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E158" s="5"/>
       <c r="F158" s="19" t="s">
@@ -8812,13 +8821,13 @@
         <v>255</v>
       </c>
       <c r="D159" s="19" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E159" s="11" t="s">
         <v>260</v>
       </c>
       <c r="F159" s="19" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G159" s="5"/>
       <c r="H159" s="5">
@@ -8857,13 +8866,13 @@
         <v>256</v>
       </c>
       <c r="D160" s="19" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E160" s="11" t="s">
         <v>260</v>
       </c>
       <c r="F160" s="19" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G160" s="5"/>
       <c r="H160" s="5">
@@ -8902,13 +8911,13 @@
         <v>257</v>
       </c>
       <c r="D161" s="19" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E161" s="11" t="s">
         <v>260</v>
       </c>
       <c r="F161" s="19" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G161" s="5"/>
       <c r="H161" s="5">
@@ -8947,13 +8956,13 @@
         <v>259</v>
       </c>
       <c r="D162" s="22" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E162" s="14" t="s">
         <v>260</v>
       </c>
       <c r="F162" s="22" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G162" s="14" t="s">
         <v>261</v>
@@ -9771,10 +9780,10 @@
         <v>258</v>
       </c>
       <c r="C181" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="D181" s="14" t="s">
         <v>306</v>
-      </c>
-      <c r="D181" s="14" t="s">
-        <v>307</v>
       </c>
       <c r="E181" s="17"/>
       <c r="F181" s="14" t="s">
@@ -9784,7 +9793,9 @@
       <c r="H181" s="15">
         <v>690</v>
       </c>
-      <c r="I181" s="17"/>
+      <c r="I181" s="17" t="s">
+        <v>516</v>
+      </c>
       <c r="J181" s="9"/>
       <c r="K181" s="9"/>
       <c r="L181" s="9"/>
@@ -9812,17 +9823,17 @@
         <v>258</v>
       </c>
       <c r="C182" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="D182" s="14" t="s">
         <v>308</v>
-      </c>
-      <c r="D182" s="14" t="s">
-        <v>309</v>
       </c>
       <c r="E182" s="17"/>
       <c r="F182" s="14" t="s">
         <v>25</v>
       </c>
       <c r="G182" s="14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H182" s="15">
         <v>266</v>
@@ -9855,14 +9866,14 @@
         <v>258</v>
       </c>
       <c r="C183" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="D183" s="14" t="s">
         <v>311</v>
-      </c>
-      <c r="D183" s="14" t="s">
-        <v>312</v>
       </c>
       <c r="E183" s="17"/>
       <c r="F183" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G183" s="17"/>
       <c r="H183" s="15">
@@ -9896,17 +9907,17 @@
         <v>258</v>
       </c>
       <c r="C184" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="D184" s="14" t="s">
         <v>314</v>
-      </c>
-      <c r="D184" s="14" t="s">
-        <v>315</v>
       </c>
       <c r="E184" s="17"/>
       <c r="F184" s="14" t="s">
         <v>25</v>
       </c>
       <c r="G184" s="14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H184" s="15">
         <v>436</v>
@@ -9939,14 +9950,14 @@
         <v>258</v>
       </c>
       <c r="C185" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="D185" s="14" t="s">
         <v>316</v>
-      </c>
-      <c r="D185" s="14" t="s">
-        <v>317</v>
       </c>
       <c r="E185" s="17"/>
       <c r="F185" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G185" s="17"/>
       <c r="H185" s="15">
@@ -9980,14 +9991,14 @@
         <v>258</v>
       </c>
       <c r="C186" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="D186" s="14" t="s">
         <v>318</v>
-      </c>
-      <c r="D186" s="14" t="s">
-        <v>319</v>
       </c>
       <c r="E186" s="17"/>
       <c r="F186" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G186" s="17"/>
       <c r="H186" s="15">
@@ -10021,22 +10032,24 @@
         <v>258</v>
       </c>
       <c r="C187" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="D187" s="14" t="s">
         <v>320</v>
-      </c>
-      <c r="D187" s="14" t="s">
-        <v>321</v>
       </c>
       <c r="E187" s="17"/>
       <c r="F187" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G187" s="14" t="s">
-        <v>322</v>
+      <c r="G187" s="29" t="s">
+        <v>512</v>
       </c>
       <c r="H187" s="15">
-        <v>277</v>
-      </c>
-      <c r="I187" s="17"/>
+        <v>270</v>
+      </c>
+      <c r="I187" s="17" t="s">
+        <v>513</v>
+      </c>
       <c r="J187" s="9"/>
       <c r="K187" s="9"/>
       <c r="L187" s="9"/>
@@ -10064,14 +10077,14 @@
         <v>258</v>
       </c>
       <c r="C188" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D188" s="14" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E188" s="17"/>
       <c r="F188" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G188" s="17"/>
       <c r="H188" s="15">
@@ -10105,10 +10118,10 @@
         <v>258</v>
       </c>
       <c r="C189" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D189" s="14" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E189" s="17"/>
       <c r="F189" s="14" t="s">
@@ -10148,14 +10161,14 @@
         <v>258</v>
       </c>
       <c r="C190" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D190" s="14" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E190" s="17"/>
       <c r="F190" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G190" s="17"/>
       <c r="H190" s="15">
@@ -10189,10 +10202,10 @@
         <v>258</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D191" s="14" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E191" s="17"/>
       <c r="F191" s="14" t="s">
@@ -10232,10 +10245,10 @@
         <v>258</v>
       </c>
       <c r="C192" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D192" s="14" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E192" s="17"/>
       <c r="F192" s="14" t="s">
@@ -10248,7 +10261,7 @@
         <v>3394</v>
       </c>
       <c r="I192" s="18" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="J192" s="9"/>
       <c r="K192" s="9"/>
@@ -10271,19 +10284,19 @@
     </row>
     <row r="193" spans="1:27" s="24" customFormat="1" ht="12.75" customHeight="1">
       <c r="A193" s="23" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B193" s="23" t="s">
         <v>10</v>
       </c>
       <c r="C193" s="23" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D193" s="23" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E193" s="23" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F193" s="23" t="s">
         <v>177</v>
@@ -10293,7 +10306,7 @@
         <v>682</v>
       </c>
       <c r="I193" s="23" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="J193" s="23"/>
       <c r="K193" s="23"/>
@@ -10316,19 +10329,19 @@
     </row>
     <row r="194" spans="1:27" s="24" customFormat="1" ht="12.75" customHeight="1">
       <c r="A194" s="23" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B194" s="23" t="s">
         <v>10</v>
       </c>
       <c r="C194" s="23" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D194" s="23" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E194" s="23" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F194" s="23" t="s">
         <v>177</v>
@@ -10338,7 +10351,7 @@
         <v>3894</v>
       </c>
       <c r="I194" s="23" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="J194" s="23"/>
       <c r="K194" s="23"/>

--- a/UNITE_curation_dictionary.xlsx
+++ b/UNITE_curation_dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ari/Dropbox/Documents/UDA/PROJECTS- ICU big data/UNITE COVID/UNITE-COVID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8F045C-13B3-6F4C-9085-2F3B337F8422}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DADC07-11EE-BB46-AEAC-35B7C412903C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6900" yWindow="5280" windowWidth="39020" windowHeight="24600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7540" yWindow="1400" windowWidth="39020" windowHeight="24600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="names" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="519">
   <si>
     <t>variable number</t>
   </si>
@@ -1572,6 +1572,12 @@
   </si>
   <si>
     <t>Now renamed correctly (was incorrectly "COAG_WITHOUT_ANTIMIC_INT" in original data)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Highest fibrinogen during ICU stay </t>
+  </si>
+  <si>
+    <t>Fibrinogen at ICU admission</t>
   </si>
 </sst>
 </file>
@@ -1651,7 +1657,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1667,12 +1673,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEEF3FC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1710,7 +1710,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1770,14 +1770,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2000,8 +1997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="C129" sqref="C129"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -3543,10 +3540,10 @@
         <v>481</v>
       </c>
       <c r="E36" s="9"/>
-      <c r="F36" s="26" t="s">
+      <c r="F36" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="G36" s="26" t="s">
+      <c r="G36" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H36" s="9"/>
@@ -3584,10 +3581,10 @@
         <v>482</v>
       </c>
       <c r="E37" s="9"/>
-      <c r="F37" s="26" t="s">
+      <c r="F37" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="G37" s="26" t="s">
+      <c r="G37" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H37" s="9"/>
@@ -3625,10 +3622,10 @@
         <v>484</v>
       </c>
       <c r="E38" s="9"/>
-      <c r="F38" s="26" t="s">
+      <c r="F38" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="G38" s="26" t="s">
+      <c r="G38" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H38" s="9"/>
@@ -3666,10 +3663,10 @@
         <v>483</v>
       </c>
       <c r="E39" s="9"/>
-      <c r="F39" s="26" t="s">
+      <c r="F39" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="G39" s="26" t="s">
+      <c r="G39" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H39" s="9"/>
@@ -3707,10 +3704,10 @@
         <v>457</v>
       </c>
       <c r="E40" s="9"/>
-      <c r="F40" s="26" t="s">
+      <c r="F40" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="G40" s="26" t="s">
+      <c r="G40" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H40" s="9">
@@ -4149,7 +4146,9 @@
       <c r="D51" s="9" t="s">
         <v>494</v>
       </c>
-      <c r="E51" s="9"/>
+      <c r="E51" s="9" t="s">
+        <v>518</v>
+      </c>
       <c r="F51" s="9" t="s">
         <v>177</v>
       </c>
@@ -4341,14 +4340,14 @@
       <c r="C56" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D56" s="28" t="s">
+      <c r="D56" s="27" t="s">
         <v>499</v>
       </c>
       <c r="E56" s="9"/>
-      <c r="F56" s="26" t="s">
+      <c r="F56" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="G56" s="26" t="s">
+      <c r="G56" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H56" s="9">
@@ -4390,10 +4389,10 @@
         <v>470</v>
       </c>
       <c r="E57" s="9"/>
-      <c r="F57" s="26" t="s">
+      <c r="F57" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="G57" s="26" t="s">
+      <c r="G57" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H57" s="9">
@@ -4435,10 +4434,10 @@
         <v>471</v>
       </c>
       <c r="E58" s="9"/>
-      <c r="F58" s="26" t="s">
+      <c r="F58" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="G58" s="26" t="s">
+      <c r="G58" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H58" s="9">
@@ -4480,10 +4479,10 @@
         <v>472</v>
       </c>
       <c r="E59" s="9"/>
-      <c r="F59" s="26" t="s">
+      <c r="F59" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="G59" s="26" t="s">
+      <c r="G59" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H59" s="9">
@@ -4525,10 +4524,10 @@
         <v>473</v>
       </c>
       <c r="E60" s="9"/>
-      <c r="F60" s="26" t="s">
+      <c r="F60" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="G60" s="26" t="s">
+      <c r="G60" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H60" s="9">
@@ -4570,10 +4569,10 @@
         <v>474</v>
       </c>
       <c r="E61" s="9"/>
-      <c r="F61" s="26" t="s">
+      <c r="F61" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="G61" s="26" t="s">
+      <c r="G61" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H61" s="9">
@@ -4615,10 +4614,10 @@
         <v>475</v>
       </c>
       <c r="E62" s="9"/>
-      <c r="F62" s="26" t="s">
+      <c r="F62" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="G62" s="26" t="s">
+      <c r="G62" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H62" s="9">
@@ -4660,10 +4659,10 @@
         <v>469</v>
       </c>
       <c r="E63" s="9"/>
-      <c r="F63" s="26" t="s">
+      <c r="F63" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="G63" s="26" t="s">
+      <c r="G63" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H63" s="9">
@@ -4705,10 +4704,10 @@
         <v>476</v>
       </c>
       <c r="E64" s="9"/>
-      <c r="F64" s="26" t="s">
+      <c r="F64" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="G64" s="26" t="s">
+      <c r="G64" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H64" s="9">
@@ -4750,10 +4749,10 @@
         <v>477</v>
       </c>
       <c r="E65" s="9"/>
-      <c r="F65" s="26" t="s">
+      <c r="F65" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="G65" s="26" t="s">
+      <c r="G65" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H65" s="9">
@@ -6262,14 +6261,14 @@
       <c r="C99" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="D99" s="26" t="s">
+      <c r="D99" s="25" t="s">
         <v>428</v>
       </c>
-      <c r="E99" s="26"/>
-      <c r="F99" s="26" t="s">
+      <c r="E99" s="25"/>
+      <c r="F99" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="G99" s="26" t="s">
+      <c r="G99" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H99" s="9">
@@ -6305,14 +6304,14 @@
       <c r="C100" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="D100" s="26" t="s">
+      <c r="D100" s="25" t="s">
         <v>430</v>
       </c>
-      <c r="E100" s="26"/>
-      <c r="F100" s="26" t="s">
+      <c r="E100" s="25"/>
+      <c r="F100" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="G100" s="26" t="s">
+      <c r="G100" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H100" s="9">
@@ -6348,12 +6347,12 @@
       <c r="C101" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="D101" s="26" t="s">
+      <c r="D101" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="E101" s="26"/>
-      <c r="F101" s="27"/>
-      <c r="G101" s="27"/>
+      <c r="E101" s="25"/>
+      <c r="F101" s="26"/>
+      <c r="G101" s="26"/>
       <c r="K101" s="9"/>
       <c r="L101" s="9"/>
       <c r="M101" s="9"/>
@@ -6372,7 +6371,7 @@
       <c r="Z101" s="9"/>
       <c r="AA101" s="9"/>
     </row>
-    <row r="102" spans="1:27" ht="12.75" customHeight="1" thickBot="1">
+    <row r="102" spans="1:27" ht="12.75" customHeight="1">
       <c r="A102" s="8">
         <v>101</v>
       </c>
@@ -6382,14 +6381,14 @@
       <c r="C102" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="D102" s="26" t="s">
+      <c r="D102" s="25" t="s">
         <v>427</v>
       </c>
-      <c r="E102" s="26"/>
-      <c r="F102" s="26" t="s">
+      <c r="E102" s="25"/>
+      <c r="F102" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="G102" s="26" t="s">
+      <c r="G102" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H102" s="9">
@@ -6417,7 +6416,7 @@
       <c r="Z102" s="9"/>
       <c r="AA102" s="9"/>
     </row>
-    <row r="103" spans="1:27" ht="12.75" customHeight="1" thickBot="1">
+    <row r="103" spans="1:27" ht="12.75" customHeight="1">
       <c r="A103" s="8">
         <v>102</v>
       </c>
@@ -6430,9 +6429,9 @@
       <c r="D103" s="25" t="s">
         <v>431</v>
       </c>
-      <c r="E103" s="26"/>
-      <c r="F103" s="26"/>
-      <c r="G103" s="26"/>
+      <c r="E103" s="25"/>
+      <c r="F103" s="25"/>
+      <c r="G103" s="25"/>
       <c r="H103" s="9"/>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -6464,14 +6463,14 @@
       <c r="C104" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="D104" s="26" t="s">
+      <c r="D104" s="25" t="s">
         <v>433</v>
       </c>
-      <c r="E104" s="26"/>
-      <c r="F104" s="26" t="s">
+      <c r="E104" s="25"/>
+      <c r="F104" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="G104" s="26" t="s">
+      <c r="G104" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H104" s="9">
@@ -6509,12 +6508,12 @@
       <c r="C105" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="D105" s="26" t="s">
+      <c r="D105" s="25" t="s">
         <v>432</v>
       </c>
-      <c r="E105" s="26"/>
-      <c r="F105" s="26"/>
-      <c r="G105" s="26"/>
+      <c r="E105" s="25"/>
+      <c r="F105" s="25"/>
+      <c r="G105" s="25"/>
       <c r="H105" s="9"/>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -6546,14 +6545,14 @@
       <c r="C106" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="D106" s="26" t="s">
+      <c r="D106" s="25" t="s">
         <v>434</v>
       </c>
-      <c r="E106" s="26"/>
-      <c r="F106" s="26" t="s">
+      <c r="E106" s="25"/>
+      <c r="F106" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="G106" s="26" t="s">
+      <c r="G106" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H106" s="9">
@@ -6591,12 +6590,12 @@
       <c r="C107" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="D107" s="26" t="s">
+      <c r="D107" s="25" t="s">
         <v>435</v>
       </c>
-      <c r="E107" s="26"/>
-      <c r="F107" s="26"/>
-      <c r="G107" s="26"/>
+      <c r="E107" s="25"/>
+      <c r="F107" s="25"/>
+      <c r="G107" s="25"/>
       <c r="H107" s="9"/>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -6628,14 +6627,14 @@
       <c r="C108" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="D108" s="26" t="s">
+      <c r="D108" s="25" t="s">
         <v>436</v>
       </c>
-      <c r="E108" s="26"/>
-      <c r="F108" s="26" t="s">
+      <c r="E108" s="25"/>
+      <c r="F108" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="G108" s="26" t="s">
+      <c r="G108" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H108" s="9">
@@ -6673,12 +6672,12 @@
       <c r="C109" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="D109" s="26" t="s">
+      <c r="D109" s="25" t="s">
         <v>437</v>
       </c>
-      <c r="E109" s="26"/>
-      <c r="F109" s="26"/>
-      <c r="G109" s="26"/>
+      <c r="E109" s="25"/>
+      <c r="F109" s="25"/>
+      <c r="G109" s="25"/>
       <c r="H109" s="9"/>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -6710,14 +6709,14 @@
       <c r="C110" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="D110" s="26" t="s">
+      <c r="D110" s="25" t="s">
         <v>438</v>
       </c>
-      <c r="E110" s="26"/>
-      <c r="F110" s="26" t="s">
+      <c r="E110" s="25"/>
+      <c r="F110" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="G110" s="26" t="s">
+      <c r="G110" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H110" s="9">
@@ -6755,12 +6754,12 @@
       <c r="C111" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="D111" s="26" t="s">
+      <c r="D111" s="25" t="s">
         <v>439</v>
       </c>
-      <c r="E111" s="26"/>
-      <c r="F111" s="26"/>
-      <c r="G111" s="26"/>
+      <c r="E111" s="25"/>
+      <c r="F111" s="25"/>
+      <c r="G111" s="25"/>
       <c r="H111" s="9">
         <v>2136</v>
       </c>
@@ -6794,12 +6793,12 @@
       <c r="C112" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="D112" s="26" t="s">
+      <c r="D112" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="E112" s="26"/>
-      <c r="F112" s="26"/>
-      <c r="G112" s="26"/>
+      <c r="E112" s="25"/>
+      <c r="F112" s="25"/>
+      <c r="G112" s="25"/>
       <c r="H112" s="9">
         <v>2130</v>
       </c>
@@ -6835,14 +6834,14 @@
       <c r="C113" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="D113" s="26" t="s">
+      <c r="D113" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="E113" s="26"/>
-      <c r="F113" s="26" t="s">
+      <c r="E113" s="25"/>
+      <c r="F113" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="G113" s="26" t="s">
+      <c r="G113" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H113" s="9">
@@ -6878,11 +6877,11 @@
       <c r="C114" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="D114" s="26" t="s">
+      <c r="D114" s="25" t="s">
         <v>442</v>
       </c>
-      <c r="E114" s="26"/>
-      <c r="G114" s="26"/>
+      <c r="E114" s="25"/>
+      <c r="G114" s="25"/>
       <c r="H114" s="9"/>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -6914,14 +6913,14 @@
       <c r="C115" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="D115" s="26" t="s">
+      <c r="D115" s="25" t="s">
         <v>443</v>
       </c>
-      <c r="E115" s="26"/>
-      <c r="F115" s="26" t="s">
+      <c r="E115" s="25"/>
+      <c r="F115" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="G115" s="26" t="s">
+      <c r="G115" s="25" t="s">
         <v>447</v>
       </c>
       <c r="H115" s="9"/>
@@ -6955,14 +6954,14 @@
       <c r="C116" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D116" s="26" t="s">
+      <c r="D116" s="25" t="s">
         <v>444</v>
       </c>
-      <c r="E116" s="26"/>
-      <c r="F116" s="26" t="s">
+      <c r="E116" s="25"/>
+      <c r="F116" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="G116" s="26" t="s">
+      <c r="G116" s="25" t="s">
         <v>447</v>
       </c>
       <c r="H116" s="9"/>
@@ -6996,14 +6995,14 @@
       <c r="C117" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="D117" s="26" t="s">
+      <c r="D117" s="25" t="s">
         <v>445</v>
       </c>
-      <c r="E117" s="26"/>
-      <c r="F117" s="26" t="s">
+      <c r="E117" s="25"/>
+      <c r="F117" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="G117" s="26" t="s">
+      <c r="G117" s="25" t="s">
         <v>447</v>
       </c>
       <c r="H117" s="9"/>
@@ -7037,14 +7036,14 @@
       <c r="C118" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="D118" s="26" t="s">
+      <c r="D118" s="25" t="s">
         <v>446</v>
       </c>
-      <c r="E118" s="26"/>
-      <c r="F118" s="26" t="s">
+      <c r="E118" s="25"/>
+      <c r="F118" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="G118" s="26" t="s">
+      <c r="G118" s="25" t="s">
         <v>447</v>
       </c>
       <c r="H118" s="9"/>
@@ -7078,14 +7077,14 @@
       <c r="C119" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="D119" s="26" t="s">
+      <c r="D119" s="25" t="s">
         <v>448</v>
       </c>
-      <c r="E119" s="26"/>
-      <c r="F119" s="26" t="s">
+      <c r="E119" s="25"/>
+      <c r="F119" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="G119" s="26" t="s">
+      <c r="G119" s="25" t="s">
         <v>449</v>
       </c>
       <c r="H119" s="9">
@@ -7121,14 +7120,14 @@
       <c r="C120" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="D120" s="26" t="s">
+      <c r="D120" s="25" t="s">
         <v>509</v>
       </c>
-      <c r="E120" s="26"/>
-      <c r="F120" s="26" t="s">
+      <c r="E120" s="25"/>
+      <c r="F120" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="G120" s="26"/>
+      <c r="G120" s="25"/>
       <c r="H120" s="9"/>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -7160,14 +7159,14 @@
       <c r="C121" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="D121" s="26" t="s">
+      <c r="D121" s="25" t="s">
         <v>508</v>
       </c>
-      <c r="E121" s="26"/>
-      <c r="F121" s="26" t="s">
+      <c r="E121" s="25"/>
+      <c r="F121" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="G121" s="26"/>
+      <c r="G121" s="25"/>
       <c r="H121" s="9"/>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -7199,14 +7198,14 @@
       <c r="C122" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="D122" s="26" t="s">
+      <c r="D122" s="25" t="s">
         <v>452</v>
       </c>
-      <c r="E122" s="26"/>
-      <c r="F122" s="26" t="s">
+      <c r="E122" s="25"/>
+      <c r="F122" s="25" t="s">
         <v>451</v>
       </c>
-      <c r="G122" s="26"/>
+      <c r="G122" s="25"/>
       <c r="H122" s="9"/>
       <c r="I122" s="9"/>
       <c r="J122" s="9" t="s">
@@ -7240,14 +7239,14 @@
       <c r="C123" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="D123" s="26" t="s">
+      <c r="D123" s="25" t="s">
         <v>507</v>
       </c>
-      <c r="E123" s="26"/>
-      <c r="F123" s="26" t="s">
+      <c r="E123" s="25"/>
+      <c r="F123" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="G123" s="26"/>
+      <c r="G123" s="25"/>
       <c r="H123" s="9"/>
       <c r="I123" s="9"/>
       <c r="J123" s="9" t="s">
@@ -7281,14 +7280,14 @@
       <c r="C124" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="D124" s="26" t="s">
+      <c r="D124" s="25" t="s">
         <v>454</v>
       </c>
-      <c r="E124" s="26"/>
-      <c r="F124" s="26" t="s">
+      <c r="E124" s="25"/>
+      <c r="F124" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="G124" s="26"/>
+      <c r="G124" s="25"/>
       <c r="H124" s="9"/>
       <c r="I124" s="9"/>
       <c r="J124" s="9" t="s">
@@ -7322,14 +7321,14 @@
       <c r="C125" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="D125" s="26" t="s">
+      <c r="D125" s="25" t="s">
         <v>506</v>
       </c>
-      <c r="E125" s="26"/>
-      <c r="F125" s="26" t="s">
+      <c r="E125" s="25"/>
+      <c r="F125" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="G125" s="26"/>
+      <c r="G125" s="25"/>
       <c r="H125" s="9"/>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -7361,14 +7360,14 @@
       <c r="C126" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="D126" s="26" t="s">
+      <c r="D126" s="25" t="s">
         <v>505</v>
       </c>
-      <c r="E126" s="26"/>
-      <c r="F126" s="26" t="s">
+      <c r="E126" s="25"/>
+      <c r="F126" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="G126" s="26" t="s">
+      <c r="G126" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H126" s="9">
@@ -7404,14 +7403,14 @@
       <c r="C127" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="D127" s="26" t="s">
+      <c r="D127" s="25" t="s">
         <v>501</v>
       </c>
-      <c r="E127" s="26"/>
-      <c r="F127" s="26" t="s">
+      <c r="E127" s="25"/>
+      <c r="F127" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="G127" s="26" t="s">
+      <c r="G127" s="25" t="s">
         <v>502</v>
       </c>
       <c r="H127" s="9">
@@ -7447,14 +7446,14 @@
       <c r="C128" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="D128" s="26" t="s">
+      <c r="D128" s="25" t="s">
         <v>504</v>
       </c>
-      <c r="E128" s="26"/>
-      <c r="F128" s="26" t="s">
+      <c r="E128" s="25"/>
+      <c r="F128" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="G128" s="26" t="s">
+      <c r="G128" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H128" s="9">
@@ -7494,10 +7493,12 @@
       <c r="C129" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="D129" s="26" t="s">
+      <c r="D129" s="25" t="s">
         <v>503</v>
       </c>
-      <c r="E129" s="9"/>
+      <c r="E129" s="9" t="s">
+        <v>517</v>
+      </c>
       <c r="F129" s="9" t="s">
         <v>177</v>
       </c>
@@ -10041,7 +10042,7 @@
       <c r="F187" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G187" s="29" t="s">
+      <c r="G187" s="28" t="s">
         <v>512</v>
       </c>
       <c r="H187" s="15">

--- a/UNITE_curation_dictionary.xlsx
+++ b/UNITE_curation_dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ari/Dropbox/Documents/UDA/PROJECTS- ICU big data/UNITE COVID/UNITE-COVID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DADC07-11EE-BB46-AEAC-35B7C412903C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB3924F-F495-C44F-B210-48CFCADE4810}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7540" yWindow="1400" windowWidth="39020" windowHeight="24600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5340" yWindow="2900" windowWidth="39020" windowHeight="24600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="names" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="518">
   <si>
     <t>variable number</t>
   </si>
@@ -808,9 +808,6 @@
     <t>antibiotic names</t>
   </si>
   <si>
-    <t>don't know what the following numbers are: 0, 1, 3, 10, 45,56,67,69</t>
-  </si>
-  <si>
     <t>INF_ANTIFUNG_YN</t>
   </si>
   <si>
@@ -824,9 +821,6 @@
   </si>
   <si>
     <t>Name of antifungal administered</t>
-  </si>
-  <si>
-    <t>missing antifungal codes</t>
   </si>
   <si>
     <t>INF_ANTIFUNG2_INT</t>
@@ -1578,6 +1572,9 @@
   </si>
   <si>
     <t>Fibrinogen at ICU admission</t>
+  </si>
+  <si>
+    <t>Some invalid codes recoded to NA</t>
   </si>
 </sst>
 </file>
@@ -1657,7 +1654,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1676,34 +1673,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1774,11 +1750,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1997,8 +1973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="F149" sqref="F149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -2487,7 +2463,7 @@
         <v>268</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>50</v>
@@ -2521,10 +2497,10 @@
         <v>52</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>18</v>
@@ -2534,7 +2510,7 @@
         <v>4995</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="J12" s="11" t="s">
         <v>27</v>
@@ -2568,10 +2544,10 @@
         <v>53</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>18</v>
@@ -2611,7 +2587,7 @@
         <v>54</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="19" t="s">
@@ -2652,7 +2628,7 @@
         <v>55</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="19" t="s">
@@ -2663,10 +2639,10 @@
         <v>0</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
@@ -2697,7 +2673,7 @@
         <v>56</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="19" t="s">
@@ -2709,7 +2685,7 @@
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="19" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
@@ -2740,7 +2716,7 @@
         <v>57</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="19" t="s">
@@ -2751,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
@@ -2785,7 +2761,7 @@
         <v>58</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="19" t="s">
@@ -2826,10 +2802,10 @@
         <v>59</v>
       </c>
       <c r="D19" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="E19" s="19" t="s">
         <v>338</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>340</v>
       </c>
       <c r="F19" s="19" t="s">
         <v>18</v>
@@ -2869,7 +2845,7 @@
         <v>60</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="19" t="s">
@@ -2910,7 +2886,7 @@
         <v>61</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="19" t="s">
@@ -2951,7 +2927,7 @@
         <v>62</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="19" t="s">
@@ -2992,7 +2968,7 @@
         <v>63</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="19" t="s">
@@ -3033,14 +3009,14 @@
         <v>64</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="19" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H24" s="5">
         <v>158</v>
@@ -3076,7 +3052,7 @@
         <v>65</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="19" t="s">
@@ -3117,10 +3093,10 @@
         <v>66</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F26" s="19" t="s">
         <v>18</v>
@@ -3160,10 +3136,10 @@
         <v>67</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F27" s="19" t="s">
         <v>18</v>
@@ -3203,10 +3179,10 @@
         <v>68</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F28" s="19" t="s">
         <v>18</v>
@@ -3246,10 +3222,10 @@
         <v>69</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F29" s="19" t="s">
         <v>18</v>
@@ -3289,7 +3265,7 @@
         <v>70</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="19" t="s">
@@ -3330,7 +3306,7 @@
         <v>71</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="19" t="s">
@@ -3371,7 +3347,7 @@
         <v>72</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="19" t="s">
@@ -3412,7 +3388,7 @@
         <v>73</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="19" t="s">
@@ -3453,14 +3429,14 @@
         <v>75</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="9" t="s">
         <v>25</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="H34" s="9">
         <v>171</v>
@@ -3496,16 +3472,16 @@
         <v>76</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="9" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
@@ -3537,7 +3513,7 @@
         <v>77</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="25" t="s">
@@ -3578,7 +3554,7 @@
         <v>78</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="25" t="s">
@@ -3619,7 +3595,7 @@
         <v>79</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="25" t="s">
@@ -3660,7 +3636,7 @@
         <v>80</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="25" t="s">
@@ -3701,7 +3677,7 @@
         <v>81</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="25" t="s">
@@ -3715,7 +3691,7 @@
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
@@ -3746,16 +3722,16 @@
         <v>82</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F41" s="9" t="s">
         <v>25</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H41" s="9">
         <v>1675</v>
@@ -3791,7 +3767,7 @@
         <v>83</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="9" t="s">
@@ -3871,7 +3847,7 @@
         <v>85</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="9" t="s">
@@ -3910,7 +3886,7 @@
         <v>86</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E45" s="9"/>
       <c r="F45" s="9" t="s">
@@ -3949,7 +3925,7 @@
         <v>87</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E46" s="9"/>
       <c r="F46" s="9" t="s">
@@ -3988,7 +3964,7 @@
         <v>88</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="9" t="s">
@@ -4027,7 +4003,7 @@
         <v>89</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E48" s="9"/>
       <c r="F48" s="9" t="s">
@@ -4066,7 +4042,7 @@
         <v>90</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E49" s="9"/>
       <c r="F49" s="9" t="s">
@@ -4105,7 +4081,7 @@
         <v>91</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="9" t="s">
@@ -4144,10 +4120,10 @@
         <v>92</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F51" s="9" t="s">
         <v>177</v>
@@ -4185,7 +4161,7 @@
         <v>93</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="9" t="s">
@@ -4224,7 +4200,7 @@
         <v>94</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="9" t="s">
@@ -4263,7 +4239,7 @@
         <v>95</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E54" s="9"/>
       <c r="F54" s="9" t="s">
@@ -4291,7 +4267,7 @@
       <c r="Z54" s="9"/>
       <c r="AA54" s="9"/>
     </row>
-    <row r="55" spans="1:27" ht="12.75" customHeight="1" thickBot="1">
+    <row r="55" spans="1:27" ht="12.75" customHeight="1">
       <c r="A55" s="8">
         <v>54</v>
       </c>
@@ -4302,7 +4278,7 @@
         <v>96</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="9" t="s">
@@ -4330,7 +4306,7 @@
       <c r="Z55" s="9"/>
       <c r="AA55" s="9"/>
     </row>
-    <row r="56" spans="1:27" ht="12.75" customHeight="1" thickBot="1">
+    <row r="56" spans="1:27" ht="12.75" customHeight="1">
       <c r="A56" s="8">
         <v>55</v>
       </c>
@@ -4340,8 +4316,8 @@
       <c r="C56" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D56" s="27" t="s">
-        <v>499</v>
+      <c r="D56" s="9" t="s">
+        <v>497</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="25" t="s">
@@ -4355,7 +4331,7 @@
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
@@ -4386,7 +4362,7 @@
         <v>98</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E57" s="9"/>
       <c r="F57" s="25" t="s">
@@ -4400,7 +4376,7 @@
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="K57" s="9"/>
       <c r="L57" s="9"/>
@@ -4431,7 +4407,7 @@
         <v>99</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E58" s="9"/>
       <c r="F58" s="25" t="s">
@@ -4445,7 +4421,7 @@
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
@@ -4476,7 +4452,7 @@
         <v>100</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E59" s="9"/>
       <c r="F59" s="25" t="s">
@@ -4490,7 +4466,7 @@
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="K59" s="9"/>
       <c r="L59" s="9"/>
@@ -4521,7 +4497,7 @@
         <v>101</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="25" t="s">
@@ -4535,7 +4511,7 @@
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
@@ -4566,7 +4542,7 @@
         <v>102</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E61" s="9"/>
       <c r="F61" s="25" t="s">
@@ -4580,7 +4556,7 @@
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="K61" s="9"/>
       <c r="L61" s="9"/>
@@ -4611,7 +4587,7 @@
         <v>103</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E62" s="9"/>
       <c r="F62" s="25" t="s">
@@ -4625,7 +4601,7 @@
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="K62" s="9"/>
       <c r="L62" s="9"/>
@@ -4656,7 +4632,7 @@
         <v>104</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E63" s="9"/>
       <c r="F63" s="25" t="s">
@@ -4670,7 +4646,7 @@
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="K63" s="9"/>
       <c r="L63" s="9"/>
@@ -4701,7 +4677,7 @@
         <v>105</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E64" s="9"/>
       <c r="F64" s="25" t="s">
@@ -4715,7 +4691,7 @@
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="K64" s="9"/>
       <c r="L64" s="9"/>
@@ -4746,7 +4722,7 @@
         <v>106</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E65" s="9"/>
       <c r="F65" s="25" t="s">
@@ -4760,7 +4736,7 @@
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="K65" s="9"/>
       <c r="L65" s="9"/>
@@ -5252,7 +5228,7 @@
         <v>25</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="H76" s="4">
         <v>2545</v>
@@ -6262,7 +6238,7 @@
         <v>195</v>
       </c>
       <c r="D99" s="25" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E99" s="25"/>
       <c r="F99" s="25" t="s">
@@ -6305,7 +6281,7 @@
         <v>196</v>
       </c>
       <c r="D100" s="25" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E100" s="25"/>
       <c r="F100" s="25" t="s">
@@ -6348,7 +6324,7 @@
         <v>197</v>
       </c>
       <c r="D101" s="25" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E101" s="25"/>
       <c r="F101" s="26"/>
@@ -6382,7 +6358,7 @@
         <v>198</v>
       </c>
       <c r="D102" s="25" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E102" s="25"/>
       <c r="F102" s="25" t="s">
@@ -6396,7 +6372,7 @@
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="K102" s="9"/>
       <c r="L102" s="9"/>
@@ -6427,7 +6403,7 @@
         <v>199</v>
       </c>
       <c r="D103" s="25" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E103" s="25"/>
       <c r="F103" s="25"/>
@@ -6464,7 +6440,7 @@
         <v>200</v>
       </c>
       <c r="D104" s="25" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E104" s="25"/>
       <c r="F104" s="25" t="s">
@@ -6478,7 +6454,7 @@
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="K104" s="9"/>
       <c r="L104" s="9"/>
@@ -6509,7 +6485,7 @@
         <v>201</v>
       </c>
       <c r="D105" s="25" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E105" s="25"/>
       <c r="F105" s="25"/>
@@ -6546,7 +6522,7 @@
         <v>202</v>
       </c>
       <c r="D106" s="25" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E106" s="25"/>
       <c r="F106" s="25" t="s">
@@ -6560,7 +6536,7 @@
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="K106" s="9"/>
       <c r="L106" s="9"/>
@@ -6591,7 +6567,7 @@
         <v>203</v>
       </c>
       <c r="D107" s="25" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E107" s="25"/>
       <c r="F107" s="25"/>
@@ -6628,7 +6604,7 @@
         <v>204</v>
       </c>
       <c r="D108" s="25" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E108" s="25"/>
       <c r="F108" s="25" t="s">
@@ -6642,7 +6618,7 @@
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="K108" s="9"/>
       <c r="L108" s="9"/>
@@ -6673,7 +6649,7 @@
         <v>205</v>
       </c>
       <c r="D109" s="25" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E109" s="25"/>
       <c r="F109" s="25"/>
@@ -6710,7 +6686,7 @@
         <v>206</v>
       </c>
       <c r="D110" s="25" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E110" s="25"/>
       <c r="F110" s="25" t="s">
@@ -6724,7 +6700,7 @@
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="K110" s="9"/>
       <c r="L110" s="9"/>
@@ -6755,7 +6731,7 @@
         <v>207</v>
       </c>
       <c r="D111" s="25" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E111" s="25"/>
       <c r="F111" s="25"/>
@@ -6794,7 +6770,7 @@
         <v>208</v>
       </c>
       <c r="D112" s="25" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E112" s="25"/>
       <c r="F112" s="25"/>
@@ -6804,7 +6780,7 @@
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="K112" s="9"/>
       <c r="L112" s="9"/>
@@ -6835,7 +6811,7 @@
         <v>209</v>
       </c>
       <c r="D113" s="25" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E113" s="25"/>
       <c r="F113" s="25" t="s">
@@ -6878,7 +6854,7 @@
         <v>210</v>
       </c>
       <c r="D114" s="25" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E114" s="25"/>
       <c r="G114" s="25"/>
@@ -6914,14 +6890,14 @@
         <v>211</v>
       </c>
       <c r="D115" s="25" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E115" s="25"/>
       <c r="F115" s="25" t="s">
         <v>18</v>
       </c>
       <c r="G115" s="25" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H115" s="9"/>
       <c r="I115" s="9"/>
@@ -6955,14 +6931,14 @@
         <v>212</v>
       </c>
       <c r="D116" s="25" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E116" s="25"/>
       <c r="F116" s="25" t="s">
         <v>18</v>
       </c>
       <c r="G116" s="25" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H116" s="9"/>
       <c r="I116" s="9"/>
@@ -6996,14 +6972,14 @@
         <v>213</v>
       </c>
       <c r="D117" s="25" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E117" s="25"/>
       <c r="F117" s="25" t="s">
         <v>18</v>
       </c>
       <c r="G117" s="25" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H117" s="9"/>
       <c r="I117" s="9"/>
@@ -7037,14 +7013,14 @@
         <v>214</v>
       </c>
       <c r="D118" s="25" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E118" s="25"/>
       <c r="F118" s="25" t="s">
         <v>18</v>
       </c>
       <c r="G118" s="25" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H118" s="9"/>
       <c r="I118" s="9"/>
@@ -7078,14 +7054,14 @@
         <v>215</v>
       </c>
       <c r="D119" s="25" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E119" s="25"/>
       <c r="F119" s="25" t="s">
         <v>25</v>
       </c>
       <c r="G119" s="25" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H119" s="9">
         <v>993</v>
@@ -7121,7 +7097,7 @@
         <v>216</v>
       </c>
       <c r="D120" s="25" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E120" s="25"/>
       <c r="F120" s="25" t="s">
@@ -7160,7 +7136,7 @@
         <v>217</v>
       </c>
       <c r="D121" s="25" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E121" s="25"/>
       <c r="F121" s="25" t="s">
@@ -7199,17 +7175,17 @@
         <v>218</v>
       </c>
       <c r="D122" s="25" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E122" s="25"/>
       <c r="F122" s="25" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G122" s="25"/>
       <c r="H122" s="9"/>
       <c r="I122" s="9"/>
       <c r="J122" s="9" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="K122" s="9"/>
       <c r="L122" s="9"/>
@@ -7240,7 +7216,7 @@
         <v>219</v>
       </c>
       <c r="D123" s="25" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E123" s="25"/>
       <c r="F123" s="25" t="s">
@@ -7250,7 +7226,7 @@
       <c r="H123" s="9"/>
       <c r="I123" s="9"/>
       <c r="J123" s="9" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="K123" s="9"/>
       <c r="L123" s="9"/>
@@ -7281,7 +7257,7 @@
         <v>220</v>
       </c>
       <c r="D124" s="25" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E124" s="25"/>
       <c r="F124" s="25" t="s">
@@ -7291,7 +7267,7 @@
       <c r="H124" s="9"/>
       <c r="I124" s="9"/>
       <c r="J124" s="9" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K124" s="9"/>
       <c r="L124" s="9"/>
@@ -7322,7 +7298,7 @@
         <v>221</v>
       </c>
       <c r="D125" s="25" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E125" s="25"/>
       <c r="F125" s="25" t="s">
@@ -7361,7 +7337,7 @@
         <v>222</v>
       </c>
       <c r="D126" s="25" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E126" s="25"/>
       <c r="F126" s="25" t="s">
@@ -7404,14 +7380,14 @@
         <v>223</v>
       </c>
       <c r="D127" s="25" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E127" s="25"/>
       <c r="F127" s="25" t="s">
         <v>25</v>
       </c>
       <c r="G127" s="25" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="H127" s="9">
         <v>1543</v>
@@ -7447,7 +7423,7 @@
         <v>224</v>
       </c>
       <c r="D128" s="25" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E128" s="25"/>
       <c r="F128" s="25" t="s">
@@ -7460,10 +7436,10 @@
         <v>1544</v>
       </c>
       <c r="I128" s="9" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="J128" s="9" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="K128" s="9"/>
       <c r="L128" s="9"/>
@@ -7494,10 +7470,10 @@
         <v>225</v>
       </c>
       <c r="D129" s="25" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F129" s="9" t="s">
         <v>177</v>
@@ -7535,7 +7511,7 @@
         <v>226</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E130" s="5"/>
       <c r="F130" s="11" t="s">
@@ -7576,7 +7552,7 @@
         <v>227</v>
       </c>
       <c r="D131" s="19" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E131" s="5"/>
       <c r="F131" s="11" t="s">
@@ -7587,7 +7563,7 @@
         <v>251</v>
       </c>
       <c r="I131" s="19" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="J131" s="5"/>
       <c r="K131" s="5"/>
@@ -7619,7 +7595,7 @@
         <v>228</v>
       </c>
       <c r="D132" s="19" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E132" s="5"/>
       <c r="F132" s="11" t="s">
@@ -7630,7 +7606,7 @@
         <v>257</v>
       </c>
       <c r="I132" s="19" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="J132" s="5"/>
       <c r="K132" s="5"/>
@@ -7662,7 +7638,7 @@
         <v>229</v>
       </c>
       <c r="D133" s="19" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E133" s="5"/>
       <c r="F133" s="11" t="s">
@@ -7673,7 +7649,7 @@
         <v>1413</v>
       </c>
       <c r="I133" s="19" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J133" s="5"/>
       <c r="K133" s="5"/>
@@ -7705,7 +7681,7 @@
         <v>230</v>
       </c>
       <c r="D134" s="19" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E134" s="5"/>
       <c r="F134" s="11" t="s">
@@ -7716,7 +7692,7 @@
         <v>1413</v>
       </c>
       <c r="I134" s="19" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J134" s="5"/>
       <c r="K134" s="5"/>
@@ -7748,7 +7724,7 @@
         <v>231</v>
       </c>
       <c r="D135" s="19" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E135" s="5"/>
       <c r="F135" s="11" t="s">
@@ -7759,7 +7735,7 @@
         <v>1363</v>
       </c>
       <c r="I135" s="19" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J135" s="5"/>
       <c r="K135" s="5"/>
@@ -7791,14 +7767,14 @@
         <v>232</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E136" s="5"/>
       <c r="F136" s="19" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G136" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H136" s="5">
         <v>208</v>
@@ -7834,18 +7810,18 @@
         <v>233</v>
       </c>
       <c r="D137" s="19" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F137" s="19" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G137" s="5"/>
       <c r="H137" s="5"/>
       <c r="I137" s="19" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="J137" s="5"/>
       <c r="K137" s="5"/>
@@ -7877,14 +7853,14 @@
         <v>234</v>
       </c>
       <c r="D138" s="19" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E138" s="5"/>
       <c r="F138" s="19" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G138" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H138" s="5">
         <v>208</v>
@@ -7920,16 +7896,16 @@
         <v>235</v>
       </c>
       <c r="D139" s="19" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E139" s="5"/>
       <c r="F139" s="19" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G139" s="5"/>
       <c r="H139" s="5"/>
       <c r="I139" s="19" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="J139" s="5"/>
       <c r="K139" s="5"/>
@@ -7996,22 +7972,22 @@
         <v>237</v>
       </c>
       <c r="D141" s="19" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E141" s="19" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F141" s="19" t="s">
         <v>18</v>
       </c>
       <c r="G141" s="21" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H141" s="5">
         <v>0</v>
       </c>
       <c r="I141" s="19" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="J141" s="5"/>
       <c r="K141" s="5"/>
@@ -8043,22 +8019,22 @@
         <v>238</v>
       </c>
       <c r="D142" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="E142" s="19" t="s">
         <v>383</v>
-      </c>
-      <c r="E142" s="19" t="s">
-        <v>385</v>
       </c>
       <c r="F142" s="19" t="s">
         <v>18</v>
       </c>
       <c r="G142" s="21" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H142" s="11">
         <v>0</v>
       </c>
       <c r="I142" s="19" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="J142" s="5"/>
       <c r="K142" s="5"/>
@@ -8090,22 +8066,22 @@
         <v>239</v>
       </c>
       <c r="D143" s="19" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E143" s="19" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F143" s="19" t="s">
         <v>18</v>
       </c>
       <c r="G143" s="21" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H143" s="11">
         <v>0</v>
       </c>
       <c r="I143" s="19" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="J143" s="5"/>
       <c r="K143" s="5"/>
@@ -8137,22 +8113,22 @@
         <v>240</v>
       </c>
       <c r="D144" s="19" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E144" s="19" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F144" s="19" t="s">
         <v>18</v>
       </c>
       <c r="G144" s="21" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H144" s="11">
         <v>0</v>
       </c>
       <c r="I144" s="19" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="J144" s="5"/>
       <c r="K144" s="5"/>
@@ -8184,22 +8160,22 @@
         <v>241</v>
       </c>
       <c r="D145" s="19" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E145" s="19" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F145" s="19" t="s">
         <v>18</v>
       </c>
       <c r="G145" s="21" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H145" s="11">
         <v>0</v>
       </c>
       <c r="I145" s="19" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="J145" s="5"/>
       <c r="K145" s="5"/>
@@ -8231,22 +8207,22 @@
         <v>242</v>
       </c>
       <c r="D146" s="19" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E146" s="19" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F146" s="19" t="s">
         <v>18</v>
       </c>
       <c r="G146" s="21" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H146" s="11">
         <v>0</v>
       </c>
       <c r="I146" s="19" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="J146" s="5"/>
       <c r="K146" s="5"/>
@@ -8278,7 +8254,7 @@
         <v>243</v>
       </c>
       <c r="D147" s="19" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E147" s="5"/>
       <c r="F147" s="19" t="s">
@@ -8289,7 +8265,7 @@
         <v>687</v>
       </c>
       <c r="I147" s="19" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="J147" s="5"/>
       <c r="K147" s="5"/>
@@ -8321,22 +8297,22 @@
         <v>244</v>
       </c>
       <c r="D148" s="19" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E148" s="19" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F148" s="19" t="s">
         <v>18</v>
       </c>
       <c r="G148" s="21" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H148" s="5">
         <v>0</v>
       </c>
       <c r="I148" s="19" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="J148" s="5"/>
       <c r="K148" s="5"/>
@@ -8368,22 +8344,22 @@
         <v>245</v>
       </c>
       <c r="D149" s="19" t="s">
+        <v>390</v>
+      </c>
+      <c r="E149" s="19" t="s">
         <v>392</v>
-      </c>
-      <c r="E149" s="19" t="s">
-        <v>394</v>
       </c>
       <c r="F149" s="19" t="s">
         <v>18</v>
       </c>
       <c r="G149" s="21" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H149" s="5">
         <v>0</v>
       </c>
       <c r="I149" s="19" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="J149" s="5"/>
       <c r="K149" s="5"/>
@@ -8415,22 +8391,22 @@
         <v>246</v>
       </c>
       <c r="D150" s="19" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E150" s="19" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F150" s="19" t="s">
         <v>18</v>
       </c>
       <c r="G150" s="21" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H150" s="5">
         <v>0</v>
       </c>
       <c r="I150" s="19" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="J150" s="5"/>
       <c r="K150" s="5"/>
@@ -8462,22 +8438,22 @@
         <v>247</v>
       </c>
       <c r="D151" s="19" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E151" s="19" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F151" s="19" t="s">
         <v>18</v>
       </c>
       <c r="G151" s="21" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H151" s="5">
         <v>0</v>
       </c>
       <c r="I151" s="19" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="J151" s="5"/>
       <c r="K151" s="5"/>
@@ -8509,22 +8485,22 @@
         <v>248</v>
       </c>
       <c r="D152" s="19" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E152" s="19" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F152" s="19" t="s">
         <v>18</v>
       </c>
       <c r="G152" s="21" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H152" s="5">
         <v>0</v>
       </c>
       <c r="I152" s="19" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="J152" s="5"/>
       <c r="K152" s="5"/>
@@ -8556,22 +8532,22 @@
         <v>249</v>
       </c>
       <c r="D153" s="19" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E153" s="19" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F153" s="19" t="s">
         <v>18</v>
       </c>
       <c r="G153" s="21" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H153" s="11">
         <v>0</v>
       </c>
       <c r="I153" s="19" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="J153" s="5"/>
       <c r="K153" s="5"/>
@@ -8603,7 +8579,7 @@
         <v>250</v>
       </c>
       <c r="D154" s="19" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E154" s="5"/>
       <c r="F154" s="19" t="s">
@@ -8646,20 +8622,20 @@
         <v>251</v>
       </c>
       <c r="D155" s="19" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E155" s="5"/>
       <c r="F155" s="19" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G155" s="19" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H155" s="5">
         <v>2911</v>
       </c>
       <c r="I155" s="19" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J155" s="5"/>
       <c r="K155" s="5"/>
@@ -8691,18 +8667,18 @@
         <v>252</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E156" s="5"/>
       <c r="F156" s="19" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G156" s="5"/>
       <c r="H156" s="5">
         <v>2918</v>
       </c>
       <c r="I156" s="19" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="J156" s="5"/>
       <c r="K156" s="5"/>
@@ -8734,20 +8710,20 @@
         <v>253</v>
       </c>
       <c r="D157" s="19" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E157" s="5"/>
       <c r="F157" s="19" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G157" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H157" s="5">
         <v>2949</v>
       </c>
       <c r="I157" s="19" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J157" s="5"/>
       <c r="K157" s="5"/>
@@ -8779,7 +8755,7 @@
         <v>254</v>
       </c>
       <c r="D158" s="19" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E158" s="5"/>
       <c r="F158" s="19" t="s">
@@ -8822,20 +8798,18 @@
         <v>255</v>
       </c>
       <c r="D159" s="19" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E159" s="11" t="s">
         <v>260</v>
       </c>
       <c r="F159" s="19" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G159" s="5"/>
-      <c r="H159" s="5">
-        <v>795</v>
-      </c>
+      <c r="H159" s="5"/>
       <c r="I159" s="11" t="s">
-        <v>262</v>
+        <v>517</v>
       </c>
       <c r="J159" s="5"/>
       <c r="K159" s="5"/>
@@ -8867,20 +8841,18 @@
         <v>256</v>
       </c>
       <c r="D160" s="19" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E160" s="11" t="s">
         <v>260</v>
       </c>
       <c r="F160" s="19" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G160" s="5"/>
-      <c r="H160" s="5">
-        <v>4285</v>
-      </c>
-      <c r="I160" s="5" t="s">
-        <v>262</v>
+      <c r="H160" s="5"/>
+      <c r="I160" s="11" t="s">
+        <v>517</v>
       </c>
       <c r="J160" s="5"/>
       <c r="K160" s="5"/>
@@ -8912,20 +8884,18 @@
         <v>257</v>
       </c>
       <c r="D161" s="19" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E161" s="11" t="s">
         <v>260</v>
       </c>
       <c r="F161" s="19" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G161" s="5"/>
-      <c r="H161" s="5">
-        <v>2335</v>
-      </c>
+      <c r="H161" s="5"/>
       <c r="I161" s="11" t="s">
-        <v>262</v>
+        <v>517</v>
       </c>
       <c r="J161" s="5"/>
       <c r="K161" s="5"/>
@@ -8957,22 +8927,20 @@
         <v>259</v>
       </c>
       <c r="D162" s="22" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E162" s="14" t="s">
         <v>260</v>
       </c>
       <c r="F162" s="22" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G162" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H162" s="15">
-        <v>4719</v>
-      </c>
-      <c r="I162" s="14" t="s">
-        <v>262</v>
+      <c r="H162" s="15"/>
+      <c r="I162" s="28" t="s">
+        <v>517</v>
       </c>
       <c r="J162" s="9"/>
       <c r="K162" s="9"/>
@@ -9001,10 +8969,10 @@
         <v>258</v>
       </c>
       <c r="C163" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="D163" s="14" t="s">
         <v>263</v>
-      </c>
-      <c r="D163" s="14" t="s">
-        <v>264</v>
       </c>
       <c r="E163" s="16"/>
       <c r="F163" s="14" t="s">
@@ -9013,10 +8981,10 @@
       <c r="G163" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H163" s="15">
-        <v>194</v>
-      </c>
-      <c r="I163" s="17"/>
+      <c r="H163" s="15"/>
+      <c r="I163" s="28" t="s">
+        <v>517</v>
+      </c>
       <c r="J163" s="9"/>
       <c r="K163" s="9"/>
       <c r="L163" s="9"/>
@@ -9044,21 +9012,19 @@
         <v>258</v>
       </c>
       <c r="C164" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="D164" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="D164" s="14" t="s">
+      <c r="E164" s="14" t="s">
         <v>266</v>
-      </c>
-      <c r="E164" s="14" t="s">
-        <v>267</v>
       </c>
       <c r="F164" s="17"/>
       <c r="G164" s="17"/>
-      <c r="H164" s="15">
-        <v>4733</v>
-      </c>
-      <c r="I164" s="14" t="s">
-        <v>268</v>
+      <c r="H164" s="15"/>
+      <c r="I164" s="28" t="s">
+        <v>517</v>
       </c>
       <c r="J164" s="9"/>
       <c r="K164" s="9"/>
@@ -9087,21 +9053,19 @@
         <v>258</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D165" s="14" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E165" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F165" s="17"/>
       <c r="G165" s="17"/>
-      <c r="H165" s="15">
-        <v>4957</v>
-      </c>
-      <c r="I165" s="14" t="s">
-        <v>268</v>
+      <c r="H165" s="15"/>
+      <c r="I165" s="28" t="s">
+        <v>517</v>
       </c>
       <c r="J165" s="9"/>
       <c r="K165" s="9"/>
@@ -9130,21 +9094,19 @@
         <v>258</v>
       </c>
       <c r="C166" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D166" s="14" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E166" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F166" s="17"/>
       <c r="G166" s="17"/>
-      <c r="H166" s="15">
-        <v>4989</v>
-      </c>
-      <c r="I166" s="14" t="s">
-        <v>268</v>
+      <c r="H166" s="15"/>
+      <c r="I166" s="28" t="s">
+        <v>517</v>
       </c>
       <c r="J166" s="9"/>
       <c r="K166" s="9"/>
@@ -9173,21 +9135,19 @@
         <v>258</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D167" s="14" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E167" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F167" s="17"/>
       <c r="G167" s="17"/>
-      <c r="H167" s="15">
-        <v>4992</v>
-      </c>
-      <c r="I167" s="14" t="s">
-        <v>268</v>
+      <c r="H167" s="15"/>
+      <c r="I167" s="28" t="s">
+        <v>517</v>
       </c>
       <c r="J167" s="9"/>
       <c r="K167" s="9"/>
@@ -9216,10 +9176,10 @@
         <v>258</v>
       </c>
       <c r="C168" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D168" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E168" s="17"/>
       <c r="F168" s="14" t="s">
@@ -9259,10 +9219,10 @@
         <v>258</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D169" s="14" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E169" s="17"/>
       <c r="F169" s="14" t="s">
@@ -9302,23 +9262,23 @@
         <v>258</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D170" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E170" s="17"/>
       <c r="F170" s="14" t="s">
         <v>25</v>
       </c>
       <c r="G170" s="14" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H170" s="15">
         <v>2335</v>
       </c>
       <c r="I170" s="14" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="J170" s="9"/>
       <c r="K170" s="9"/>
@@ -9347,10 +9307,10 @@
         <v>258</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D171" s="14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E171" s="17"/>
       <c r="F171" s="14" t="s">
@@ -9390,10 +9350,10 @@
         <v>258</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D172" s="14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E172" s="17"/>
       <c r="F172" s="14" t="s">
@@ -9433,10 +9393,10 @@
         <v>258</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D173" s="14" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E173" s="17"/>
       <c r="F173" s="14" t="s">
@@ -9476,10 +9436,10 @@
         <v>258</v>
       </c>
       <c r="C174" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D174" s="14" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E174" s="17"/>
       <c r="F174" s="14" t="s">
@@ -9519,10 +9479,10 @@
         <v>258</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D175" s="14" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E175" s="17"/>
       <c r="F175" s="14" t="s">
@@ -9562,10 +9522,10 @@
         <v>258</v>
       </c>
       <c r="C176" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D176" s="14" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E176" s="17"/>
       <c r="F176" s="14" t="s">
@@ -9605,10 +9565,10 @@
         <v>258</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D177" s="14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E177" s="17"/>
       <c r="F177" s="14" t="s">
@@ -9648,10 +9608,10 @@
         <v>258</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D178" s="14" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E178" s="17"/>
       <c r="F178" s="14" t="s">
@@ -9691,10 +9651,10 @@
         <v>258</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D179" s="14" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E179" s="17"/>
       <c r="F179" s="14" t="s">
@@ -9707,7 +9667,7 @@
         <v>2084</v>
       </c>
       <c r="I179" s="14" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="J179" s="9"/>
       <c r="K179" s="9"/>
@@ -9736,19 +9696,19 @@
         <v>258</v>
       </c>
       <c r="C180" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="D180" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="E180" s="14" t="s">
         <v>302</v>
-      </c>
-      <c r="D180" s="14" t="s">
-        <v>303</v>
-      </c>
-      <c r="E180" s="14" t="s">
-        <v>304</v>
       </c>
       <c r="F180" s="14" t="s">
         <v>25</v>
       </c>
       <c r="G180" s="14" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H180" s="15">
         <v>4328</v>
@@ -9781,10 +9741,10 @@
         <v>258</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D181" s="14" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E181" s="17"/>
       <c r="F181" s="14" t="s">
@@ -9795,7 +9755,7 @@
         <v>690</v>
       </c>
       <c r="I181" s="17" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="J181" s="9"/>
       <c r="K181" s="9"/>
@@ -9824,17 +9784,17 @@
         <v>258</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D182" s="14" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E182" s="17"/>
       <c r="F182" s="14" t="s">
         <v>25</v>
       </c>
       <c r="G182" s="14" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H182" s="15">
         <v>266</v>
@@ -9867,14 +9827,14 @@
         <v>258</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D183" s="14" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E183" s="17"/>
       <c r="F183" s="14" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G183" s="17"/>
       <c r="H183" s="15">
@@ -9908,17 +9868,17 @@
         <v>258</v>
       </c>
       <c r="C184" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D184" s="14" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E184" s="17"/>
       <c r="F184" s="14" t="s">
         <v>25</v>
       </c>
       <c r="G184" s="14" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H184" s="15">
         <v>436</v>
@@ -9951,14 +9911,14 @@
         <v>258</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D185" s="14" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E185" s="17"/>
       <c r="F185" s="14" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G185" s="17"/>
       <c r="H185" s="15">
@@ -9992,14 +9952,14 @@
         <v>258</v>
       </c>
       <c r="C186" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D186" s="14" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E186" s="17"/>
       <c r="F186" s="14" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G186" s="17"/>
       <c r="H186" s="15">
@@ -10033,23 +9993,23 @@
         <v>258</v>
       </c>
       <c r="C187" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D187" s="14" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E187" s="17"/>
       <c r="F187" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G187" s="28" t="s">
-        <v>512</v>
+      <c r="G187" s="27" t="s">
+        <v>510</v>
       </c>
       <c r="H187" s="15">
         <v>270</v>
       </c>
       <c r="I187" s="17" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J187" s="9"/>
       <c r="K187" s="9"/>
@@ -10078,14 +10038,14 @@
         <v>258</v>
       </c>
       <c r="C188" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D188" s="14" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E188" s="17"/>
       <c r="F188" s="14" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G188" s="17"/>
       <c r="H188" s="15">
@@ -10119,10 +10079,10 @@
         <v>258</v>
       </c>
       <c r="C189" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D189" s="14" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E189" s="17"/>
       <c r="F189" s="14" t="s">
@@ -10162,14 +10122,14 @@
         <v>258</v>
       </c>
       <c r="C190" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D190" s="14" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E190" s="17"/>
       <c r="F190" s="14" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G190" s="17"/>
       <c r="H190" s="15">
@@ -10203,10 +10163,10 @@
         <v>258</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D191" s="14" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E191" s="17"/>
       <c r="F191" s="14" t="s">
@@ -10246,10 +10206,10 @@
         <v>258</v>
       </c>
       <c r="C192" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D192" s="14" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E192" s="17"/>
       <c r="F192" s="14" t="s">
@@ -10262,7 +10222,7 @@
         <v>3394</v>
       </c>
       <c r="I192" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J192" s="9"/>
       <c r="K192" s="9"/>
@@ -10285,19 +10245,19 @@
     </row>
     <row r="193" spans="1:27" s="24" customFormat="1" ht="12.75" customHeight="1">
       <c r="A193" s="23" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B193" s="23" t="s">
         <v>10</v>
       </c>
       <c r="C193" s="23" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D193" s="23" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E193" s="23" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F193" s="23" t="s">
         <v>177</v>
@@ -10307,7 +10267,7 @@
         <v>682</v>
       </c>
       <c r="I193" s="23" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="J193" s="23"/>
       <c r="K193" s="23"/>
@@ -10330,19 +10290,19 @@
     </row>
     <row r="194" spans="1:27" s="24" customFormat="1" ht="12.75" customHeight="1">
       <c r="A194" s="23" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B194" s="23" t="s">
         <v>10</v>
       </c>
       <c r="C194" s="23" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D194" s="23" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E194" s="23" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F194" s="23" t="s">
         <v>177</v>
@@ -10352,7 +10312,7 @@
         <v>3894</v>
       </c>
       <c r="I194" s="23" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="J194" s="23"/>
       <c r="K194" s="23"/>

--- a/UNITE_curation_dictionary.xlsx
+++ b/UNITE_curation_dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ari/Dropbox/Documents/UDA/PROJECTS- ICU big data/UNITE COVID/UNITE-COVID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB3924F-F495-C44F-B210-48CFCADE4810}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96546F6F-AFF8-BC44-B92F-99E3B7E5B15A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5340" yWindow="2900" windowWidth="39020" windowHeight="24600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="524">
   <si>
     <t>variable number</t>
   </si>
@@ -941,9 +941,6 @@
   </si>
   <si>
     <t>Was the patient mobilized in the first 72h of ICU?</t>
-  </si>
-  <si>
-    <t>TRUE, FALSE, Unkown, NA</t>
   </si>
   <si>
     <t>REH_72H_HIGH_IMS_INT</t>
@@ -1575,6 +1572,27 @@
   </si>
   <si>
     <t>Some invalid codes recoded to NA</t>
+  </si>
+  <si>
+    <t>Unknown' converted to NA</t>
+  </si>
+  <si>
+    <t>"Dilatative/percutaneous", "Surgical", NA</t>
+  </si>
+  <si>
+    <t>"Unknown" recoded as NA</t>
+  </si>
+  <si>
+    <t>High level of missing- likely informative sampling</t>
+  </si>
+  <si>
+    <t>Outliers&gt;572 removed--&gt; NA</t>
+  </si>
+  <si>
+    <t>Outlier peak at &gt;370 removed --&gt;NA</t>
+  </si>
+  <si>
+    <t>Large number of implausible values &lt;25 and &gt;45 removed: Does not clearly appear to be Fahrenheit issue however</t>
   </si>
 </sst>
 </file>
@@ -1686,7 +1704,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1755,6 +1773,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1973,8 +1994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="F149" sqref="F149"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -2463,7 +2484,7 @@
         <v>268</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>50</v>
@@ -2497,10 +2518,10 @@
         <v>52</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>330</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>331</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>18</v>
@@ -2510,7 +2531,7 @@
         <v>4995</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J12" s="11" t="s">
         <v>27</v>
@@ -2544,10 +2565,10 @@
         <v>53</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>332</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>333</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>18</v>
@@ -2587,7 +2608,7 @@
         <v>54</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="19" t="s">
@@ -2628,7 +2649,7 @@
         <v>55</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="19" t="s">
@@ -2639,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
@@ -2673,7 +2694,7 @@
         <v>56</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="19" t="s">
@@ -2685,7 +2706,7 @@
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
@@ -2716,7 +2737,7 @@
         <v>57</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="19" t="s">
@@ -2727,10 +2748,10 @@
         <v>0</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
@@ -2761,7 +2782,7 @@
         <v>58</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="19" t="s">
@@ -2802,10 +2823,10 @@
         <v>59</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F19" s="19" t="s">
         <v>18</v>
@@ -2845,7 +2866,7 @@
         <v>60</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="19" t="s">
@@ -2886,7 +2907,7 @@
         <v>61</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="19" t="s">
@@ -2927,7 +2948,7 @@
         <v>62</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="19" t="s">
@@ -2968,7 +2989,7 @@
         <v>63</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="19" t="s">
@@ -3009,14 +3030,14 @@
         <v>64</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="19" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H24" s="5">
         <v>158</v>
@@ -3052,7 +3073,7 @@
         <v>65</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="19" t="s">
@@ -3093,10 +3114,10 @@
         <v>66</v>
       </c>
       <c r="D26" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="E26" s="19" t="s">
         <v>344</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>345</v>
       </c>
       <c r="F26" s="19" t="s">
         <v>18</v>
@@ -3136,10 +3157,10 @@
         <v>67</v>
       </c>
       <c r="D27" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="E27" s="19" t="s">
         <v>346</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>347</v>
       </c>
       <c r="F27" s="19" t="s">
         <v>18</v>
@@ -3179,10 +3200,10 @@
         <v>68</v>
       </c>
       <c r="D28" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="E28" s="19" t="s">
         <v>348</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>349</v>
       </c>
       <c r="F28" s="19" t="s">
         <v>18</v>
@@ -3222,10 +3243,10 @@
         <v>69</v>
       </c>
       <c r="D29" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="E29" s="19" t="s">
         <v>350</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>351</v>
       </c>
       <c r="F29" s="19" t="s">
         <v>18</v>
@@ -3265,7 +3286,7 @@
         <v>70</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="19" t="s">
@@ -3306,7 +3327,7 @@
         <v>71</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="19" t="s">
@@ -3347,7 +3368,7 @@
         <v>72</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="19" t="s">
@@ -3388,7 +3409,7 @@
         <v>73</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="19" t="s">
@@ -3429,14 +3450,14 @@
         <v>75</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="9" t="s">
         <v>25</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H34" s="9">
         <v>171</v>
@@ -3472,16 +3493,16 @@
         <v>76</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
@@ -3513,7 +3534,7 @@
         <v>77</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="25" t="s">
@@ -3554,7 +3575,7 @@
         <v>78</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="25" t="s">
@@ -3595,7 +3616,7 @@
         <v>79</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="25" t="s">
@@ -3636,7 +3657,7 @@
         <v>80</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="25" t="s">
@@ -3677,7 +3698,7 @@
         <v>81</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="25" t="s">
@@ -3691,7 +3712,7 @@
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
@@ -3722,16 +3743,16 @@
         <v>82</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F41" s="9" t="s">
         <v>25</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H41" s="9">
         <v>1675</v>
@@ -3767,7 +3788,7 @@
         <v>83</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="9" t="s">
@@ -3815,8 +3836,12 @@
         <v>177</v>
       </c>
       <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
+      <c r="H43" s="9">
+        <v>2816</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>523</v>
+      </c>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
@@ -3847,14 +3872,16 @@
         <v>85</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="9" t="s">
         <v>177</v>
       </c>
       <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
+      <c r="H44" s="9">
+        <v>195</v>
+      </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
@@ -3886,14 +3913,16 @@
         <v>86</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E45" s="9"/>
       <c r="F45" s="9" t="s">
         <v>177</v>
       </c>
       <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
+      <c r="H45" s="9">
+        <v>216</v>
+      </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
@@ -3925,14 +3954,16 @@
         <v>87</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E46" s="9"/>
       <c r="F46" s="9" t="s">
         <v>177</v>
       </c>
       <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
+      <c r="H46" s="9">
+        <v>219</v>
+      </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
@@ -3964,14 +3995,16 @@
         <v>88</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="9" t="s">
         <v>177</v>
       </c>
       <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
+      <c r="H47" s="9">
+        <v>229</v>
+      </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
@@ -4003,15 +4036,19 @@
         <v>89</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E48" s="9"/>
       <c r="F48" s="9" t="s">
         <v>177</v>
       </c>
       <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
+      <c r="H48" s="9">
+        <v>4937</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>520</v>
+      </c>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
@@ -4042,14 +4079,16 @@
         <v>90</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E49" s="9"/>
       <c r="F49" s="9" t="s">
         <v>177</v>
       </c>
       <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
+      <c r="H49" s="9">
+        <v>280</v>
+      </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
@@ -4081,15 +4120,19 @@
         <v>91</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="9" t="s">
         <v>177</v>
       </c>
       <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
+      <c r="H50" s="9">
+        <v>3828</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>520</v>
+      </c>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
@@ -4120,16 +4163,18 @@
         <v>92</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F51" s="9" t="s">
         <v>177</v>
       </c>
       <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
+      <c r="H51" s="9">
+        <v>53</v>
+      </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
@@ -4161,15 +4206,19 @@
         <v>93</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="9" t="s">
         <v>177</v>
       </c>
       <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
+      <c r="H52" s="9">
+        <v>1158</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>521</v>
+      </c>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
@@ -4200,14 +4249,16 @@
         <v>94</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="9" t="s">
         <v>177</v>
       </c>
       <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
+      <c r="H53" s="9">
+        <v>303</v>
+      </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
@@ -4239,14 +4290,16 @@
         <v>95</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E54" s="9"/>
       <c r="F54" s="9" t="s">
         <v>177</v>
       </c>
       <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
+      <c r="H54" s="9">
+        <v>205</v>
+      </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
@@ -4278,15 +4331,19 @@
         <v>96</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="9" t="s">
         <v>177</v>
       </c>
       <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
+      <c r="H55" s="9">
+        <v>1694</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>522</v>
+      </c>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c r="L55" s="9"/>
@@ -4317,7 +4374,7 @@
         <v>97</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="25" t="s">
@@ -4331,7 +4388,7 @@
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
@@ -4362,7 +4419,7 @@
         <v>98</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E57" s="9"/>
       <c r="F57" s="25" t="s">
@@ -4376,7 +4433,7 @@
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K57" s="9"/>
       <c r="L57" s="9"/>
@@ -4407,7 +4464,7 @@
         <v>99</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E58" s="9"/>
       <c r="F58" s="25" t="s">
@@ -4421,7 +4478,7 @@
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
@@ -4452,7 +4509,7 @@
         <v>100</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E59" s="9"/>
       <c r="F59" s="25" t="s">
@@ -4466,7 +4523,7 @@
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K59" s="9"/>
       <c r="L59" s="9"/>
@@ -4497,7 +4554,7 @@
         <v>101</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="25" t="s">
@@ -4511,7 +4568,7 @@
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
@@ -4542,7 +4599,7 @@
         <v>102</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E61" s="9"/>
       <c r="F61" s="25" t="s">
@@ -4556,7 +4613,7 @@
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="K61" s="9"/>
       <c r="L61" s="9"/>
@@ -4587,7 +4644,7 @@
         <v>103</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E62" s="9"/>
       <c r="F62" s="25" t="s">
@@ -4601,7 +4658,7 @@
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="K62" s="9"/>
       <c r="L62" s="9"/>
@@ -4632,7 +4689,7 @@
         <v>104</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E63" s="9"/>
       <c r="F63" s="25" t="s">
@@ -4646,7 +4703,7 @@
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K63" s="9"/>
       <c r="L63" s="9"/>
@@ -4677,7 +4734,7 @@
         <v>105</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E64" s="9"/>
       <c r="F64" s="25" t="s">
@@ -4691,7 +4748,7 @@
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="K64" s="9"/>
       <c r="L64" s="9"/>
@@ -4722,7 +4779,7 @@
         <v>106</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E65" s="9"/>
       <c r="F65" s="25" t="s">
@@ -4736,7 +4793,7 @@
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K65" s="9"/>
       <c r="L65" s="9"/>
@@ -5228,7 +5285,7 @@
         <v>25</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H76" s="4">
         <v>2545</v>
@@ -5943,12 +6000,16 @@
       <c r="F92" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G92" s="5"/>
+      <c r="G92" s="5" t="s">
+        <v>518</v>
+      </c>
       <c r="H92" s="12">
-        <v>3531</v>
+        <v>3556</v>
       </c>
       <c r="I92" s="5"/>
-      <c r="J92" s="5"/>
+      <c r="J92" s="29" t="s">
+        <v>517</v>
+      </c>
       <c r="K92" s="5"/>
       <c r="L92" s="5"/>
       <c r="M92" s="5"/>
@@ -6238,7 +6299,7 @@
         <v>195</v>
       </c>
       <c r="D99" s="25" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E99" s="25"/>
       <c r="F99" s="25" t="s">
@@ -6281,7 +6342,7 @@
         <v>196</v>
       </c>
       <c r="D100" s="25" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E100" s="25"/>
       <c r="F100" s="25" t="s">
@@ -6324,7 +6385,7 @@
         <v>197</v>
       </c>
       <c r="D101" s="25" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E101" s="25"/>
       <c r="F101" s="26"/>
@@ -6358,7 +6419,7 @@
         <v>198</v>
       </c>
       <c r="D102" s="25" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E102" s="25"/>
       <c r="F102" s="25" t="s">
@@ -6372,7 +6433,7 @@
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K102" s="9"/>
       <c r="L102" s="9"/>
@@ -6403,7 +6464,7 @@
         <v>199</v>
       </c>
       <c r="D103" s="25" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E103" s="25"/>
       <c r="F103" s="25"/>
@@ -6440,7 +6501,7 @@
         <v>200</v>
       </c>
       <c r="D104" s="25" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E104" s="25"/>
       <c r="F104" s="25" t="s">
@@ -6454,7 +6515,7 @@
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K104" s="9"/>
       <c r="L104" s="9"/>
@@ -6485,7 +6546,7 @@
         <v>201</v>
       </c>
       <c r="D105" s="25" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E105" s="25"/>
       <c r="F105" s="25"/>
@@ -6522,7 +6583,7 @@
         <v>202</v>
       </c>
       <c r="D106" s="25" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E106" s="25"/>
       <c r="F106" s="25" t="s">
@@ -6536,7 +6597,7 @@
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K106" s="9"/>
       <c r="L106" s="9"/>
@@ -6567,7 +6628,7 @@
         <v>203</v>
       </c>
       <c r="D107" s="25" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E107" s="25"/>
       <c r="F107" s="25"/>
@@ -6604,7 +6665,7 @@
         <v>204</v>
       </c>
       <c r="D108" s="25" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E108" s="25"/>
       <c r="F108" s="25" t="s">
@@ -6618,7 +6679,7 @@
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="K108" s="9"/>
       <c r="L108" s="9"/>
@@ -6649,7 +6710,7 @@
         <v>205</v>
       </c>
       <c r="D109" s="25" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E109" s="25"/>
       <c r="F109" s="25"/>
@@ -6686,7 +6747,7 @@
         <v>206</v>
       </c>
       <c r="D110" s="25" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E110" s="25"/>
       <c r="F110" s="25" t="s">
@@ -6700,7 +6761,7 @@
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K110" s="9"/>
       <c r="L110" s="9"/>
@@ -6731,7 +6792,7 @@
         <v>207</v>
       </c>
       <c r="D111" s="25" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E111" s="25"/>
       <c r="F111" s="25"/>
@@ -6770,7 +6831,7 @@
         <v>208</v>
       </c>
       <c r="D112" s="25" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E112" s="25"/>
       <c r="F112" s="25"/>
@@ -6780,7 +6841,7 @@
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K112" s="9"/>
       <c r="L112" s="9"/>
@@ -6811,7 +6872,7 @@
         <v>209</v>
       </c>
       <c r="D113" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E113" s="25"/>
       <c r="F113" s="25" t="s">
@@ -6854,7 +6915,7 @@
         <v>210</v>
       </c>
       <c r="D114" s="25" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E114" s="25"/>
       <c r="G114" s="25"/>
@@ -6890,14 +6951,14 @@
         <v>211</v>
       </c>
       <c r="D115" s="25" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E115" s="25"/>
       <c r="F115" s="25" t="s">
         <v>18</v>
       </c>
       <c r="G115" s="25" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H115" s="9"/>
       <c r="I115" s="9"/>
@@ -6931,14 +6992,14 @@
         <v>212</v>
       </c>
       <c r="D116" s="25" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E116" s="25"/>
       <c r="F116" s="25" t="s">
         <v>18</v>
       </c>
       <c r="G116" s="25" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H116" s="9"/>
       <c r="I116" s="9"/>
@@ -6972,14 +7033,14 @@
         <v>213</v>
       </c>
       <c r="D117" s="25" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E117" s="25"/>
       <c r="F117" s="25" t="s">
         <v>18</v>
       </c>
       <c r="G117" s="25" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H117" s="9"/>
       <c r="I117" s="9"/>
@@ -7013,14 +7074,14 @@
         <v>214</v>
       </c>
       <c r="D118" s="25" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E118" s="25"/>
       <c r="F118" s="25" t="s">
         <v>18</v>
       </c>
       <c r="G118" s="25" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H118" s="9"/>
       <c r="I118" s="9"/>
@@ -7054,14 +7115,14 @@
         <v>215</v>
       </c>
       <c r="D119" s="25" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E119" s="25"/>
       <c r="F119" s="25" t="s">
         <v>25</v>
       </c>
       <c r="G119" s="25" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H119" s="9">
         <v>993</v>
@@ -7097,7 +7158,7 @@
         <v>216</v>
       </c>
       <c r="D120" s="25" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E120" s="25"/>
       <c r="F120" s="25" t="s">
@@ -7136,7 +7197,7 @@
         <v>217</v>
       </c>
       <c r="D121" s="25" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E121" s="25"/>
       <c r="F121" s="25" t="s">
@@ -7175,17 +7236,17 @@
         <v>218</v>
       </c>
       <c r="D122" s="25" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E122" s="25"/>
       <c r="F122" s="25" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G122" s="25"/>
       <c r="H122" s="9"/>
       <c r="I122" s="9"/>
       <c r="J122" s="9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K122" s="9"/>
       <c r="L122" s="9"/>
@@ -7216,7 +7277,7 @@
         <v>219</v>
       </c>
       <c r="D123" s="25" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E123" s="25"/>
       <c r="F123" s="25" t="s">
@@ -7226,7 +7287,7 @@
       <c r="H123" s="9"/>
       <c r="I123" s="9"/>
       <c r="J123" s="9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="K123" s="9"/>
       <c r="L123" s="9"/>
@@ -7257,7 +7318,7 @@
         <v>220</v>
       </c>
       <c r="D124" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E124" s="25"/>
       <c r="F124" s="25" t="s">
@@ -7267,7 +7328,7 @@
       <c r="H124" s="9"/>
       <c r="I124" s="9"/>
       <c r="J124" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K124" s="9"/>
       <c r="L124" s="9"/>
@@ -7298,7 +7359,7 @@
         <v>221</v>
       </c>
       <c r="D125" s="25" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E125" s="25"/>
       <c r="F125" s="25" t="s">
@@ -7337,7 +7398,7 @@
         <v>222</v>
       </c>
       <c r="D126" s="25" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E126" s="25"/>
       <c r="F126" s="25" t="s">
@@ -7380,14 +7441,14 @@
         <v>223</v>
       </c>
       <c r="D127" s="25" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E127" s="25"/>
       <c r="F127" s="25" t="s">
         <v>25</v>
       </c>
       <c r="G127" s="25" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H127" s="9">
         <v>1543</v>
@@ -7423,7 +7484,7 @@
         <v>224</v>
       </c>
       <c r="D128" s="25" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E128" s="25"/>
       <c r="F128" s="25" t="s">
@@ -7436,10 +7497,10 @@
         <v>1544</v>
       </c>
       <c r="I128" s="9" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J128" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K128" s="9"/>
       <c r="L128" s="9"/>
@@ -7470,16 +7531,18 @@
         <v>225</v>
       </c>
       <c r="D129" s="25" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F129" s="9" t="s">
         <v>177</v>
       </c>
       <c r="G129" s="9"/>
-      <c r="H129" s="9"/>
+      <c r="H129" s="9">
+        <v>25</v>
+      </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
@@ -7511,7 +7574,7 @@
         <v>226</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E130" s="5"/>
       <c r="F130" s="11" t="s">
@@ -7552,7 +7615,7 @@
         <v>227</v>
       </c>
       <c r="D131" s="19" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E131" s="5"/>
       <c r="F131" s="11" t="s">
@@ -7563,7 +7626,7 @@
         <v>251</v>
       </c>
       <c r="I131" s="19" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J131" s="5"/>
       <c r="K131" s="5"/>
@@ -7595,7 +7658,7 @@
         <v>228</v>
       </c>
       <c r="D132" s="19" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E132" s="5"/>
       <c r="F132" s="11" t="s">
@@ -7606,7 +7669,7 @@
         <v>257</v>
       </c>
       <c r="I132" s="19" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J132" s="5"/>
       <c r="K132" s="5"/>
@@ -7638,7 +7701,7 @@
         <v>229</v>
       </c>
       <c r="D133" s="19" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E133" s="5"/>
       <c r="F133" s="11" t="s">
@@ -7649,7 +7712,7 @@
         <v>1413</v>
       </c>
       <c r="I133" s="19" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J133" s="5"/>
       <c r="K133" s="5"/>
@@ -7681,7 +7744,7 @@
         <v>230</v>
       </c>
       <c r="D134" s="19" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E134" s="5"/>
       <c r="F134" s="11" t="s">
@@ -7692,7 +7755,7 @@
         <v>1413</v>
       </c>
       <c r="I134" s="19" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J134" s="5"/>
       <c r="K134" s="5"/>
@@ -7724,7 +7787,7 @@
         <v>231</v>
       </c>
       <c r="D135" s="19" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E135" s="5"/>
       <c r="F135" s="11" t="s">
@@ -7735,7 +7798,7 @@
         <v>1363</v>
       </c>
       <c r="I135" s="19" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J135" s="5"/>
       <c r="K135" s="5"/>
@@ -7767,14 +7830,14 @@
         <v>232</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E136" s="5"/>
       <c r="F136" s="19" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G136" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H136" s="5">
         <v>208</v>
@@ -7810,18 +7873,18 @@
         <v>233</v>
       </c>
       <c r="D137" s="19" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F137" s="19" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G137" s="5"/>
       <c r="H137" s="5"/>
       <c r="I137" s="19" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J137" s="5"/>
       <c r="K137" s="5"/>
@@ -7853,14 +7916,14 @@
         <v>234</v>
       </c>
       <c r="D138" s="19" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E138" s="5"/>
       <c r="F138" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="G138" s="5" t="s">
         <v>375</v>
-      </c>
-      <c r="G138" s="5" t="s">
-        <v>376</v>
       </c>
       <c r="H138" s="5">
         <v>208</v>
@@ -7896,16 +7959,16 @@
         <v>235</v>
       </c>
       <c r="D139" s="19" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E139" s="5"/>
       <c r="F139" s="19" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G139" s="5"/>
       <c r="H139" s="5"/>
       <c r="I139" s="19" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J139" s="5"/>
       <c r="K139" s="5"/>
@@ -7972,22 +8035,22 @@
         <v>237</v>
       </c>
       <c r="D141" s="19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E141" s="19" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F141" s="19" t="s">
         <v>18</v>
       </c>
       <c r="G141" s="21" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H141" s="5">
         <v>0</v>
       </c>
       <c r="I141" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J141" s="5"/>
       <c r="K141" s="5"/>
@@ -8019,22 +8082,22 @@
         <v>238</v>
       </c>
       <c r="D142" s="19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E142" s="19" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F142" s="19" t="s">
         <v>18</v>
       </c>
       <c r="G142" s="21" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H142" s="11">
         <v>0</v>
       </c>
       <c r="I142" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J142" s="5"/>
       <c r="K142" s="5"/>
@@ -8066,22 +8129,22 @@
         <v>239</v>
       </c>
       <c r="D143" s="19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E143" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F143" s="19" t="s">
         <v>18</v>
       </c>
       <c r="G143" s="21" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H143" s="11">
         <v>0</v>
       </c>
       <c r="I143" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J143" s="5"/>
       <c r="K143" s="5"/>
@@ -8113,22 +8176,22 @@
         <v>240</v>
       </c>
       <c r="D144" s="19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E144" s="19" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F144" s="19" t="s">
         <v>18</v>
       </c>
       <c r="G144" s="21" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H144" s="11">
         <v>0</v>
       </c>
       <c r="I144" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J144" s="5"/>
       <c r="K144" s="5"/>
@@ -8160,22 +8223,22 @@
         <v>241</v>
       </c>
       <c r="D145" s="19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E145" s="19" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F145" s="19" t="s">
         <v>18</v>
       </c>
       <c r="G145" s="21" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H145" s="11">
         <v>0</v>
       </c>
       <c r="I145" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J145" s="5"/>
       <c r="K145" s="5"/>
@@ -8207,22 +8270,22 @@
         <v>242</v>
       </c>
       <c r="D146" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="E146" s="19" t="s">
         <v>381</v>
-      </c>
-      <c r="E146" s="19" t="s">
-        <v>382</v>
       </c>
       <c r="F146" s="19" t="s">
         <v>18</v>
       </c>
       <c r="G146" s="21" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H146" s="11">
         <v>0</v>
       </c>
       <c r="I146" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J146" s="5"/>
       <c r="K146" s="5"/>
@@ -8254,7 +8317,7 @@
         <v>243</v>
       </c>
       <c r="D147" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E147" s="5"/>
       <c r="F147" s="19" t="s">
@@ -8265,7 +8328,7 @@
         <v>687</v>
       </c>
       <c r="I147" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J147" s="5"/>
       <c r="K147" s="5"/>
@@ -8297,22 +8360,22 @@
         <v>244</v>
       </c>
       <c r="D148" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="E148" s="19" t="s">
         <v>390</v>
-      </c>
-      <c r="E148" s="19" t="s">
-        <v>391</v>
       </c>
       <c r="F148" s="19" t="s">
         <v>18</v>
       </c>
       <c r="G148" s="21" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H148" s="5">
         <v>0</v>
       </c>
       <c r="I148" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J148" s="5"/>
       <c r="K148" s="5"/>
@@ -8344,22 +8407,22 @@
         <v>245</v>
       </c>
       <c r="D149" s="19" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E149" s="19" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F149" s="19" t="s">
         <v>18</v>
       </c>
       <c r="G149" s="21" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H149" s="5">
         <v>0</v>
       </c>
       <c r="I149" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J149" s="5"/>
       <c r="K149" s="5"/>
@@ -8391,22 +8454,22 @@
         <v>246</v>
       </c>
       <c r="D150" s="19" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E150" s="19" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F150" s="19" t="s">
         <v>18</v>
       </c>
       <c r="G150" s="21" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H150" s="5">
         <v>0</v>
       </c>
       <c r="I150" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J150" s="5"/>
       <c r="K150" s="5"/>
@@ -8438,22 +8501,22 @@
         <v>247</v>
       </c>
       <c r="D151" s="19" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E151" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F151" s="19" t="s">
         <v>18</v>
       </c>
       <c r="G151" s="21" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H151" s="5">
         <v>0</v>
       </c>
       <c r="I151" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J151" s="5"/>
       <c r="K151" s="5"/>
@@ -8485,22 +8548,22 @@
         <v>248</v>
       </c>
       <c r="D152" s="19" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E152" s="19" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F152" s="19" t="s">
         <v>18</v>
       </c>
       <c r="G152" s="21" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H152" s="5">
         <v>0</v>
       </c>
       <c r="I152" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J152" s="5"/>
       <c r="K152" s="5"/>
@@ -8532,22 +8595,22 @@
         <v>249</v>
       </c>
       <c r="D153" s="19" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E153" s="19" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F153" s="19" t="s">
         <v>18</v>
       </c>
       <c r="G153" s="21" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H153" s="11">
         <v>0</v>
       </c>
       <c r="I153" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J153" s="5"/>
       <c r="K153" s="5"/>
@@ -8579,7 +8642,7 @@
         <v>250</v>
       </c>
       <c r="D154" s="19" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E154" s="5"/>
       <c r="F154" s="19" t="s">
@@ -8622,20 +8685,20 @@
         <v>251</v>
       </c>
       <c r="D155" s="19" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E155" s="5"/>
       <c r="F155" s="19" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G155" s="19" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H155" s="5">
         <v>2911</v>
       </c>
       <c r="I155" s="19" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J155" s="5"/>
       <c r="K155" s="5"/>
@@ -8667,18 +8730,18 @@
         <v>252</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E156" s="5"/>
       <c r="F156" s="19" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G156" s="5"/>
       <c r="H156" s="5">
         <v>2918</v>
       </c>
       <c r="I156" s="19" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J156" s="5"/>
       <c r="K156" s="5"/>
@@ -8710,20 +8773,20 @@
         <v>253</v>
       </c>
       <c r="D157" s="19" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E157" s="5"/>
       <c r="F157" s="19" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G157" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H157" s="5">
         <v>2949</v>
       </c>
       <c r="I157" s="19" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J157" s="5"/>
       <c r="K157" s="5"/>
@@ -8755,7 +8818,7 @@
         <v>254</v>
       </c>
       <c r="D158" s="19" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E158" s="5"/>
       <c r="F158" s="19" t="s">
@@ -8798,18 +8861,18 @@
         <v>255</v>
       </c>
       <c r="D159" s="19" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E159" s="11" t="s">
         <v>260</v>
       </c>
       <c r="F159" s="19" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G159" s="5"/>
       <c r="H159" s="5"/>
       <c r="I159" s="11" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J159" s="5"/>
       <c r="K159" s="5"/>
@@ -8841,18 +8904,18 @@
         <v>256</v>
       </c>
       <c r="D160" s="19" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E160" s="11" t="s">
         <v>260</v>
       </c>
       <c r="F160" s="19" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G160" s="5"/>
       <c r="H160" s="5"/>
       <c r="I160" s="11" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J160" s="5"/>
       <c r="K160" s="5"/>
@@ -8884,18 +8947,18 @@
         <v>257</v>
       </c>
       <c r="D161" s="19" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E161" s="11" t="s">
         <v>260</v>
       </c>
       <c r="F161" s="19" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G161" s="5"/>
       <c r="H161" s="5"/>
       <c r="I161" s="11" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J161" s="5"/>
       <c r="K161" s="5"/>
@@ -8927,20 +8990,20 @@
         <v>259</v>
       </c>
       <c r="D162" s="22" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E162" s="14" t="s">
         <v>260</v>
       </c>
       <c r="F162" s="22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G162" s="14" t="s">
         <v>261</v>
       </c>
       <c r="H162" s="15"/>
       <c r="I162" s="28" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J162" s="9"/>
       <c r="K162" s="9"/>
@@ -8983,7 +9046,7 @@
       </c>
       <c r="H163" s="15"/>
       <c r="I163" s="28" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J163" s="9"/>
       <c r="K163" s="9"/>
@@ -9024,7 +9087,7 @@
       <c r="G164" s="17"/>
       <c r="H164" s="15"/>
       <c r="I164" s="28" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J164" s="9"/>
       <c r="K164" s="9"/>
@@ -9065,7 +9128,7 @@
       <c r="G165" s="17"/>
       <c r="H165" s="15"/>
       <c r="I165" s="28" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J165" s="9"/>
       <c r="K165" s="9"/>
@@ -9106,7 +9169,7 @@
       <c r="G166" s="17"/>
       <c r="H166" s="15"/>
       <c r="I166" s="28" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J166" s="9"/>
       <c r="K166" s="9"/>
@@ -9147,7 +9210,7 @@
       <c r="G167" s="17"/>
       <c r="H167" s="15"/>
       <c r="I167" s="28" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J167" s="9"/>
       <c r="K167" s="9"/>
@@ -9741,7 +9804,7 @@
         <v>258</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D181" s="14" t="s">
         <v>304</v>
@@ -9755,7 +9818,7 @@
         <v>690</v>
       </c>
       <c r="I181" s="17" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J181" s="9"/>
       <c r="K181" s="9"/>
@@ -9791,15 +9854,17 @@
       </c>
       <c r="E182" s="17"/>
       <c r="F182" s="14" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G182" s="14" t="s">
-        <v>307</v>
+        <v>19</v>
       </c>
       <c r="H182" s="15">
-        <v>266</v>
-      </c>
-      <c r="I182" s="17"/>
+        <v>461</v>
+      </c>
+      <c r="I182" s="17" t="s">
+        <v>519</v>
+      </c>
       <c r="J182" s="9"/>
       <c r="K182" s="9"/>
       <c r="L182" s="9"/>
@@ -9827,14 +9892,14 @@
         <v>258</v>
       </c>
       <c r="C183" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="D183" s="14" t="s">
         <v>308</v>
-      </c>
-      <c r="D183" s="14" t="s">
-        <v>309</v>
       </c>
       <c r="E183" s="17"/>
       <c r="F183" s="14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G183" s="17"/>
       <c r="H183" s="15">
@@ -9868,22 +9933,24 @@
         <v>258</v>
       </c>
       <c r="C184" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="D184" s="14" t="s">
         <v>311</v>
-      </c>
-      <c r="D184" s="14" t="s">
-        <v>312</v>
       </c>
       <c r="E184" s="17"/>
       <c r="F184" s="14" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G184" s="14" t="s">
-        <v>307</v>
+        <v>19</v>
       </c>
       <c r="H184" s="15">
-        <v>436</v>
-      </c>
-      <c r="I184" s="17"/>
+        <v>707</v>
+      </c>
+      <c r="I184" s="18" t="s">
+        <v>510</v>
+      </c>
       <c r="J184" s="9"/>
       <c r="K184" s="9"/>
       <c r="L184" s="9"/>
@@ -9911,14 +9978,14 @@
         <v>258</v>
       </c>
       <c r="C185" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="D185" s="14" t="s">
         <v>313</v>
-      </c>
-      <c r="D185" s="14" t="s">
-        <v>314</v>
       </c>
       <c r="E185" s="17"/>
       <c r="F185" s="14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G185" s="17"/>
       <c r="H185" s="15">
@@ -9952,14 +10019,14 @@
         <v>258</v>
       </c>
       <c r="C186" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="D186" s="14" t="s">
         <v>315</v>
-      </c>
-      <c r="D186" s="14" t="s">
-        <v>316</v>
       </c>
       <c r="E186" s="17"/>
       <c r="F186" s="14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G186" s="17"/>
       <c r="H186" s="15">
@@ -9993,23 +10060,23 @@
         <v>258</v>
       </c>
       <c r="C187" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="D187" s="14" t="s">
         <v>317</v>
-      </c>
-      <c r="D187" s="14" t="s">
-        <v>318</v>
       </c>
       <c r="E187" s="17"/>
       <c r="F187" s="14" t="s">
         <v>25</v>
       </c>
       <c r="G187" s="27" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H187" s="15">
         <v>270</v>
       </c>
       <c r="I187" s="17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="J187" s="9"/>
       <c r="K187" s="9"/>
@@ -10038,14 +10105,14 @@
         <v>258</v>
       </c>
       <c r="C188" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="D188" s="14" t="s">
         <v>319</v>
-      </c>
-      <c r="D188" s="14" t="s">
-        <v>320</v>
       </c>
       <c r="E188" s="17"/>
       <c r="F188" s="14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G188" s="17"/>
       <c r="H188" s="15">
@@ -10079,10 +10146,10 @@
         <v>258</v>
       </c>
       <c r="C189" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="D189" s="14" t="s">
         <v>321</v>
-      </c>
-      <c r="D189" s="14" t="s">
-        <v>322</v>
       </c>
       <c r="E189" s="17"/>
       <c r="F189" s="14" t="s">
@@ -10122,14 +10189,14 @@
         <v>258</v>
       </c>
       <c r="C190" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="D190" s="14" t="s">
         <v>323</v>
-      </c>
-      <c r="D190" s="14" t="s">
-        <v>324</v>
       </c>
       <c r="E190" s="17"/>
       <c r="F190" s="14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G190" s="17"/>
       <c r="H190" s="15">
@@ -10163,10 +10230,10 @@
         <v>258</v>
       </c>
       <c r="C191" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D191" s="14" t="s">
         <v>325</v>
-      </c>
-      <c r="D191" s="14" t="s">
-        <v>326</v>
       </c>
       <c r="E191" s="17"/>
       <c r="F191" s="14" t="s">
@@ -10206,10 +10273,10 @@
         <v>258</v>
       </c>
       <c r="C192" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="D192" s="14" t="s">
         <v>327</v>
-      </c>
-      <c r="D192" s="14" t="s">
-        <v>328</v>
       </c>
       <c r="E192" s="17"/>
       <c r="F192" s="14" t="s">
@@ -10222,7 +10289,7 @@
         <v>3394</v>
       </c>
       <c r="I192" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J192" s="9"/>
       <c r="K192" s="9"/>
@@ -10245,19 +10312,19 @@
     </row>
     <row r="193" spans="1:27" s="24" customFormat="1" ht="12.75" customHeight="1">
       <c r="A193" s="23" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B193" s="23" t="s">
         <v>10</v>
       </c>
       <c r="C193" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="D193" s="23" t="s">
         <v>409</v>
       </c>
-      <c r="D193" s="23" t="s">
-        <v>410</v>
-      </c>
       <c r="E193" s="23" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F193" s="23" t="s">
         <v>177</v>
@@ -10267,7 +10334,7 @@
         <v>682</v>
       </c>
       <c r="I193" s="23" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J193" s="23"/>
       <c r="K193" s="23"/>
@@ -10290,19 +10357,19 @@
     </row>
     <row r="194" spans="1:27" s="24" customFormat="1" ht="12.75" customHeight="1">
       <c r="A194" s="23" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B194" s="23" t="s">
         <v>10</v>
       </c>
       <c r="C194" s="23" t="s">
+        <v>412</v>
+      </c>
+      <c r="D194" s="23" t="s">
         <v>413</v>
       </c>
-      <c r="D194" s="23" t="s">
-        <v>414</v>
-      </c>
       <c r="E194" s="23" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F194" s="23" t="s">
         <v>177</v>
@@ -10312,7 +10379,7 @@
         <v>3894</v>
       </c>
       <c r="I194" s="23" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J194" s="23"/>
       <c r="K194" s="23"/>

--- a/UNITE_curation_dictionary.xlsx
+++ b/UNITE_curation_dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ari/Dropbox/Documents/UDA/PROJECTS- ICU big data/UNITE COVID/UNITE-COVID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96546F6F-AFF8-BC44-B92F-99E3B7E5B15A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645C5AF2-B996-CA43-8936-B96C980F85AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5340" yWindow="2900" windowWidth="39020" windowHeight="24600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="533">
   <si>
     <t>variable number</t>
   </si>
@@ -1593,6 +1593,33 @@
   </si>
   <si>
     <t>Large number of implausible values &lt;25 and &gt;45 removed: Does not clearly appear to be Fahrenheit issue however</t>
+  </si>
+  <si>
+    <t>NEW_COUNTRY_ID</t>
+  </si>
+  <si>
+    <t>NEW_SITE_ID</t>
+  </si>
+  <si>
+    <t>NEW_SUBJECT_ID</t>
+  </si>
+  <si>
+    <t>NEW VARIABLE- country</t>
+  </si>
+  <si>
+    <t>NEW VARIABLE- site identifier</t>
+  </si>
+  <si>
+    <t>NEW3</t>
+  </si>
+  <si>
+    <t>NEW4</t>
+  </si>
+  <si>
+    <t>NEW VARIABLE - patient identifier WITHIN EACH SITE</t>
+  </si>
+  <si>
+    <t>NEW5</t>
   </si>
 </sst>
 </file>
@@ -1704,7 +1731,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1776,6 +1803,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1994,8 +2024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="E195" sqref="E195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -10311,7 +10341,7 @@
       <c r="AA192" s="9"/>
     </row>
     <row r="193" spans="1:27" s="24" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A193" s="23" t="s">
+      <c r="A193" s="30" t="s">
         <v>410</v>
       </c>
       <c r="B193" s="23" t="s">
@@ -10356,7 +10386,7 @@
       <c r="AA193" s="23"/>
     </row>
     <row r="194" spans="1:27" s="24" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A194" s="23" t="s">
+      <c r="A194" s="30" t="s">
         <v>411</v>
       </c>
       <c r="B194" s="23" t="s">
@@ -10400,92 +10430,128 @@
       <c r="Z194" s="23"/>
       <c r="AA194" s="23"/>
     </row>
-    <row r="195" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A195" s="9"/>
-      <c r="B195" s="9"/>
-      <c r="C195" s="9"/>
-      <c r="D195" s="9"/>
-      <c r="E195" s="9"/>
-      <c r="F195" s="9"/>
-      <c r="G195" s="9"/>
-      <c r="H195" s="9"/>
-      <c r="I195" s="9"/>
-      <c r="J195" s="9"/>
-      <c r="K195" s="9"/>
-      <c r="L195" s="9"/>
-      <c r="M195" s="9"/>
-      <c r="N195" s="9"/>
-      <c r="O195" s="9"/>
-      <c r="P195" s="9"/>
-      <c r="Q195" s="9"/>
-      <c r="R195" s="9"/>
-      <c r="S195" s="9"/>
-      <c r="T195" s="9"/>
-      <c r="U195" s="9"/>
-      <c r="V195" s="9"/>
-      <c r="W195" s="9"/>
-      <c r="X195" s="9"/>
-      <c r="Y195" s="9"/>
-      <c r="Z195" s="9"/>
-      <c r="AA195" s="9"/>
-    </row>
-    <row r="196" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A196" s="9"/>
-      <c r="B196" s="9"/>
-      <c r="C196" s="9"/>
-      <c r="D196" s="9"/>
-      <c r="E196" s="9"/>
-      <c r="F196" s="9"/>
-      <c r="G196" s="9"/>
-      <c r="H196" s="9"/>
-      <c r="I196" s="9"/>
-      <c r="J196" s="9"/>
-      <c r="K196" s="9"/>
-      <c r="L196" s="9"/>
-      <c r="M196" s="9"/>
-      <c r="N196" s="9"/>
-      <c r="O196" s="9"/>
-      <c r="P196" s="9"/>
-      <c r="Q196" s="9"/>
-      <c r="R196" s="9"/>
-      <c r="S196" s="9"/>
-      <c r="T196" s="9"/>
-      <c r="U196" s="9"/>
-      <c r="V196" s="9"/>
-      <c r="W196" s="9"/>
-      <c r="X196" s="9"/>
-      <c r="Y196" s="9"/>
-      <c r="Z196" s="9"/>
-      <c r="AA196" s="9"/>
-    </row>
-    <row r="197" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A197" s="9"/>
-      <c r="B197" s="9"/>
-      <c r="C197" s="9"/>
-      <c r="D197" s="9"/>
-      <c r="E197" s="9"/>
-      <c r="F197" s="8"/>
-      <c r="G197" s="8"/>
-      <c r="H197" s="9"/>
-      <c r="I197" s="9"/>
-      <c r="J197" s="9"/>
-      <c r="K197" s="9"/>
-      <c r="L197" s="9"/>
-      <c r="M197" s="9"/>
-      <c r="N197" s="9"/>
-      <c r="O197" s="9"/>
-      <c r="P197" s="9"/>
-      <c r="Q197" s="9"/>
-      <c r="R197" s="9"/>
-      <c r="S197" s="9"/>
-      <c r="T197" s="9"/>
-      <c r="U197" s="9"/>
-      <c r="V197" s="9"/>
-      <c r="W197" s="9"/>
-      <c r="X197" s="9"/>
-      <c r="Y197" s="9"/>
-      <c r="Z197" s="9"/>
-      <c r="AA197" s="9"/>
+    <row r="195" spans="1:27" s="24" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A195" s="30" t="s">
+        <v>529</v>
+      </c>
+      <c r="B195" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C195" s="23" t="s">
+        <v>524</v>
+      </c>
+      <c r="D195" s="23" t="s">
+        <v>527</v>
+      </c>
+      <c r="E195" s="23"/>
+      <c r="F195" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G195" s="23"/>
+      <c r="H195" s="23">
+        <v>0</v>
+      </c>
+      <c r="I195" s="23"/>
+      <c r="J195" s="23"/>
+      <c r="K195" s="23"/>
+      <c r="L195" s="23"/>
+      <c r="M195" s="23"/>
+      <c r="N195" s="23"/>
+      <c r="O195" s="23"/>
+      <c r="P195" s="23"/>
+      <c r="Q195" s="23"/>
+      <c r="R195" s="23"/>
+      <c r="S195" s="23"/>
+      <c r="T195" s="23"/>
+      <c r="U195" s="23"/>
+      <c r="V195" s="23"/>
+      <c r="W195" s="23"/>
+      <c r="X195" s="23"/>
+      <c r="Y195" s="23"/>
+      <c r="Z195" s="23"/>
+      <c r="AA195" s="23"/>
+    </row>
+    <row r="196" spans="1:27" s="24" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A196" s="30" t="s">
+        <v>530</v>
+      </c>
+      <c r="B196" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C196" s="23" t="s">
+        <v>525</v>
+      </c>
+      <c r="D196" s="23" t="s">
+        <v>528</v>
+      </c>
+      <c r="E196" s="23"/>
+      <c r="F196" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G196" s="23"/>
+      <c r="H196" s="23">
+        <v>0</v>
+      </c>
+      <c r="I196" s="23"/>
+      <c r="J196" s="23"/>
+      <c r="K196" s="23"/>
+      <c r="L196" s="23"/>
+      <c r="M196" s="23"/>
+      <c r="N196" s="23"/>
+      <c r="O196" s="23"/>
+      <c r="P196" s="23"/>
+      <c r="Q196" s="23"/>
+      <c r="R196" s="23"/>
+      <c r="S196" s="23"/>
+      <c r="T196" s="23"/>
+      <c r="U196" s="23"/>
+      <c r="V196" s="23"/>
+      <c r="W196" s="23"/>
+      <c r="X196" s="23"/>
+      <c r="Y196" s="23"/>
+      <c r="Z196" s="23"/>
+      <c r="AA196" s="23"/>
+    </row>
+    <row r="197" spans="1:27" s="24" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A197" s="30" t="s">
+        <v>532</v>
+      </c>
+      <c r="B197" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C197" s="23" t="s">
+        <v>526</v>
+      </c>
+      <c r="D197" s="23" t="s">
+        <v>531</v>
+      </c>
+      <c r="E197" s="23"/>
+      <c r="F197" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G197" s="23"/>
+      <c r="H197" s="23">
+        <v>0</v>
+      </c>
+      <c r="I197" s="23"/>
+      <c r="J197" s="23"/>
+      <c r="K197" s="23"/>
+      <c r="L197" s="23"/>
+      <c r="M197" s="23"/>
+      <c r="N197" s="23"/>
+      <c r="O197" s="23"/>
+      <c r="P197" s="23"/>
+      <c r="Q197" s="23"/>
+      <c r="R197" s="23"/>
+      <c r="S197" s="23"/>
+      <c r="T197" s="23"/>
+      <c r="U197" s="23"/>
+      <c r="V197" s="23"/>
+      <c r="W197" s="23"/>
+      <c r="X197" s="23"/>
+      <c r="Y197" s="23"/>
+      <c r="Z197" s="23"/>
+      <c r="AA197" s="23"/>
     </row>
     <row r="198" spans="1:27" ht="12.75" customHeight="1">
       <c r="A198" s="9"/>

--- a/UNITE_curation_dictionary.xlsx
+++ b/UNITE_curation_dictionary.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ari/Dropbox/Documents/UDA/PROJECTS- ICU big data/UNITE COVID/UNITE-COVID/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3C2D4A-929B-B748-B3E7-A79B6516D973}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="280" yWindow="6280" windowWidth="33080" windowHeight="22060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="names" sheetId="1" r:id="rId4"/>
+    <sheet name="names" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjtwOSJYqS3vjfU1fqA1H30lewVYQ=="/>
@@ -1657,56 +1666,57 @@
     <t>patient BMI</t>
   </si>
   <si>
-    <t>NEW_BMI = INC_WEIGHT_INT/(INC_HEIGHT_INT/100)^2</t>
+    <t>NEW_BMI = INC_WEIGHT_INT/(INC_HEIGHT_INT/100)^2 but exclude &lt;10 or &gt; 100 as outliers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -1716,7 +1726,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1738,110 +1748,118 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="28">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf quotePrefix="1" borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -2031,32 +2049,34 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AC1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="D192" sqref="D192"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.29"/>
-    <col customWidth="1" min="2" max="2" width="20.0"/>
-    <col customWidth="1" min="3" max="3" width="32.86"/>
-    <col customWidth="1" min="4" max="4" width="39.71"/>
-    <col customWidth="1" min="5" max="5" width="42.0"/>
-    <col customWidth="1" min="6" max="7" width="29.0"/>
-    <col customWidth="1" min="8" max="8" width="19.43"/>
-    <col customWidth="1" min="9" max="9" width="63.86"/>
-    <col customWidth="1" min="10" max="10" width="25.14"/>
-    <col customWidth="1" min="11" max="29" width="8.71"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="32.83203125" customWidth="1"/>
+    <col min="4" max="4" width="39.6640625" customWidth="1"/>
+    <col min="5" max="5" width="42" customWidth="1"/>
+    <col min="6" max="7" width="29" customWidth="1"/>
+    <col min="8" max="8" width="19.5" customWidth="1"/>
+    <col min="9" max="9" width="63.83203125" customWidth="1"/>
+    <col min="10" max="10" width="25.1640625" customWidth="1"/>
+    <col min="11" max="29" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2107,9 +2127,9 @@
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
+    <row r="2" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>10</v>
@@ -2146,9 +2166,9 @@
       <c r="AB2" s="4"/>
       <c r="AC2" s="4"/>
     </row>
-    <row r="3" ht="12.75" customHeight="1">
+    <row r="3" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>10</v>
@@ -2185,9 +2205,9 @@
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
     </row>
-    <row r="4" ht="12.75" customHeight="1">
+    <row r="4" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>10</v>
@@ -2208,7 +2228,7 @@
         <v>19</v>
       </c>
       <c r="H4" s="3">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>20</v>
@@ -2236,9 +2256,9 @@
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
     </row>
-    <row r="5" ht="12.75" customHeight="1">
+    <row r="5" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>10</v>
@@ -2259,7 +2279,7 @@
         <v>19</v>
       </c>
       <c r="H5" s="3">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>26</v>
@@ -2287,9 +2307,9 @@
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
     </row>
-    <row r="6" ht="12.75" customHeight="1">
+    <row r="6" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>10</v>
@@ -2310,7 +2330,7 @@
         <v>19</v>
       </c>
       <c r="H6" s="3">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>31</v>
@@ -2338,9 +2358,9 @@
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
     </row>
-    <row r="7" ht="12.75" customHeight="1">
+    <row r="7" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>10</v>
@@ -2361,7 +2381,7 @@
         <v>35</v>
       </c>
       <c r="H7" s="3">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>36</v>
@@ -2387,9 +2407,9 @@
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
     </row>
-    <row r="8" ht="12.75" customHeight="1">
+    <row r="8" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>10</v>
@@ -2408,7 +2428,7 @@
         <v>39</v>
       </c>
       <c r="H8" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -2432,9 +2452,9 @@
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
     </row>
-    <row r="9" ht="12.75" customHeight="1">
+    <row r="9" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>10</v>
@@ -2453,7 +2473,7 @@
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>44</v>
@@ -2481,9 +2501,9 @@
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
     </row>
-    <row r="10" ht="12.75" customHeight="1">
+    <row r="10" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>10</v>
@@ -2502,7 +2522,7 @@
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="7">
-        <v>386.0</v>
+        <v>386</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>49</v>
@@ -2530,9 +2550,9 @@
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
     </row>
-    <row r="11" ht="12.75" customHeight="1">
+    <row r="11" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>10</v>
@@ -2551,7 +2571,7 @@
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="7">
-        <v>390.0</v>
+        <v>390</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>54</v>
@@ -2579,9 +2599,9 @@
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
     </row>
-    <row r="12" ht="12.75" customHeight="1">
+    <row r="12" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>10</v>
@@ -2600,7 +2620,7 @@
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3">
-        <v>4995.0</v>
+        <v>4995</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>58</v>
@@ -2628,9 +2648,9 @@
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
     </row>
-    <row r="13" ht="12.75" customHeight="1">
+    <row r="13" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>10</v>
@@ -2649,7 +2669,7 @@
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3">
-        <v>3635.0</v>
+        <v>3635</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -2673,9 +2693,9 @@
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
     </row>
-    <row r="14" ht="12.75" customHeight="1">
+    <row r="14" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>10</v>
@@ -2692,7 +2712,7 @@
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3">
-        <v>302.0</v>
+        <v>302</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -2716,9 +2736,9 @@
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
     </row>
-    <row r="15" ht="12.75" customHeight="1">
+    <row r="15" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>10</v>
@@ -2735,7 +2755,7 @@
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>58</v>
@@ -2763,9 +2783,9 @@
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
     </row>
-    <row r="16" ht="12.75" customHeight="1">
+    <row r="16" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>10</v>
@@ -2782,7 +2802,7 @@
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3">
-        <v>743.0</v>
+        <v>743</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
@@ -2808,9 +2828,9 @@
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
     </row>
-    <row r="17" ht="12.75" customHeight="1">
+    <row r="17" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>10</v>
@@ -2827,7 +2847,7 @@
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>58</v>
@@ -2855,9 +2875,9 @@
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
     </row>
-    <row r="18" ht="12.75" customHeight="1">
+    <row r="18" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>10</v>
@@ -2874,7 +2894,7 @@
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3">
-        <v>389.0</v>
+        <v>389</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -2898,9 +2918,9 @@
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
     </row>
-    <row r="19" ht="12.75" customHeight="1">
+    <row r="19" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>10</v>
@@ -2919,7 +2939,7 @@
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3">
-        <v>228.0</v>
+        <v>228</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -2943,9 +2963,9 @@
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
     </row>
-    <row r="20" ht="12.75" customHeight="1">
+    <row r="20" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>10</v>
@@ -2962,7 +2982,7 @@
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3">
-        <v>239.0</v>
+        <v>239</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -2986,9 +3006,9 @@
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
     </row>
-    <row r="21" ht="12.75" customHeight="1">
+    <row r="21" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>10</v>
@@ -3005,7 +3025,7 @@
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3">
-        <v>213.0</v>
+        <v>213</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -3029,9 +3049,9 @@
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
     </row>
-    <row r="22" ht="12.75" customHeight="1">
+    <row r="22" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>10</v>
@@ -3048,7 +3068,7 @@
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3">
-        <v>241.0</v>
+        <v>241</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -3072,9 +3092,9 @@
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
     </row>
-    <row r="23" ht="12.75" customHeight="1">
+    <row r="23" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>10</v>
@@ -3091,7 +3111,7 @@
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3">
-        <v>227.0</v>
+        <v>227</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
@@ -3115,9 +3135,9 @@
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
     </row>
-    <row r="24" ht="12.75" customHeight="1">
+    <row r="24" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>10</v>
@@ -3136,7 +3156,7 @@
         <v>88</v>
       </c>
       <c r="H24" s="3">
-        <v>158.0</v>
+        <v>158</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -3160,9 +3180,9 @@
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
     </row>
-    <row r="25" ht="12.75" customHeight="1">
+    <row r="25" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>10</v>
@@ -3179,7 +3199,7 @@
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3">
-        <v>217.0</v>
+        <v>217</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -3203,9 +3223,9 @@
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
     </row>
-    <row r="26" ht="12.75" customHeight="1">
+    <row r="26" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>10</v>
@@ -3224,7 +3244,7 @@
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3">
-        <v>279.0</v>
+        <v>279</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
@@ -3248,9 +3268,9 @@
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
     </row>
-    <row r="27" ht="12.75" customHeight="1">
+    <row r="27" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>10</v>
@@ -3269,7 +3289,7 @@
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3">
-        <v>222.0</v>
+        <v>222</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
@@ -3293,9 +3313,9 @@
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
     </row>
-    <row r="28" ht="12.75" customHeight="1">
+    <row r="28" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>10</v>
@@ -3314,7 +3334,7 @@
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3">
-        <v>274.0</v>
+        <v>274</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
@@ -3338,9 +3358,9 @@
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
     </row>
-    <row r="29" ht="12.75" customHeight="1">
+    <row r="29" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>10</v>
@@ -3359,7 +3379,7 @@
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3">
-        <v>587.0</v>
+        <v>587</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
@@ -3383,9 +3403,9 @@
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
     </row>
-    <row r="30" ht="12.75" customHeight="1">
+    <row r="30" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>10</v>
@@ -3402,7 +3422,7 @@
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3">
-        <v>443.0</v>
+        <v>443</v>
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
@@ -3426,9 +3446,9 @@
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
     </row>
-    <row r="31" ht="12.75" customHeight="1">
+    <row r="31" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>10</v>
@@ -3445,7 +3465,7 @@
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3">
-        <v>401.0</v>
+        <v>401</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
@@ -3469,9 +3489,9 @@
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
     </row>
-    <row r="32" ht="12.75" customHeight="1">
+    <row r="32" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>10</v>
@@ -3488,7 +3508,7 @@
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3">
-        <v>451.0</v>
+        <v>451</v>
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
@@ -3512,9 +3532,9 @@
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
     </row>
-    <row r="33" ht="12.75" customHeight="1">
+    <row r="33" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>10</v>
@@ -3531,7 +3551,7 @@
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3">
-        <v>414.0</v>
+        <v>414</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
@@ -3555,9 +3575,9 @@
       <c r="AB33" s="4"/>
       <c r="AC33" s="4"/>
     </row>
-    <row r="34" ht="12.75" customHeight="1">
+    <row r="34" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>111</v>
@@ -3576,7 +3596,7 @@
         <v>114</v>
       </c>
       <c r="H34" s="8">
-        <v>171.0</v>
+        <v>171</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
@@ -3600,9 +3620,9 @@
       <c r="AB34" s="8"/>
       <c r="AC34" s="8"/>
     </row>
-    <row r="35" ht="12.75" customHeight="1">
+    <row r="35" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>111</v>
@@ -3643,9 +3663,9 @@
       <c r="AB35" s="8"/>
       <c r="AC35" s="8"/>
     </row>
-    <row r="36" ht="12.75" customHeight="1">
+    <row r="36" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>111</v>
@@ -3664,7 +3684,7 @@
         <v>19</v>
       </c>
       <c r="H36" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
@@ -3688,9 +3708,9 @@
       <c r="AB36" s="8"/>
       <c r="AC36" s="8"/>
     </row>
-    <row r="37" ht="12.75" customHeight="1">
+    <row r="37" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>111</v>
@@ -3709,7 +3729,7 @@
         <v>19</v>
       </c>
       <c r="H37" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
@@ -3733,9 +3753,9 @@
       <c r="AB37" s="8"/>
       <c r="AC37" s="8"/>
     </row>
-    <row r="38" ht="12.75" customHeight="1">
+    <row r="38" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>111</v>
@@ -3754,7 +3774,7 @@
         <v>19</v>
       </c>
       <c r="H38" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
@@ -3778,9 +3798,9 @@
       <c r="AB38" s="8"/>
       <c r="AC38" s="8"/>
     </row>
-    <row r="39" ht="12.75" customHeight="1">
+    <row r="39" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>111</v>
@@ -3799,7 +3819,7 @@
         <v>19</v>
       </c>
       <c r="H39" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
@@ -3823,9 +3843,9 @@
       <c r="AB39" s="8"/>
       <c r="AC39" s="8"/>
     </row>
-    <row r="40" ht="12.75" customHeight="1">
+    <row r="40" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>111</v>
@@ -3844,7 +3864,7 @@
         <v>19</v>
       </c>
       <c r="H40" s="8">
-        <v>489.0</v>
+        <v>489</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="9" t="s">
@@ -3870,9 +3890,9 @@
       <c r="AB40" s="8"/>
       <c r="AC40" s="8"/>
     </row>
-    <row r="41" ht="12.75" customHeight="1">
+    <row r="41" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>111</v>
@@ -3893,7 +3913,7 @@
         <v>133</v>
       </c>
       <c r="H41" s="8">
-        <v>1675.0</v>
+        <v>1675</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
@@ -3917,9 +3937,9 @@
       <c r="AB41" s="8"/>
       <c r="AC41" s="8"/>
     </row>
-    <row r="42" ht="12.75" customHeight="1">
+    <row r="42" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>111</v>
@@ -3936,7 +3956,7 @@
       </c>
       <c r="G42" s="8"/>
       <c r="H42" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
@@ -3960,9 +3980,9 @@
       <c r="AB42" s="8"/>
       <c r="AC42" s="8"/>
     </row>
-    <row r="43" ht="12.75" customHeight="1">
+    <row r="43" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>111</v>
@@ -3979,7 +3999,7 @@
       </c>
       <c r="G43" s="8"/>
       <c r="H43" s="9">
-        <v>340.0</v>
+        <v>340</v>
       </c>
       <c r="I43" s="8" t="s">
         <v>139</v>
@@ -4005,9 +4025,9 @@
       <c r="AB43" s="8"/>
       <c r="AC43" s="8"/>
     </row>
-    <row r="44" ht="12.75" customHeight="1">
+    <row r="44" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>111</v>
@@ -4024,7 +4044,7 @@
       </c>
       <c r="G44" s="8"/>
       <c r="H44" s="9">
-        <v>229.0</v>
+        <v>229</v>
       </c>
       <c r="I44" s="9" t="s">
         <v>142</v>
@@ -4052,9 +4072,9 @@
       <c r="AB44" s="8"/>
       <c r="AC44" s="8"/>
     </row>
-    <row r="45" ht="12.75" customHeight="1">
+    <row r="45" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>111</v>
@@ -4071,7 +4091,7 @@
       </c>
       <c r="G45" s="8"/>
       <c r="H45" s="9">
-        <v>564.0</v>
+        <v>564</v>
       </c>
       <c r="I45" s="9" t="s">
         <v>142</v>
@@ -4099,9 +4119,9 @@
       <c r="AB45" s="8"/>
       <c r="AC45" s="8"/>
     </row>
-    <row r="46" ht="12.75" customHeight="1">
+    <row r="46" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>111</v>
@@ -4118,7 +4138,7 @@
       </c>
       <c r="G46" s="8"/>
       <c r="H46" s="8">
-        <v>219.0</v>
+        <v>219</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
@@ -4142,9 +4162,9 @@
       <c r="AB46" s="8"/>
       <c r="AC46" s="8"/>
     </row>
-    <row r="47" ht="12.75" customHeight="1">
+    <row r="47" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="8">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>111</v>
@@ -4161,7 +4181,7 @@
       </c>
       <c r="G47" s="8"/>
       <c r="H47" s="9">
-        <v>682.0</v>
+        <v>682</v>
       </c>
       <c r="I47" s="9" t="s">
         <v>142</v>
@@ -4189,9 +4209,9 @@
       <c r="AB47" s="8"/>
       <c r="AC47" s="8"/>
     </row>
-    <row r="48" ht="12.75" customHeight="1">
+    <row r="48" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>111</v>
@@ -4208,7 +4228,7 @@
       </c>
       <c r="G48" s="8"/>
       <c r="H48" s="9">
-        <v>2480.0</v>
+        <v>2480</v>
       </c>
       <c r="I48" s="9" t="s">
         <v>152</v>
@@ -4236,9 +4256,9 @@
       <c r="AB48" s="8"/>
       <c r="AC48" s="8"/>
     </row>
-    <row r="49" ht="12.75" customHeight="1">
+    <row r="49" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>111</v>
@@ -4255,7 +4275,7 @@
       </c>
       <c r="G49" s="8"/>
       <c r="H49" s="9">
-        <v>2296.0</v>
+        <v>2296</v>
       </c>
       <c r="I49" s="9" t="s">
         <v>152</v>
@@ -4283,9 +4303,9 @@
       <c r="AB49" s="8"/>
       <c r="AC49" s="8"/>
     </row>
-    <row r="50" ht="12.75" customHeight="1">
+    <row r="50" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>111</v>
@@ -4302,7 +4322,7 @@
       </c>
       <c r="G50" s="8"/>
       <c r="H50" s="9">
-        <v>3060.0</v>
+        <v>3060</v>
       </c>
       <c r="I50" s="9" t="s">
         <v>152</v>
@@ -4330,9 +4350,9 @@
       <c r="AB50" s="8"/>
       <c r="AC50" s="8"/>
     </row>
-    <row r="51" ht="12.75" customHeight="1">
+    <row r="51" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>111</v>
@@ -4351,7 +4371,7 @@
       </c>
       <c r="G51" s="8"/>
       <c r="H51" s="9">
-        <v>2081.0</v>
+        <v>2081</v>
       </c>
       <c r="I51" s="9" t="s">
         <v>152</v>
@@ -4379,9 +4399,9 @@
       <c r="AB51" s="8"/>
       <c r="AC51" s="8"/>
     </row>
-    <row r="52" ht="12.75" customHeight="1">
+    <row r="52" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>111</v>
@@ -4398,7 +4418,7 @@
       </c>
       <c r="G52" s="8"/>
       <c r="H52" s="8">
-        <v>1158.0</v>
+        <v>1158</v>
       </c>
       <c r="I52" s="9" t="s">
         <v>163</v>
@@ -4426,9 +4446,9 @@
       <c r="AB52" s="8"/>
       <c r="AC52" s="8"/>
     </row>
-    <row r="53" ht="12.75" customHeight="1">
+    <row r="53" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>111</v>
@@ -4445,7 +4465,7 @@
       </c>
       <c r="G53" s="8"/>
       <c r="H53" s="9">
-        <v>1094.0</v>
+        <v>1094</v>
       </c>
       <c r="I53" s="9" t="s">
         <v>142</v>
@@ -4473,9 +4493,9 @@
       <c r="AB53" s="8"/>
       <c r="AC53" s="8"/>
     </row>
-    <row r="54" ht="12.75" customHeight="1">
+    <row r="54" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>111</v>
@@ -4492,7 +4512,7 @@
       </c>
       <c r="G54" s="8"/>
       <c r="H54" s="9">
-        <v>392.0</v>
+        <v>392</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
@@ -4516,9 +4536,9 @@
       <c r="AB54" s="8"/>
       <c r="AC54" s="8"/>
     </row>
-    <row r="55" ht="12.75" customHeight="1">
+    <row r="55" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>111</v>
@@ -4535,7 +4555,7 @@
       </c>
       <c r="G55" s="8"/>
       <c r="H55" s="9">
-        <v>1695.0</v>
+        <v>1695</v>
       </c>
       <c r="I55" s="9" t="s">
         <v>170</v>
@@ -4563,9 +4583,9 @@
       <c r="AB55" s="8"/>
       <c r="AC55" s="8"/>
     </row>
-    <row r="56" ht="12.75" customHeight="1">
+    <row r="56" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>111</v>
@@ -4584,7 +4604,7 @@
         <v>19</v>
       </c>
       <c r="H56" s="8">
-        <v>247.0</v>
+        <v>247</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="9" t="s">
@@ -4610,9 +4630,9 @@
       <c r="AB56" s="8"/>
       <c r="AC56" s="8"/>
     </row>
-    <row r="57" ht="12.75" customHeight="1">
+    <row r="57" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>111</v>
@@ -4631,7 +4651,7 @@
         <v>19</v>
       </c>
       <c r="H57" s="8">
-        <v>499.0</v>
+        <v>499</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8" t="s">
@@ -4657,9 +4677,9 @@
       <c r="AB57" s="8"/>
       <c r="AC57" s="8"/>
     </row>
-    <row r="58" ht="12.75" customHeight="1">
+    <row r="58" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>111</v>
@@ -4678,7 +4698,7 @@
         <v>19</v>
       </c>
       <c r="H58" s="8">
-        <v>511.0</v>
+        <v>511</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8" t="s">
@@ -4704,9 +4724,9 @@
       <c r="AB58" s="8"/>
       <c r="AC58" s="8"/>
     </row>
-    <row r="59" ht="12.75" customHeight="1">
+    <row r="59" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>111</v>
@@ -4725,7 +4745,7 @@
         <v>19</v>
       </c>
       <c r="H59" s="8">
-        <v>468.0</v>
+        <v>468</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8" t="s">
@@ -4751,9 +4771,9 @@
       <c r="AB59" s="8"/>
       <c r="AC59" s="8"/>
     </row>
-    <row r="60" ht="12.75" customHeight="1">
+    <row r="60" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>111</v>
@@ -4772,7 +4792,7 @@
         <v>19</v>
       </c>
       <c r="H60" s="8">
-        <v>375.0</v>
+        <v>375</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8" t="s">
@@ -4798,9 +4818,9 @@
       <c r="AB60" s="8"/>
       <c r="AC60" s="8"/>
     </row>
-    <row r="61" ht="12.75" customHeight="1">
+    <row r="61" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>111</v>
@@ -4819,7 +4839,7 @@
         <v>19</v>
       </c>
       <c r="H61" s="8">
-        <v>214.0</v>
+        <v>214</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8" t="s">
@@ -4845,9 +4865,9 @@
       <c r="AB61" s="8"/>
       <c r="AC61" s="8"/>
     </row>
-    <row r="62" ht="12.75" customHeight="1">
+    <row r="62" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="8">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>111</v>
@@ -4866,7 +4886,7 @@
         <v>19</v>
       </c>
       <c r="H62" s="8">
-        <v>379.0</v>
+        <v>379</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8" t="s">
@@ -4892,9 +4912,9 @@
       <c r="AB62" s="8"/>
       <c r="AC62" s="8"/>
     </row>
-    <row r="63" ht="12.75" customHeight="1">
+    <row r="63" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>111</v>
@@ -4913,7 +4933,7 @@
         <v>19</v>
       </c>
       <c r="H63" s="8">
-        <v>304.0</v>
+        <v>304</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8" t="s">
@@ -4939,9 +4959,9 @@
       <c r="AB63" s="8"/>
       <c r="AC63" s="8"/>
     </row>
-    <row r="64" ht="12.75" customHeight="1">
+    <row r="64" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>111</v>
@@ -4960,7 +4980,7 @@
         <v>19</v>
       </c>
       <c r="H64" s="8">
-        <v>229.0</v>
+        <v>229</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8" t="s">
@@ -4986,9 +5006,9 @@
       <c r="AB64" s="8"/>
       <c r="AC64" s="8"/>
     </row>
-    <row r="65" ht="12.75" customHeight="1">
+    <row r="65" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="8">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="B65" s="8" t="s">
         <v>111</v>
@@ -5007,7 +5027,7 @@
         <v>19</v>
       </c>
       <c r="H65" s="8">
-        <v>350.0</v>
+        <v>350</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8" t="s">
@@ -5033,9 +5053,9 @@
       <c r="AB65" s="8"/>
       <c r="AC65" s="8"/>
     </row>
-    <row r="66" ht="12.75" customHeight="1">
+    <row r="66" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="B66" s="12" t="s">
         <v>201</v>
@@ -5054,7 +5074,7 @@
         <v>19</v>
       </c>
       <c r="H66" s="3">
-        <v>397.0</v>
+        <v>397</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>204</v>
@@ -5082,9 +5102,9 @@
       <c r="AB66" s="4"/>
       <c r="AC66" s="4"/>
     </row>
-    <row r="67" ht="12.75" customHeight="1">
+    <row r="67" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="B67" s="12" t="s">
         <v>201</v>
@@ -5103,7 +5123,7 @@
         <v>19</v>
       </c>
       <c r="H67" s="3">
-        <v>224.0</v>
+        <v>224</v>
       </c>
       <c r="I67" s="3" t="s">
         <v>204</v>
@@ -5131,9 +5151,9 @@
       <c r="AB67" s="4"/>
       <c r="AC67" s="4"/>
     </row>
-    <row r="68" ht="12.75" customHeight="1">
+    <row r="68" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="B68" s="12" t="s">
         <v>201</v>
@@ -5152,7 +5172,7 @@
         <v>19</v>
       </c>
       <c r="H68" s="3">
-        <v>327.0</v>
+        <v>327</v>
       </c>
       <c r="I68" s="3" t="s">
         <v>204</v>
@@ -5180,9 +5200,9 @@
       <c r="AB68" s="4"/>
       <c r="AC68" s="4"/>
     </row>
-    <row r="69" ht="12.75" customHeight="1">
+    <row r="69" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="B69" s="12" t="s">
         <v>201</v>
@@ -5201,7 +5221,7 @@
         <v>19</v>
       </c>
       <c r="H69" s="3">
-        <v>281.0</v>
+        <v>281</v>
       </c>
       <c r="I69" s="3" t="s">
         <v>204</v>
@@ -5229,9 +5249,9 @@
       <c r="AB69" s="4"/>
       <c r="AC69" s="4"/>
     </row>
-    <row r="70" ht="12.75" customHeight="1">
+    <row r="70" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="B70" s="12" t="s">
         <v>201</v>
@@ -5250,7 +5270,7 @@
         <v>19</v>
       </c>
       <c r="H70" s="3">
-        <v>214.0</v>
+        <v>214</v>
       </c>
       <c r="I70" s="3" t="s">
         <v>204</v>
@@ -5278,9 +5298,9 @@
       <c r="AB70" s="4"/>
       <c r="AC70" s="4"/>
     </row>
-    <row r="71" ht="12.75" customHeight="1">
+    <row r="71" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="B71" s="12" t="s">
         <v>201</v>
@@ -5297,7 +5317,7 @@
       </c>
       <c r="G71" s="3"/>
       <c r="H71" s="3">
-        <v>3383.0</v>
+        <v>3383</v>
       </c>
       <c r="I71" s="3" t="s">
         <v>216</v>
@@ -5325,9 +5345,9 @@
       <c r="AB71" s="4"/>
       <c r="AC71" s="4"/>
     </row>
-    <row r="72" ht="12.75" customHeight="1">
+    <row r="72" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="B72" s="12" t="s">
         <v>201</v>
@@ -5344,7 +5364,7 @@
       </c>
       <c r="G72" s="3"/>
       <c r="H72" s="3">
-        <v>3854.0</v>
+        <v>3854</v>
       </c>
       <c r="I72" s="3"/>
       <c r="J72" s="3" t="s">
@@ -5370,9 +5390,9 @@
       <c r="AB72" s="4"/>
       <c r="AC72" s="4"/>
     </row>
-    <row r="73" ht="12.75" customHeight="1">
+    <row r="73" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="B73" s="12" t="s">
         <v>201</v>
@@ -5391,7 +5411,7 @@
         <v>19</v>
       </c>
       <c r="H73" s="3">
-        <v>220.0</v>
+        <v>220</v>
       </c>
       <c r="I73" s="3" t="s">
         <v>204</v>
@@ -5417,9 +5437,9 @@
       <c r="AB73" s="4"/>
       <c r="AC73" s="4"/>
     </row>
-    <row r="74" ht="12.75" customHeight="1">
+    <row r="74" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="B74" s="12" t="s">
         <v>201</v>
@@ -5436,7 +5456,7 @@
       </c>
       <c r="G74" s="3"/>
       <c r="H74" s="3">
-        <v>2558.0</v>
+        <v>2558</v>
       </c>
       <c r="I74" s="3"/>
       <c r="J74" s="3" t="s">
@@ -5462,9 +5482,9 @@
       <c r="AB74" s="4"/>
       <c r="AC74" s="4"/>
     </row>
-    <row r="75" ht="12.75" customHeight="1">
+    <row r="75" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="B75" s="12" t="s">
         <v>201</v>
@@ -5481,7 +5501,7 @@
       </c>
       <c r="G75" s="3"/>
       <c r="H75" s="3">
-        <v>2576.0</v>
+        <v>2576</v>
       </c>
       <c r="I75" s="3"/>
       <c r="J75" s="3" t="s">
@@ -5507,9 +5527,9 @@
       <c r="AB75" s="4"/>
       <c r="AC75" s="4"/>
     </row>
-    <row r="76" ht="12.75" customHeight="1">
+    <row r="76" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="B76" s="12" t="s">
         <v>201</v>
@@ -5528,7 +5548,7 @@
         <v>230</v>
       </c>
       <c r="H76" s="3">
-        <v>2545.0</v>
+        <v>2545</v>
       </c>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
@@ -5552,9 +5572,9 @@
       <c r="AB76" s="4"/>
       <c r="AC76" s="4"/>
     </row>
-    <row r="77" ht="12.75" customHeight="1">
+    <row r="77" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="B77" s="12" t="s">
         <v>201</v>
@@ -5573,7 +5593,7 @@
         <v>19</v>
       </c>
       <c r="H77" s="3">
-        <v>186.0</v>
+        <v>186</v>
       </c>
       <c r="I77" s="3" t="s">
         <v>204</v>
@@ -5601,9 +5621,9 @@
       <c r="AB77" s="4"/>
       <c r="AC77" s="4"/>
     </row>
-    <row r="78" ht="12.75" customHeight="1">
+    <row r="78" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="B78" s="12" t="s">
         <v>201</v>
@@ -5620,7 +5640,7 @@
       </c>
       <c r="G78" s="3"/>
       <c r="H78" s="3">
-        <v>2264.0</v>
+        <v>2264</v>
       </c>
       <c r="I78" s="3"/>
       <c r="J78" s="3" t="s">
@@ -5646,9 +5666,9 @@
       <c r="AB78" s="4"/>
       <c r="AC78" s="4"/>
     </row>
-    <row r="79" ht="12.75" customHeight="1">
+    <row r="79" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="B79" s="12" t="s">
         <v>201</v>
@@ -5667,7 +5687,7 @@
         <v>19</v>
       </c>
       <c r="H79" s="3">
-        <v>183.0</v>
+        <v>183</v>
       </c>
       <c r="I79" s="3" t="s">
         <v>204</v>
@@ -5695,9 +5715,9 @@
       <c r="AB79" s="4"/>
       <c r="AC79" s="4"/>
     </row>
-    <row r="80" ht="12.75" customHeight="1">
+    <row r="80" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="B80" s="12" t="s">
         <v>201</v>
@@ -5716,7 +5736,7 @@
         <v>19</v>
       </c>
       <c r="H80" s="3">
-        <v>183.0</v>
+        <v>183</v>
       </c>
       <c r="I80" s="3" t="s">
         <v>204</v>
@@ -5744,9 +5764,9 @@
       <c r="AB80" s="4"/>
       <c r="AC80" s="4"/>
     </row>
-    <row r="81" ht="12.75" customHeight="1">
+    <row r="81" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="B81" s="12" t="s">
         <v>201</v>
@@ -5763,7 +5783,7 @@
       </c>
       <c r="G81" s="3"/>
       <c r="H81" s="3">
-        <v>997.0</v>
+        <v>997</v>
       </c>
       <c r="I81" s="3"/>
       <c r="J81" s="3" t="s">
@@ -5789,9 +5809,9 @@
       <c r="AB81" s="4"/>
       <c r="AC81" s="4"/>
     </row>
-    <row r="82" ht="12.75" customHeight="1">
+    <row r="82" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
-        <v>81.0</v>
+        <v>81</v>
       </c>
       <c r="B82" s="12" t="s">
         <v>201</v>
@@ -5810,7 +5830,7 @@
         <v>19</v>
       </c>
       <c r="H82" s="3">
-        <v>186.0</v>
+        <v>186</v>
       </c>
       <c r="I82" s="3" t="s">
         <v>204</v>
@@ -5838,9 +5858,9 @@
       <c r="AB82" s="4"/>
       <c r="AC82" s="4"/>
     </row>
-    <row r="83" ht="12.75" customHeight="1">
+    <row r="83" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="B83" s="12" t="s">
         <v>201</v>
@@ -5857,7 +5877,7 @@
       </c>
       <c r="G83" s="3"/>
       <c r="H83" s="3">
-        <v>3853.0</v>
+        <v>3853</v>
       </c>
       <c r="I83" s="3"/>
       <c r="J83" s="3" t="s">
@@ -5883,9 +5903,9 @@
       <c r="AB83" s="4"/>
       <c r="AC83" s="4"/>
     </row>
-    <row r="84" ht="12.75" customHeight="1">
+    <row r="84" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
-        <v>83.0</v>
+        <v>83</v>
       </c>
       <c r="B84" s="12" t="s">
         <v>201</v>
@@ -5902,7 +5922,7 @@
       </c>
       <c r="G84" s="3"/>
       <c r="H84" s="3">
-        <v>3846.0</v>
+        <v>3846</v>
       </c>
       <c r="I84" s="3"/>
       <c r="J84" s="3" t="s">
@@ -5928,9 +5948,9 @@
       <c r="AB84" s="4"/>
       <c r="AC84" s="4"/>
     </row>
-    <row r="85" ht="12.75" customHeight="1">
+    <row r="85" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="B85" s="12" t="s">
         <v>201</v>
@@ -5949,7 +5969,7 @@
         <v>19</v>
       </c>
       <c r="H85" s="7">
-        <v>3845.0</v>
+        <v>3845</v>
       </c>
       <c r="I85" s="3"/>
       <c r="J85" s="13" t="s">
@@ -5975,9 +5995,9 @@
       <c r="AB85" s="4"/>
       <c r="AC85" s="4"/>
     </row>
-    <row r="86" ht="12.75" customHeight="1">
+    <row r="86" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="B86" s="12" t="s">
         <v>201</v>
@@ -5996,7 +6016,7 @@
         <v>19</v>
       </c>
       <c r="H86" s="13">
-        <v>184.0</v>
+        <v>184</v>
       </c>
       <c r="I86" s="3"/>
       <c r="J86" s="13" t="s">
@@ -6022,9 +6042,9 @@
       <c r="AB86" s="4"/>
       <c r="AC86" s="4"/>
     </row>
-    <row r="87" ht="12.75" customHeight="1">
+    <row r="87" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="B87" s="12" t="s">
         <v>201</v>
@@ -6041,7 +6061,7 @@
       </c>
       <c r="G87" s="3"/>
       <c r="H87" s="13">
-        <v>4880.0</v>
+        <v>4880</v>
       </c>
       <c r="I87" s="3"/>
       <c r="J87" s="13" t="s">
@@ -6067,9 +6087,9 @@
       <c r="AB87" s="4"/>
       <c r="AC87" s="4"/>
     </row>
-    <row r="88" ht="12.75" customHeight="1">
+    <row r="88" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="B88" s="12" t="s">
         <v>201</v>
@@ -6088,7 +6108,7 @@
         <v>19</v>
       </c>
       <c r="H88" s="13">
-        <v>182.0</v>
+        <v>182</v>
       </c>
       <c r="I88" s="13" t="s">
         <v>204</v>
@@ -6116,9 +6136,9 @@
       <c r="AB88" s="4"/>
       <c r="AC88" s="4"/>
     </row>
-    <row r="89" ht="12.75" customHeight="1">
+    <row r="89" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="B89" s="12" t="s">
         <v>201</v>
@@ -6137,7 +6157,7 @@
       </c>
       <c r="G89" s="3"/>
       <c r="H89" s="13">
-        <v>1430.0</v>
+        <v>1430</v>
       </c>
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
@@ -6161,9 +6181,9 @@
       <c r="AB89" s="4"/>
       <c r="AC89" s="4"/>
     </row>
-    <row r="90" ht="12.75" customHeight="1">
+    <row r="90" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="B90" s="12" t="s">
         <v>201</v>
@@ -6182,7 +6202,7 @@
         <v>19</v>
       </c>
       <c r="H90" s="13">
-        <v>192.0</v>
+        <v>192</v>
       </c>
       <c r="I90" s="13" t="s">
         <v>204</v>
@@ -6210,9 +6230,9 @@
       <c r="AB90" s="4"/>
       <c r="AC90" s="4"/>
     </row>
-    <row r="91" ht="12.75" customHeight="1">
+    <row r="91" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="B91" s="12" t="s">
         <v>201</v>
@@ -6229,7 +6249,7 @@
       </c>
       <c r="G91" s="3"/>
       <c r="H91" s="13">
-        <v>3541.0</v>
+        <v>3541</v>
       </c>
       <c r="I91" s="3"/>
       <c r="J91" s="13" t="s">
@@ -6255,9 +6275,9 @@
       <c r="AB91" s="4"/>
       <c r="AC91" s="4"/>
     </row>
-    <row r="92" ht="12.75" customHeight="1">
+    <row r="92" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
-        <v>91.0</v>
+        <v>91</v>
       </c>
       <c r="B92" s="12" t="s">
         <v>201</v>
@@ -6276,7 +6296,7 @@
         <v>270</v>
       </c>
       <c r="H92" s="13">
-        <v>3556.0</v>
+        <v>3556</v>
       </c>
       <c r="I92" s="3"/>
       <c r="J92" s="14" t="s">
@@ -6302,9 +6322,9 @@
       <c r="AB92" s="4"/>
       <c r="AC92" s="4"/>
     </row>
-    <row r="93" ht="12.75" customHeight="1">
+    <row r="93" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="B93" s="12" t="s">
         <v>201</v>
@@ -6321,7 +6341,7 @@
       </c>
       <c r="G93" s="3"/>
       <c r="H93" s="13">
-        <v>332.0</v>
+        <v>332</v>
       </c>
       <c r="I93" s="13" t="s">
         <v>273</v>
@@ -6349,9 +6369,9 @@
       <c r="AB93" s="4"/>
       <c r="AC93" s="4"/>
     </row>
-    <row r="94" ht="12.75" customHeight="1">
+    <row r="94" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="B94" s="12" t="s">
         <v>201</v>
@@ -6368,7 +6388,7 @@
       </c>
       <c r="G94" s="3"/>
       <c r="H94" s="13">
-        <v>225.0</v>
+        <v>225</v>
       </c>
       <c r="I94" s="13" t="s">
         <v>277</v>
@@ -6396,9 +6416,9 @@
       <c r="AB94" s="4"/>
       <c r="AC94" s="4"/>
     </row>
-    <row r="95" ht="12.75" customHeight="1">
+    <row r="95" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="B95" s="12" t="s">
         <v>201</v>
@@ -6415,7 +6435,7 @@
       </c>
       <c r="G95" s="3"/>
       <c r="H95" s="13">
-        <v>439.0</v>
+        <v>439</v>
       </c>
       <c r="I95" s="13" t="s">
         <v>277</v>
@@ -6443,9 +6463,9 @@
       <c r="AB95" s="4"/>
       <c r="AC95" s="4"/>
     </row>
-    <row r="96" ht="12.75" customHeight="1">
+    <row r="96" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="B96" s="12" t="s">
         <v>201</v>
@@ -6462,7 +6482,7 @@
       </c>
       <c r="G96" s="3"/>
       <c r="H96" s="13">
-        <v>551.0</v>
+        <v>551</v>
       </c>
       <c r="I96" s="13" t="s">
         <v>277</v>
@@ -6490,9 +6510,9 @@
       <c r="AB96" s="4"/>
       <c r="AC96" s="4"/>
     </row>
-    <row r="97" ht="12.75" customHeight="1">
+    <row r="97" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
-        <v>96.0</v>
+        <v>96</v>
       </c>
       <c r="B97" s="12" t="s">
         <v>201</v>
@@ -6509,7 +6529,7 @@
       </c>
       <c r="G97" s="3"/>
       <c r="H97" s="15">
-        <v>1408.0</v>
+        <v>1408</v>
       </c>
       <c r="I97" s="15" t="s">
         <v>286</v>
@@ -6537,9 +6557,9 @@
       <c r="AB97" s="4"/>
       <c r="AC97" s="4"/>
     </row>
-    <row r="98" ht="12.75" customHeight="1">
+    <row r="98" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="8">
-        <v>97.0</v>
+        <v>97</v>
       </c>
       <c r="B98" s="16" t="s">
         <v>288</v>
@@ -6556,7 +6576,7 @@
       </c>
       <c r="G98" s="8"/>
       <c r="H98" s="9">
-        <v>2339.0</v>
+        <v>2339</v>
       </c>
       <c r="I98" s="8" t="s">
         <v>142</v>
@@ -6584,9 +6604,9 @@
       <c r="AB98" s="8"/>
       <c r="AC98" s="8"/>
     </row>
-    <row r="99" ht="12.75" customHeight="1">
+    <row r="99" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="8">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="B99" s="16" t="s">
         <v>288</v>
@@ -6605,7 +6625,7 @@
         <v>19</v>
       </c>
       <c r="H99" s="8">
-        <v>186.0</v>
+        <v>186</v>
       </c>
       <c r="I99" s="9" t="s">
         <v>293</v>
@@ -6631,9 +6651,9 @@
       <c r="AB99" s="8"/>
       <c r="AC99" s="8"/>
     </row>
-    <row r="100" ht="12.75" customHeight="1">
+    <row r="100" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="8">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="B100" s="16" t="s">
         <v>288</v>
@@ -6652,7 +6672,7 @@
         <v>19</v>
       </c>
       <c r="H100" s="8">
-        <v>580.0</v>
+        <v>580</v>
       </c>
       <c r="I100" s="9" t="s">
         <v>296</v>
@@ -6680,9 +6700,9 @@
       <c r="AB100" s="8"/>
       <c r="AC100" s="8"/>
     </row>
-    <row r="101" ht="12.75" customHeight="1">
+    <row r="101" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="8">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="B101" s="16" t="s">
         <v>288</v>
@@ -6697,7 +6717,7 @@
       <c r="F101" s="17"/>
       <c r="G101" s="17"/>
       <c r="H101" s="10">
-        <v>3324.0</v>
+        <v>3324</v>
       </c>
       <c r="K101" s="8"/>
       <c r="L101" s="8"/>
@@ -6719,9 +6739,9 @@
       <c r="AB101" s="8"/>
       <c r="AC101" s="8"/>
     </row>
-    <row r="102" ht="12.75" customHeight="1">
+    <row r="102" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="8">
-        <v>101.0</v>
+        <v>101</v>
       </c>
       <c r="B102" s="16" t="s">
         <v>288</v>
@@ -6740,7 +6760,7 @@
         <v>19</v>
       </c>
       <c r="H102" s="8">
-        <v>235.0</v>
+        <v>235</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8" t="s">
@@ -6766,9 +6786,9 @@
       <c r="AB102" s="8"/>
       <c r="AC102" s="8"/>
     </row>
-    <row r="103" ht="12.75" customHeight="1">
+    <row r="103" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="8">
-        <v>102.0</v>
+        <v>102</v>
       </c>
       <c r="B103" s="16" t="s">
         <v>288</v>
@@ -6805,9 +6825,9 @@
       <c r="AB103" s="8"/>
       <c r="AC103" s="8"/>
     </row>
-    <row r="104" ht="12.75" customHeight="1">
+    <row r="104" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="8">
-        <v>103.0</v>
+        <v>103</v>
       </c>
       <c r="B104" s="16" t="s">
         <v>288</v>
@@ -6826,7 +6846,7 @@
         <v>19</v>
       </c>
       <c r="H104" s="8">
-        <v>261.0</v>
+        <v>261</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8" t="s">
@@ -6852,9 +6872,9 @@
       <c r="AB104" s="8"/>
       <c r="AC104" s="8"/>
     </row>
-    <row r="105" ht="12.75" customHeight="1">
+    <row r="105" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="8">
-        <v>104.0</v>
+        <v>104</v>
       </c>
       <c r="B105" s="16" t="s">
         <v>288</v>
@@ -6891,9 +6911,9 @@
       <c r="AB105" s="8"/>
       <c r="AC105" s="8"/>
     </row>
-    <row r="106" ht="12.75" customHeight="1">
+    <row r="106" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="8">
-        <v>105.0</v>
+        <v>105</v>
       </c>
       <c r="B106" s="16" t="s">
         <v>288</v>
@@ -6912,7 +6932,7 @@
         <v>19</v>
       </c>
       <c r="H106" s="8">
-        <v>191.0</v>
+        <v>191</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8" t="s">
@@ -6938,9 +6958,9 @@
       <c r="AB106" s="8"/>
       <c r="AC106" s="8"/>
     </row>
-    <row r="107" ht="12.75" customHeight="1">
+    <row r="107" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="8">
-        <v>106.0</v>
+        <v>106</v>
       </c>
       <c r="B107" s="16" t="s">
         <v>288</v>
@@ -6977,9 +6997,9 @@
       <c r="AB107" s="8"/>
       <c r="AC107" s="8"/>
     </row>
-    <row r="108" ht="12.75" customHeight="1">
+    <row r="108" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="8">
-        <v>107.0</v>
+        <v>107</v>
       </c>
       <c r="B108" s="16" t="s">
         <v>288</v>
@@ -6998,7 +7018,7 @@
         <v>19</v>
       </c>
       <c r="H108" s="8">
-        <v>199.0</v>
+        <v>199</v>
       </c>
       <c r="I108" s="8"/>
       <c r="J108" s="8" t="s">
@@ -7024,9 +7044,9 @@
       <c r="AB108" s="8"/>
       <c r="AC108" s="8"/>
     </row>
-    <row r="109" ht="12.75" customHeight="1">
+    <row r="109" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="8">
-        <v>108.0</v>
+        <v>108</v>
       </c>
       <c r="B109" s="16" t="s">
         <v>288</v>
@@ -7063,9 +7083,9 @@
       <c r="AB109" s="8"/>
       <c r="AC109" s="8"/>
     </row>
-    <row r="110" ht="12.75" customHeight="1">
+    <row r="110" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="8">
-        <v>109.0</v>
+        <v>109</v>
       </c>
       <c r="B110" s="16" t="s">
         <v>288</v>
@@ -7084,7 +7104,7 @@
         <v>19</v>
       </c>
       <c r="H110" s="8">
-        <v>277.0</v>
+        <v>277</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8" t="s">
@@ -7110,9 +7130,9 @@
       <c r="AB110" s="8"/>
       <c r="AC110" s="8"/>
     </row>
-    <row r="111" ht="12.75" customHeight="1">
+    <row r="111" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="8">
-        <v>110.0</v>
+        <v>110</v>
       </c>
       <c r="B111" s="16" t="s">
         <v>288</v>
@@ -7127,7 +7147,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c r="H111" s="8">
-        <v>2136.0</v>
+        <v>2136</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
@@ -7151,9 +7171,9 @@
       <c r="AB111" s="8"/>
       <c r="AC111" s="8"/>
     </row>
-    <row r="112" ht="12.75" customHeight="1">
+    <row r="112" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="8">
-        <v>111.0</v>
+        <v>111</v>
       </c>
       <c r="B112" s="16" t="s">
         <v>288</v>
@@ -7168,7 +7188,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c r="H112" s="8">
-        <v>2130.0</v>
+        <v>2130</v>
       </c>
       <c r="I112" s="8"/>
       <c r="J112" s="8" t="s">
@@ -7194,9 +7214,9 @@
       <c r="AB112" s="8"/>
       <c r="AC112" s="8"/>
     </row>
-    <row r="113" ht="12.75" customHeight="1">
+    <row r="113" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="8">
-        <v>112.0</v>
+        <v>112</v>
       </c>
       <c r="B113" s="16" t="s">
         <v>288</v>
@@ -7215,7 +7235,7 @@
         <v>19</v>
       </c>
       <c r="H113" s="8">
-        <v>233.0</v>
+        <v>233</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
@@ -7239,9 +7259,9 @@
       <c r="AB113" s="8"/>
       <c r="AC113" s="8"/>
     </row>
-    <row r="114" ht="12.75" customHeight="1">
+    <row r="114" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="8">
-        <v>113.0</v>
+        <v>113</v>
       </c>
       <c r="B114" s="16" t="s">
         <v>288</v>
@@ -7277,9 +7297,9 @@
       <c r="AB114" s="8"/>
       <c r="AC114" s="8"/>
     </row>
-    <row r="115" ht="12.75" customHeight="1">
+    <row r="115" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="8">
-        <v>114.0</v>
+        <v>114</v>
       </c>
       <c r="B115" s="16" t="s">
         <v>288</v>
@@ -7320,9 +7340,9 @@
       <c r="AB115" s="8"/>
       <c r="AC115" s="8"/>
     </row>
-    <row r="116" ht="12.75" customHeight="1">
+    <row r="116" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="8">
-        <v>115.0</v>
+        <v>115</v>
       </c>
       <c r="B116" s="16" t="s">
         <v>288</v>
@@ -7363,9 +7383,9 @@
       <c r="AB116" s="8"/>
       <c r="AC116" s="8"/>
     </row>
-    <row r="117" ht="12.75" customHeight="1">
+    <row r="117" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="8">
-        <v>116.0</v>
+        <v>116</v>
       </c>
       <c r="B117" s="16" t="s">
         <v>288</v>
@@ -7406,9 +7426,9 @@
       <c r="AB117" s="8"/>
       <c r="AC117" s="8"/>
     </row>
-    <row r="118" ht="12.75" customHeight="1">
+    <row r="118" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="8">
-        <v>117.0</v>
+        <v>117</v>
       </c>
       <c r="B118" s="16" t="s">
         <v>288</v>
@@ -7449,9 +7469,9 @@
       <c r="AB118" s="8"/>
       <c r="AC118" s="8"/>
     </row>
-    <row r="119" ht="12.75" customHeight="1">
+    <row r="119" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="8">
-        <v>118.0</v>
+        <v>118</v>
       </c>
       <c r="B119" s="16" t="s">
         <v>288</v>
@@ -7470,7 +7490,7 @@
         <v>341</v>
       </c>
       <c r="H119" s="8">
-        <v>993.0</v>
+        <v>993</v>
       </c>
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
@@ -7494,9 +7514,9 @@
       <c r="AB119" s="8"/>
       <c r="AC119" s="8"/>
     </row>
-    <row r="120" ht="12.75" customHeight="1">
+    <row r="120" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="8">
-        <v>119.0</v>
+        <v>119</v>
       </c>
       <c r="B120" s="16" t="s">
         <v>288</v>
@@ -7535,9 +7555,9 @@
       <c r="AB120" s="8"/>
       <c r="AC120" s="8"/>
     </row>
-    <row r="121" ht="12.75" customHeight="1">
+    <row r="121" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="8">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="B121" s="16" t="s">
         <v>288</v>
@@ -7576,9 +7596,9 @@
       <c r="AB121" s="8"/>
       <c r="AC121" s="8"/>
     </row>
-    <row r="122" ht="12.75" customHeight="1">
+    <row r="122" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="8">
-        <v>121.0</v>
+        <v>121</v>
       </c>
       <c r="B122" s="16" t="s">
         <v>288</v>
@@ -7619,9 +7639,9 @@
       <c r="AB122" s="8"/>
       <c r="AC122" s="8"/>
     </row>
-    <row r="123" ht="12.75" customHeight="1">
+    <row r="123" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="8">
-        <v>122.0</v>
+        <v>122</v>
       </c>
       <c r="B123" s="16" t="s">
         <v>288</v>
@@ -7662,9 +7682,9 @@
       <c r="AB123" s="8"/>
       <c r="AC123" s="8"/>
     </row>
-    <row r="124" ht="12.75" customHeight="1">
+    <row r="124" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="8">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="B124" s="16" t="s">
         <v>288</v>
@@ -7705,9 +7725,9 @@
       <c r="AB124" s="8"/>
       <c r="AC124" s="8"/>
     </row>
-    <row r="125" ht="12.75" customHeight="1">
+    <row r="125" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="8">
-        <v>124.0</v>
+        <v>124</v>
       </c>
       <c r="B125" s="16" t="s">
         <v>288</v>
@@ -7746,9 +7766,9 @@
       <c r="AB125" s="8"/>
       <c r="AC125" s="8"/>
     </row>
-    <row r="126" ht="12.75" customHeight="1">
+    <row r="126" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="8">
-        <v>125.0</v>
+        <v>125</v>
       </c>
       <c r="B126" s="16" t="s">
         <v>288</v>
@@ -7767,7 +7787,7 @@
         <v>19</v>
       </c>
       <c r="H126" s="8">
-        <v>705.0</v>
+        <v>705</v>
       </c>
       <c r="I126" s="8"/>
       <c r="J126" s="8"/>
@@ -7791,9 +7811,9 @@
       <c r="AB126" s="8"/>
       <c r="AC126" s="8"/>
     </row>
-    <row r="127" ht="12.75" customHeight="1">
+    <row r="127" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="8">
-        <v>126.0</v>
+        <v>126</v>
       </c>
       <c r="B127" s="16" t="s">
         <v>288</v>
@@ -7812,7 +7832,7 @@
         <v>362</v>
       </c>
       <c r="H127" s="8">
-        <v>1543.0</v>
+        <v>1543</v>
       </c>
       <c r="I127" s="8"/>
       <c r="J127" s="8"/>
@@ -7836,9 +7856,9 @@
       <c r="AB127" s="8"/>
       <c r="AC127" s="8"/>
     </row>
-    <row r="128" ht="12.75" customHeight="1">
+    <row r="128" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="8">
-        <v>127.0</v>
+        <v>127</v>
       </c>
       <c r="B128" s="16" t="s">
         <v>288</v>
@@ -7857,7 +7877,7 @@
         <v>19</v>
       </c>
       <c r="H128" s="8">
-        <v>1544.0</v>
+        <v>1544</v>
       </c>
       <c r="I128" s="8" t="s">
         <v>365</v>
@@ -7885,9 +7905,9 @@
       <c r="AB128" s="8"/>
       <c r="AC128" s="8"/>
     </row>
-    <row r="129" ht="12.75" customHeight="1">
+    <row r="129" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="8">
-        <v>128.0</v>
+        <v>128</v>
       </c>
       <c r="B129" s="16" t="s">
         <v>288</v>
@@ -7906,7 +7926,7 @@
       </c>
       <c r="G129" s="8"/>
       <c r="H129" s="8">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="I129" s="8"/>
       <c r="J129" s="8"/>
@@ -7930,9 +7950,9 @@
       <c r="AB129" s="8"/>
       <c r="AC129" s="8"/>
     </row>
-    <row r="130" ht="12.75" customHeight="1">
+    <row r="130" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
-        <v>129.0</v>
+        <v>129</v>
       </c>
       <c r="B130" s="12" t="s">
         <v>10</v>
@@ -7949,7 +7969,7 @@
       </c>
       <c r="G130" s="3"/>
       <c r="H130" s="3">
-        <v>1078.0</v>
+        <v>1078</v>
       </c>
       <c r="I130" s="3"/>
       <c r="J130" s="3"/>
@@ -7973,9 +7993,9 @@
       <c r="AB130" s="4"/>
       <c r="AC130" s="4"/>
     </row>
-    <row r="131" ht="12.75" customHeight="1">
+    <row r="131" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
-        <v>130.0</v>
+        <v>130</v>
       </c>
       <c r="B131" s="12" t="s">
         <v>10</v>
@@ -7992,7 +8012,7 @@
       </c>
       <c r="G131" s="3"/>
       <c r="H131" s="3">
-        <v>251.0</v>
+        <v>251</v>
       </c>
       <c r="I131" s="3" t="s">
         <v>374</v>
@@ -8018,9 +8038,9 @@
       <c r="AB131" s="4"/>
       <c r="AC131" s="4"/>
     </row>
-    <row r="132" ht="12.75" customHeight="1">
+    <row r="132" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
-        <v>131.0</v>
+        <v>131</v>
       </c>
       <c r="B132" s="12" t="s">
         <v>10</v>
@@ -8037,7 +8057,7 @@
       </c>
       <c r="G132" s="3"/>
       <c r="H132" s="3">
-        <v>257.0</v>
+        <v>257</v>
       </c>
       <c r="I132" s="3" t="s">
         <v>374</v>
@@ -8063,9 +8083,9 @@
       <c r="AB132" s="4"/>
       <c r="AC132" s="4"/>
     </row>
-    <row r="133" ht="12.75" customHeight="1">
+    <row r="133" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
-        <v>132.0</v>
+        <v>132</v>
       </c>
       <c r="B133" s="12" t="s">
         <v>10</v>
@@ -8082,7 +8102,7 @@
       </c>
       <c r="G133" s="3"/>
       <c r="H133" s="3">
-        <v>1413.0</v>
+        <v>1413</v>
       </c>
       <c r="I133" s="3" t="s">
         <v>379</v>
@@ -8108,9 +8128,9 @@
       <c r="AB133" s="4"/>
       <c r="AC133" s="4"/>
     </row>
-    <row r="134" ht="12.75" customHeight="1">
+    <row r="134" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
-        <v>133.0</v>
+        <v>133</v>
       </c>
       <c r="B134" s="12" t="s">
         <v>10</v>
@@ -8127,7 +8147,7 @@
       </c>
       <c r="G134" s="3"/>
       <c r="H134" s="3">
-        <v>1413.0</v>
+        <v>1413</v>
       </c>
       <c r="I134" s="3" t="s">
         <v>379</v>
@@ -8153,9 +8173,9 @@
       <c r="AB134" s="4"/>
       <c r="AC134" s="4"/>
     </row>
-    <row r="135" ht="12.75" customHeight="1">
+    <row r="135" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
-        <v>134.0</v>
+        <v>134</v>
       </c>
       <c r="B135" s="12" t="s">
         <v>10</v>
@@ -8172,7 +8192,7 @@
       </c>
       <c r="G135" s="3"/>
       <c r="H135" s="3">
-        <v>1363.0</v>
+        <v>1363</v>
       </c>
       <c r="I135" s="3" t="s">
         <v>379</v>
@@ -8198,9 +8218,9 @@
       <c r="AB135" s="4"/>
       <c r="AC135" s="4"/>
     </row>
-    <row r="136" ht="12.75" customHeight="1">
+    <row r="136" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="3">
-        <v>135.0</v>
+        <v>135</v>
       </c>
       <c r="B136" s="12" t="s">
         <v>10</v>
@@ -8219,7 +8239,7 @@
         <v>386</v>
       </c>
       <c r="H136" s="3">
-        <v>208.0</v>
+        <v>208</v>
       </c>
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
@@ -8243,9 +8263,9 @@
       <c r="AB136" s="4"/>
       <c r="AC136" s="4"/>
     </row>
-    <row r="137" ht="12.75" customHeight="1">
+    <row r="137" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
-        <v>136.0</v>
+        <v>136</v>
       </c>
       <c r="B137" s="12" t="s">
         <v>10</v>
@@ -8288,9 +8308,9 @@
       <c r="AB137" s="4"/>
       <c r="AC137" s="4"/>
     </row>
-    <row r="138" ht="12.75" customHeight="1">
+    <row r="138" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="3">
-        <v>137.0</v>
+        <v>137</v>
       </c>
       <c r="B138" s="12" t="s">
         <v>10</v>
@@ -8309,7 +8329,7 @@
         <v>393</v>
       </c>
       <c r="H138" s="3">
-        <v>208.0</v>
+        <v>208</v>
       </c>
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
@@ -8333,9 +8353,9 @@
       <c r="AB138" s="4"/>
       <c r="AC138" s="4"/>
     </row>
-    <row r="139" ht="12.75" customHeight="1">
+    <row r="139" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="3">
-        <v>138.0</v>
+        <v>138</v>
       </c>
       <c r="B139" s="12" t="s">
         <v>10</v>
@@ -8376,9 +8396,9 @@
       <c r="AB139" s="4"/>
       <c r="AC139" s="4"/>
     </row>
-    <row r="140" ht="12.75" customHeight="1">
+    <row r="140" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="3">
-        <v>139.0</v>
+        <v>139</v>
       </c>
       <c r="B140" s="12" t="s">
         <v>10</v>
@@ -8413,9 +8433,9 @@
       <c r="AB140" s="4"/>
       <c r="AC140" s="4"/>
     </row>
-    <row r="141" ht="12.75" customHeight="1">
+    <row r="141" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="3">
-        <v>140.0</v>
+        <v>140</v>
       </c>
       <c r="B141" s="12" t="s">
         <v>10</v>
@@ -8436,7 +8456,7 @@
         <v>400</v>
       </c>
       <c r="H141" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I141" s="3" t="s">
         <v>401</v>
@@ -8462,9 +8482,9 @@
       <c r="AB141" s="4"/>
       <c r="AC141" s="4"/>
     </row>
-    <row r="142" ht="12.75" customHeight="1">
+    <row r="142" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
-        <v>141.0</v>
+        <v>141</v>
       </c>
       <c r="B142" s="12" t="s">
         <v>10</v>
@@ -8485,7 +8505,7 @@
         <v>400</v>
       </c>
       <c r="H142" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I142" s="3" t="s">
         <v>401</v>
@@ -8511,9 +8531,9 @@
       <c r="AB142" s="4"/>
       <c r="AC142" s="4"/>
     </row>
-    <row r="143" ht="12.75" customHeight="1">
+    <row r="143" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="3">
-        <v>142.0</v>
+        <v>142</v>
       </c>
       <c r="B143" s="12" t="s">
         <v>10</v>
@@ -8534,7 +8554,7 @@
         <v>400</v>
       </c>
       <c r="H143" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I143" s="3" t="s">
         <v>401</v>
@@ -8560,9 +8580,9 @@
       <c r="AB143" s="4"/>
       <c r="AC143" s="4"/>
     </row>
-    <row r="144" ht="12.75" customHeight="1">
+    <row r="144" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="3">
-        <v>143.0</v>
+        <v>143</v>
       </c>
       <c r="B144" s="12" t="s">
         <v>10</v>
@@ -8583,7 +8603,7 @@
         <v>400</v>
       </c>
       <c r="H144" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I144" s="3" t="s">
         <v>401</v>
@@ -8609,9 +8629,9 @@
       <c r="AB144" s="4"/>
       <c r="AC144" s="4"/>
     </row>
-    <row r="145" ht="12.75" customHeight="1">
+    <row r="145" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
-        <v>144.0</v>
+        <v>144</v>
       </c>
       <c r="B145" s="12" t="s">
         <v>10</v>
@@ -8632,7 +8652,7 @@
         <v>400</v>
       </c>
       <c r="H145" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I145" s="3" t="s">
         <v>401</v>
@@ -8658,9 +8678,9 @@
       <c r="AB145" s="4"/>
       <c r="AC145" s="4"/>
     </row>
-    <row r="146" ht="12.75" customHeight="1">
+    <row r="146" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
-        <v>145.0</v>
+        <v>145</v>
       </c>
       <c r="B146" s="12" t="s">
         <v>10</v>
@@ -8681,7 +8701,7 @@
         <v>400</v>
       </c>
       <c r="H146" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I146" s="3" t="s">
         <v>401</v>
@@ -8707,9 +8727,9 @@
       <c r="AB146" s="4"/>
       <c r="AC146" s="4"/>
     </row>
-    <row r="147" ht="12.75" customHeight="1">
+    <row r="147" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
-        <v>146.0</v>
+        <v>146</v>
       </c>
       <c r="B147" s="12" t="s">
         <v>10</v>
@@ -8726,7 +8746,7 @@
       </c>
       <c r="G147" s="3"/>
       <c r="H147" s="3">
-        <v>687.0</v>
+        <v>687</v>
       </c>
       <c r="I147" s="3" t="s">
         <v>401</v>
@@ -8752,9 +8772,9 @@
       <c r="AB147" s="4"/>
       <c r="AC147" s="4"/>
     </row>
-    <row r="148" ht="12.75" customHeight="1">
+    <row r="148" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
-        <v>147.0</v>
+        <v>147</v>
       </c>
       <c r="B148" s="12" t="s">
         <v>10</v>
@@ -8775,7 +8795,7 @@
         <v>400</v>
       </c>
       <c r="H148" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I148" s="3" t="s">
         <v>401</v>
@@ -8801,9 +8821,9 @@
       <c r="AB148" s="4"/>
       <c r="AC148" s="4"/>
     </row>
-    <row r="149" ht="12.75" customHeight="1">
+    <row r="149" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
-        <v>148.0</v>
+        <v>148</v>
       </c>
       <c r="B149" s="12" t="s">
         <v>10</v>
@@ -8824,7 +8844,7 @@
         <v>400</v>
       </c>
       <c r="H149" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I149" s="3" t="s">
         <v>401</v>
@@ -8850,9 +8870,9 @@
       <c r="AB149" s="4"/>
       <c r="AC149" s="4"/>
     </row>
-    <row r="150" ht="12.75" customHeight="1">
+    <row r="150" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
-        <v>149.0</v>
+        <v>149</v>
       </c>
       <c r="B150" s="12" t="s">
         <v>10</v>
@@ -8873,7 +8893,7 @@
         <v>400</v>
       </c>
       <c r="H150" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I150" s="3" t="s">
         <v>401</v>
@@ -8899,9 +8919,9 @@
       <c r="AB150" s="4"/>
       <c r="AC150" s="4"/>
     </row>
-    <row r="151" ht="12.75" customHeight="1">
+    <row r="151" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="B151" s="12" t="s">
         <v>10</v>
@@ -8922,7 +8942,7 @@
         <v>400</v>
       </c>
       <c r="H151" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I151" s="3" t="s">
         <v>401</v>
@@ -8948,9 +8968,9 @@
       <c r="AB151" s="4"/>
       <c r="AC151" s="4"/>
     </row>
-    <row r="152" ht="12.75" customHeight="1">
+    <row r="152" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="3">
-        <v>151.0</v>
+        <v>151</v>
       </c>
       <c r="B152" s="12" t="s">
         <v>10</v>
@@ -8971,7 +8991,7 @@
         <v>400</v>
       </c>
       <c r="H152" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I152" s="3" t="s">
         <v>401</v>
@@ -8997,9 +9017,9 @@
       <c r="AB152" s="4"/>
       <c r="AC152" s="4"/>
     </row>
-    <row r="153" ht="12.75" customHeight="1">
+    <row r="153" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="3">
-        <v>152.0</v>
+        <v>152</v>
       </c>
       <c r="B153" s="12" t="s">
         <v>10</v>
@@ -9020,7 +9040,7 @@
         <v>400</v>
       </c>
       <c r="H153" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I153" s="3" t="s">
         <v>401</v>
@@ -9046,9 +9066,9 @@
       <c r="AB153" s="4"/>
       <c r="AC153" s="4"/>
     </row>
-    <row r="154" ht="12.75" customHeight="1">
+    <row r="154" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="3">
-        <v>153.0</v>
+        <v>153</v>
       </c>
       <c r="B154" s="12" t="s">
         <v>10</v>
@@ -9067,7 +9087,7 @@
         <v>19</v>
       </c>
       <c r="H154" s="3">
-        <v>209.0</v>
+        <v>209</v>
       </c>
       <c r="I154" s="3"/>
       <c r="J154" s="3"/>
@@ -9091,9 +9111,9 @@
       <c r="AB154" s="4"/>
       <c r="AC154" s="4"/>
     </row>
-    <row r="155" ht="12.75" customHeight="1">
+    <row r="155" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="3">
-        <v>154.0</v>
+        <v>154</v>
       </c>
       <c r="B155" s="12" t="s">
         <v>10</v>
@@ -9112,7 +9132,7 @@
         <v>430</v>
       </c>
       <c r="H155" s="3">
-        <v>2911.0</v>
+        <v>2911</v>
       </c>
       <c r="I155" s="3" t="s">
         <v>431</v>
@@ -9138,9 +9158,9 @@
       <c r="AB155" s="4"/>
       <c r="AC155" s="4"/>
     </row>
-    <row r="156" ht="12.75" customHeight="1">
+    <row r="156" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="3">
-        <v>155.0</v>
+        <v>155</v>
       </c>
       <c r="B156" s="12" t="s">
         <v>10</v>
@@ -9157,7 +9177,7 @@
       </c>
       <c r="G156" s="3"/>
       <c r="H156" s="3">
-        <v>2918.0</v>
+        <v>2918</v>
       </c>
       <c r="I156" s="3" t="s">
         <v>435</v>
@@ -9183,9 +9203,9 @@
       <c r="AB156" s="4"/>
       <c r="AC156" s="4"/>
     </row>
-    <row r="157" ht="12.75" customHeight="1">
+    <row r="157" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="3">
-        <v>156.0</v>
+        <v>156</v>
       </c>
       <c r="B157" s="12" t="s">
         <v>10</v>
@@ -9204,7 +9224,7 @@
         <v>438</v>
       </c>
       <c r="H157" s="3">
-        <v>2949.0</v>
+        <v>2949</v>
       </c>
       <c r="I157" s="3" t="s">
         <v>431</v>
@@ -9230,9 +9250,9 @@
       <c r="AB157" s="4"/>
       <c r="AC157" s="4"/>
     </row>
-    <row r="158" ht="12.75" customHeight="1">
+    <row r="158" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="3">
-        <v>157.0</v>
+        <v>157</v>
       </c>
       <c r="B158" s="12" t="s">
         <v>10</v>
@@ -9251,7 +9271,7 @@
         <v>19</v>
       </c>
       <c r="H158" s="3">
-        <v>195.0</v>
+        <v>195</v>
       </c>
       <c r="I158" s="3"/>
       <c r="J158" s="3"/>
@@ -9275,9 +9295,9 @@
       <c r="AB158" s="4"/>
       <c r="AC158" s="4"/>
     </row>
-    <row r="159" ht="12.75" customHeight="1">
+    <row r="159" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="3">
-        <v>158.0</v>
+        <v>158</v>
       </c>
       <c r="B159" s="12" t="s">
         <v>10</v>
@@ -9320,9 +9340,9 @@
       <c r="AB159" s="4"/>
       <c r="AC159" s="4"/>
     </row>
-    <row r="160" ht="12.75" customHeight="1">
+    <row r="160" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="3">
-        <v>159.0</v>
+        <v>159</v>
       </c>
       <c r="B160" s="12" t="s">
         <v>10</v>
@@ -9365,9 +9385,9 @@
       <c r="AB160" s="4"/>
       <c r="AC160" s="4"/>
     </row>
-    <row r="161" ht="12.75" customHeight="1">
+    <row r="161" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="3">
-        <v>160.0</v>
+        <v>160</v>
       </c>
       <c r="B161" s="12" t="s">
         <v>10</v>
@@ -9410,9 +9430,9 @@
       <c r="AB161" s="4"/>
       <c r="AC161" s="4"/>
     </row>
-    <row r="162" ht="12.75" customHeight="1">
+    <row r="162" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="8">
-        <v>161.0</v>
+        <v>161</v>
       </c>
       <c r="B162" s="16" t="s">
         <v>449</v>
@@ -9457,9 +9477,9 @@
       <c r="AB162" s="8"/>
       <c r="AC162" s="8"/>
     </row>
-    <row r="163" ht="12.75" customHeight="1">
+    <row r="163" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="8">
-        <v>162.0</v>
+        <v>162</v>
       </c>
       <c r="B163" s="16" t="s">
         <v>449</v>
@@ -9502,9 +9522,9 @@
       <c r="AB163" s="8"/>
       <c r="AC163" s="8"/>
     </row>
-    <row r="164" ht="12.75" customHeight="1">
+    <row r="164" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="8">
-        <v>163.0</v>
+        <v>163</v>
       </c>
       <c r="B164" s="16" t="s">
         <v>449</v>
@@ -9545,9 +9565,9 @@
       <c r="AB164" s="8"/>
       <c r="AC164" s="8"/>
     </row>
-    <row r="165" ht="12.75" customHeight="1">
+    <row r="165" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="8">
-        <v>164.0</v>
+        <v>164</v>
       </c>
       <c r="B165" s="16" t="s">
         <v>449</v>
@@ -9588,9 +9608,9 @@
       <c r="AB165" s="8"/>
       <c r="AC165" s="8"/>
     </row>
-    <row r="166" ht="12.75" customHeight="1">
+    <row r="166" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="8">
-        <v>165.0</v>
+        <v>165</v>
       </c>
       <c r="B166" s="16" t="s">
         <v>449</v>
@@ -9631,9 +9651,9 @@
       <c r="AB166" s="8"/>
       <c r="AC166" s="8"/>
     </row>
-    <row r="167" ht="12.75" customHeight="1">
+    <row r="167" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="8">
-        <v>166.0</v>
+        <v>166</v>
       </c>
       <c r="B167" s="16" t="s">
         <v>449</v>
@@ -9674,9 +9694,9 @@
       <c r="AB167" s="8"/>
       <c r="AC167" s="8"/>
     </row>
-    <row r="168" ht="12.75" customHeight="1">
+    <row r="168" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="8">
-        <v>167.0</v>
+        <v>167</v>
       </c>
       <c r="B168" s="16" t="s">
         <v>449</v>
@@ -9695,7 +9715,7 @@
         <v>19</v>
       </c>
       <c r="H168" s="19">
-        <v>198.0</v>
+        <v>198</v>
       </c>
       <c r="I168" s="18"/>
       <c r="J168" s="8"/>
@@ -9719,9 +9739,9 @@
       <c r="AB168" s="8"/>
       <c r="AC168" s="8"/>
     </row>
-    <row r="169" ht="12.75" customHeight="1">
+    <row r="169" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="8">
-        <v>168.0</v>
+        <v>168</v>
       </c>
       <c r="B169" s="16" t="s">
         <v>449</v>
@@ -9740,7 +9760,7 @@
         <v>19</v>
       </c>
       <c r="H169" s="19">
-        <v>202.0</v>
+        <v>202</v>
       </c>
       <c r="I169" s="18"/>
       <c r="J169" s="8"/>
@@ -9764,9 +9784,9 @@
       <c r="AB169" s="8"/>
       <c r="AC169" s="8"/>
     </row>
-    <row r="170" ht="12.75" customHeight="1">
+    <row r="170" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="8">
-        <v>169.0</v>
+        <v>169</v>
       </c>
       <c r="B170" s="16" t="s">
         <v>449</v>
@@ -9785,7 +9805,7 @@
         <v>470</v>
       </c>
       <c r="H170" s="19">
-        <v>2335.0</v>
+        <v>2335</v>
       </c>
       <c r="I170" s="18" t="s">
         <v>471</v>
@@ -9811,9 +9831,9 @@
       <c r="AB170" s="8"/>
       <c r="AC170" s="8"/>
     </row>
-    <row r="171" ht="12.75" customHeight="1">
+    <row r="171" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="8">
-        <v>170.0</v>
+        <v>170</v>
       </c>
       <c r="B171" s="16" t="s">
         <v>449</v>
@@ -9832,7 +9852,7 @@
         <v>19</v>
       </c>
       <c r="H171" s="19">
-        <v>2083.0</v>
+        <v>2083</v>
       </c>
       <c r="I171" s="18"/>
       <c r="J171" s="8"/>
@@ -9856,9 +9876,9 @@
       <c r="AB171" s="8"/>
       <c r="AC171" s="8"/>
     </row>
-    <row r="172" ht="12.75" customHeight="1">
+    <row r="172" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="8">
-        <v>171.0</v>
+        <v>171</v>
       </c>
       <c r="B172" s="16" t="s">
         <v>449</v>
@@ -9877,7 +9897,7 @@
         <v>19</v>
       </c>
       <c r="H172" s="19">
-        <v>2087.0</v>
+        <v>2087</v>
       </c>
       <c r="I172" s="18"/>
       <c r="J172" s="8"/>
@@ -9901,9 +9921,9 @@
       <c r="AB172" s="8"/>
       <c r="AC172" s="8"/>
     </row>
-    <row r="173" ht="12.75" customHeight="1">
+    <row r="173" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="8">
-        <v>172.0</v>
+        <v>172</v>
       </c>
       <c r="B173" s="16" t="s">
         <v>449</v>
@@ -9922,7 +9942,7 @@
         <v>19</v>
       </c>
       <c r="H173" s="19">
-        <v>2085.0</v>
+        <v>2085</v>
       </c>
       <c r="I173" s="18"/>
       <c r="J173" s="8"/>
@@ -9946,9 +9966,9 @@
       <c r="AB173" s="8"/>
       <c r="AC173" s="8"/>
     </row>
-    <row r="174" ht="12.75" customHeight="1">
+    <row r="174" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="8">
-        <v>173.0</v>
+        <v>173</v>
       </c>
       <c r="B174" s="16" t="s">
         <v>449</v>
@@ -9967,7 +9987,7 @@
         <v>19</v>
       </c>
       <c r="H174" s="19">
-        <v>2085.0</v>
+        <v>2085</v>
       </c>
       <c r="I174" s="18"/>
       <c r="J174" s="8"/>
@@ -9991,9 +10011,9 @@
       <c r="AB174" s="8"/>
       <c r="AC174" s="8"/>
     </row>
-    <row r="175" ht="12.75" customHeight="1">
+    <row r="175" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="8">
-        <v>174.0</v>
+        <v>174</v>
       </c>
       <c r="B175" s="16" t="s">
         <v>449</v>
@@ -10012,7 +10032,7 @@
         <v>19</v>
       </c>
       <c r="H175" s="19">
-        <v>2085.0</v>
+        <v>2085</v>
       </c>
       <c r="I175" s="18"/>
       <c r="J175" s="8"/>
@@ -10036,9 +10056,9 @@
       <c r="AB175" s="8"/>
       <c r="AC175" s="8"/>
     </row>
-    <row r="176" ht="12.75" customHeight="1">
+    <row r="176" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="8">
-        <v>175.0</v>
+        <v>175</v>
       </c>
       <c r="B176" s="16" t="s">
         <v>449</v>
@@ -10057,7 +10077,7 @@
         <v>19</v>
       </c>
       <c r="H176" s="19">
-        <v>2086.0</v>
+        <v>2086</v>
       </c>
       <c r="I176" s="18"/>
       <c r="J176" s="8"/>
@@ -10081,9 +10101,9 @@
       <c r="AB176" s="8"/>
       <c r="AC176" s="8"/>
     </row>
-    <row r="177" ht="12.75" customHeight="1">
+    <row r="177" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="8">
-        <v>176.0</v>
+        <v>176</v>
       </c>
       <c r="B177" s="16" t="s">
         <v>449</v>
@@ -10102,7 +10122,7 @@
         <v>19</v>
       </c>
       <c r="H177" s="19">
-        <v>2089.0</v>
+        <v>2089</v>
       </c>
       <c r="I177" s="18"/>
       <c r="J177" s="8"/>
@@ -10126,9 +10146,9 @@
       <c r="AB177" s="8"/>
       <c r="AC177" s="8"/>
     </row>
-    <row r="178" ht="12.75" customHeight="1">
+    <row r="178" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="8">
-        <v>177.0</v>
+        <v>177</v>
       </c>
       <c r="B178" s="16" t="s">
         <v>449</v>
@@ -10147,7 +10167,7 @@
         <v>19</v>
       </c>
       <c r="H178" s="19">
-        <v>2088.0</v>
+        <v>2088</v>
       </c>
       <c r="I178" s="18"/>
       <c r="J178" s="8"/>
@@ -10171,9 +10191,9 @@
       <c r="AB178" s="8"/>
       <c r="AC178" s="8"/>
     </row>
-    <row r="179" ht="12.75" customHeight="1">
+    <row r="179" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="8">
-        <v>178.0</v>
+        <v>178</v>
       </c>
       <c r="B179" s="16" t="s">
         <v>449</v>
@@ -10192,7 +10212,7 @@
         <v>19</v>
       </c>
       <c r="H179" s="19">
-        <v>2084.0</v>
+        <v>2084</v>
       </c>
       <c r="I179" s="18" t="s">
         <v>490</v>
@@ -10218,9 +10238,9 @@
       <c r="AB179" s="8"/>
       <c r="AC179" s="8"/>
     </row>
-    <row r="180" ht="12.75" customHeight="1">
+    <row r="180" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="8">
-        <v>179.0</v>
+        <v>179</v>
       </c>
       <c r="B180" s="16" t="s">
         <v>449</v>
@@ -10241,7 +10261,7 @@
         <v>494</v>
       </c>
       <c r="H180" s="19">
-        <v>4328.0</v>
+        <v>4328</v>
       </c>
       <c r="I180" s="18"/>
       <c r="J180" s="8"/>
@@ -10265,9 +10285,9 @@
       <c r="AB180" s="8"/>
       <c r="AC180" s="8"/>
     </row>
-    <row r="181" ht="12.75" customHeight="1">
+    <row r="181" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="8">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="B181" s="16" t="s">
         <v>449</v>
@@ -10284,7 +10304,7 @@
       </c>
       <c r="G181" s="18"/>
       <c r="H181" s="19">
-        <v>690.0</v>
+        <v>690</v>
       </c>
       <c r="I181" s="18" t="s">
         <v>497</v>
@@ -10310,9 +10330,9 @@
       <c r="AB181" s="8"/>
       <c r="AC181" s="8"/>
     </row>
-    <row r="182" ht="12.75" customHeight="1">
+    <row r="182" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="8">
-        <v>181.0</v>
+        <v>181</v>
       </c>
       <c r="B182" s="16" t="s">
         <v>449</v>
@@ -10331,7 +10351,7 @@
         <v>19</v>
       </c>
       <c r="H182" s="19">
-        <v>461.0</v>
+        <v>461</v>
       </c>
       <c r="I182" s="18" t="s">
         <v>500</v>
@@ -10357,9 +10377,9 @@
       <c r="AB182" s="8"/>
       <c r="AC182" s="8"/>
     </row>
-    <row r="183" ht="12.75" customHeight="1">
+    <row r="183" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="8">
-        <v>182.0</v>
+        <v>182</v>
       </c>
       <c r="B183" s="16" t="s">
         <v>449</v>
@@ -10376,7 +10396,7 @@
       </c>
       <c r="G183" s="18"/>
       <c r="H183" s="19">
-        <v>3964.0</v>
+        <v>3964</v>
       </c>
       <c r="I183" s="18"/>
       <c r="J183" s="8"/>
@@ -10400,9 +10420,9 @@
       <c r="AB183" s="8"/>
       <c r="AC183" s="8"/>
     </row>
-    <row r="184" ht="12.75" customHeight="1">
+    <row r="184" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="8">
-        <v>183.0</v>
+        <v>183</v>
       </c>
       <c r="B184" s="16" t="s">
         <v>449</v>
@@ -10421,7 +10441,7 @@
         <v>19</v>
       </c>
       <c r="H184" s="19">
-        <v>707.0</v>
+        <v>707</v>
       </c>
       <c r="I184" s="18" t="s">
         <v>505</v>
@@ -10447,9 +10467,9 @@
       <c r="AB184" s="8"/>
       <c r="AC184" s="8"/>
     </row>
-    <row r="185" ht="12.75" customHeight="1">
+    <row r="185" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="8">
-        <v>184.0</v>
+        <v>184</v>
       </c>
       <c r="B185" s="16" t="s">
         <v>449</v>
@@ -10466,7 +10486,7 @@
       </c>
       <c r="G185" s="18"/>
       <c r="H185" s="19">
-        <v>4327.0</v>
+        <v>4327</v>
       </c>
       <c r="I185" s="18"/>
       <c r="J185" s="8"/>
@@ -10490,9 +10510,9 @@
       <c r="AB185" s="8"/>
       <c r="AC185" s="8"/>
     </row>
-    <row r="186" ht="12.75" customHeight="1">
+    <row r="186" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="8">
-        <v>185.0</v>
+        <v>185</v>
       </c>
       <c r="B186" s="16" t="s">
         <v>449</v>
@@ -10509,7 +10529,7 @@
       </c>
       <c r="G186" s="18"/>
       <c r="H186" s="19">
-        <v>4399.0</v>
+        <v>4399</v>
       </c>
       <c r="I186" s="18"/>
       <c r="J186" s="8"/>
@@ -10533,9 +10553,9 @@
       <c r="AB186" s="8"/>
       <c r="AC186" s="8"/>
     </row>
-    <row r="187" ht="12.75" customHeight="1">
+    <row r="187" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="8">
-        <v>186.0</v>
+        <v>186</v>
       </c>
       <c r="B187" s="16" t="s">
         <v>449</v>
@@ -10554,7 +10574,7 @@
         <v>512</v>
       </c>
       <c r="H187" s="19">
-        <v>270.0</v>
+        <v>270</v>
       </c>
       <c r="I187" s="18" t="s">
         <v>505</v>
@@ -10580,9 +10600,9 @@
       <c r="AB187" s="8"/>
       <c r="AC187" s="8"/>
     </row>
-    <row r="188" ht="12.75" customHeight="1">
+    <row r="188" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="8">
-        <v>187.0</v>
+        <v>187</v>
       </c>
       <c r="B188" s="16" t="s">
         <v>449</v>
@@ -10599,7 +10619,7 @@
       </c>
       <c r="G188" s="18"/>
       <c r="H188" s="19">
-        <v>459.0</v>
+        <v>459</v>
       </c>
       <c r="I188" s="18"/>
       <c r="J188" s="8"/>
@@ -10623,9 +10643,9 @@
       <c r="AB188" s="8"/>
       <c r="AC188" s="8"/>
     </row>
-    <row r="189" ht="12.75" customHeight="1">
+    <row r="189" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="8">
-        <v>188.0</v>
+        <v>188</v>
       </c>
       <c r="B189" s="16" t="s">
         <v>449</v>
@@ -10644,7 +10664,7 @@
         <v>19</v>
       </c>
       <c r="H189" s="19">
-        <v>3394.0</v>
+        <v>3394</v>
       </c>
       <c r="I189" s="18"/>
       <c r="J189" s="8"/>
@@ -10668,9 +10688,9 @@
       <c r="AB189" s="8"/>
       <c r="AC189" s="8"/>
     </row>
-    <row r="190" ht="12.75" customHeight="1">
+    <row r="190" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="8">
-        <v>189.0</v>
+        <v>189</v>
       </c>
       <c r="B190" s="16" t="s">
         <v>449</v>
@@ -10687,7 +10707,7 @@
       </c>
       <c r="G190" s="18"/>
       <c r="H190" s="19">
-        <v>2330.0</v>
+        <v>2330</v>
       </c>
       <c r="I190" s="18"/>
       <c r="J190" s="8"/>
@@ -10711,9 +10731,9 @@
       <c r="AB190" s="8"/>
       <c r="AC190" s="8"/>
     </row>
-    <row r="191" ht="12.75" customHeight="1">
+    <row r="191" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="8">
-        <v>190.0</v>
+        <v>190</v>
       </c>
       <c r="B191" s="16" t="s">
         <v>449</v>
@@ -10732,7 +10752,7 @@
         <v>19</v>
       </c>
       <c r="H191" s="19">
-        <v>4695.0</v>
+        <v>4695</v>
       </c>
       <c r="I191" s="18"/>
       <c r="J191" s="8"/>
@@ -10756,9 +10776,9 @@
       <c r="AB191" s="8"/>
       <c r="AC191" s="8"/>
     </row>
-    <row r="192" ht="12.75" customHeight="1">
+    <row r="192" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="8">
-        <v>191.0</v>
+        <v>191</v>
       </c>
       <c r="B192" s="16" t="s">
         <v>449</v>
@@ -10777,7 +10797,7 @@
         <v>19</v>
       </c>
       <c r="H192" s="19">
-        <v>3394.0</v>
+        <v>3394</v>
       </c>
       <c r="I192" s="18" t="s">
         <v>523</v>
@@ -10803,7 +10823,7 @@
       <c r="AB192" s="8"/>
       <c r="AC192" s="8"/>
     </row>
-    <row r="193" ht="12.75" customHeight="1">
+    <row r="193" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="22" t="s">
         <v>524</v>
       </c>
@@ -10824,7 +10844,7 @@
       </c>
       <c r="G193" s="23"/>
       <c r="H193" s="23">
-        <v>682.0</v>
+        <v>682</v>
       </c>
       <c r="I193" s="23" t="s">
         <v>528</v>
@@ -10850,7 +10870,7 @@
       <c r="AB193" s="24"/>
       <c r="AC193" s="24"/>
     </row>
-    <row r="194" ht="12.75" customHeight="1">
+    <row r="194" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="22" t="s">
         <v>529</v>
       </c>
@@ -10871,7 +10891,7 @@
       </c>
       <c r="G194" s="23"/>
       <c r="H194" s="23">
-        <v>3894.0</v>
+        <v>3894</v>
       </c>
       <c r="I194" s="23" t="s">
         <v>528</v>
@@ -10897,7 +10917,7 @@
       <c r="AB194" s="24"/>
       <c r="AC194" s="24"/>
     </row>
-    <row r="195" ht="12.75" customHeight="1">
+    <row r="195" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="22" t="s">
         <v>533</v>
       </c>
@@ -10916,7 +10936,7 @@
       </c>
       <c r="G195" s="23"/>
       <c r="H195" s="23">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I195" s="23"/>
       <c r="J195" s="23"/>
@@ -10940,7 +10960,7 @@
       <c r="AB195" s="24"/>
       <c r="AC195" s="24"/>
     </row>
-    <row r="196" ht="12.75" customHeight="1">
+    <row r="196" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="22" t="s">
         <v>536</v>
       </c>
@@ -10959,7 +10979,7 @@
       </c>
       <c r="G196" s="23"/>
       <c r="H196" s="23">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I196" s="23"/>
       <c r="J196" s="23"/>
@@ -10983,7 +11003,7 @@
       <c r="AB196" s="24"/>
       <c r="AC196" s="24"/>
     </row>
-    <row r="197" ht="12.75" customHeight="1">
+    <row r="197" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="22" t="s">
         <v>539</v>
       </c>
@@ -11002,7 +11022,7 @@
       </c>
       <c r="G197" s="23"/>
       <c r="H197" s="23">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I197" s="23"/>
       <c r="J197" s="23"/>
@@ -11026,7 +11046,7 @@
       <c r="AB197" s="24"/>
       <c r="AC197" s="24"/>
     </row>
-    <row r="198" ht="12.75" customHeight="1">
+    <row r="198" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="25" t="s">
         <v>542</v>
       </c>
@@ -11047,7 +11067,7 @@
       </c>
       <c r="G198" s="23"/>
       <c r="H198" s="27">
-        <v>398.0</v>
+        <v>398</v>
       </c>
       <c r="I198" s="23" t="s">
         <v>546</v>
@@ -11073,7 +11093,7 @@
       <c r="AB198" s="23"/>
       <c r="AC198" s="23"/>
     </row>
-    <row r="199" ht="12.75" customHeight="1">
+    <row r="199" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="8"/>
       <c r="B199" s="8"/>
       <c r="C199" s="8"/>
@@ -11104,7 +11124,7 @@
       <c r="AB199" s="8"/>
       <c r="AC199" s="8"/>
     </row>
-    <row r="200" ht="12.75" customHeight="1">
+    <row r="200" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="8"/>
       <c r="B200" s="8"/>
       <c r="C200" s="8"/>
@@ -11135,7 +11155,7 @@
       <c r="AB200" s="8"/>
       <c r="AC200" s="8"/>
     </row>
-    <row r="201" ht="12.75" customHeight="1">
+    <row r="201" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="8"/>
       <c r="B201" s="8"/>
       <c r="C201" s="8"/>
@@ -11166,7 +11186,7 @@
       <c r="AB201" s="8"/>
       <c r="AC201" s="8"/>
     </row>
-    <row r="202" ht="12.75" customHeight="1">
+    <row r="202" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="8"/>
       <c r="B202" s="8"/>
       <c r="C202" s="8"/>
@@ -11197,7 +11217,7 @@
       <c r="AB202" s="8"/>
       <c r="AC202" s="8"/>
     </row>
-    <row r="203" ht="12.75" customHeight="1">
+    <row r="203" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="8"/>
       <c r="B203" s="8"/>
       <c r="C203" s="8"/>
@@ -11228,7 +11248,7 @@
       <c r="AB203" s="8"/>
       <c r="AC203" s="8"/>
     </row>
-    <row r="204" ht="12.75" customHeight="1">
+    <row r="204" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="8"/>
       <c r="B204" s="8"/>
       <c r="C204" s="8"/>
@@ -11259,7 +11279,7 @@
       <c r="AB204" s="8"/>
       <c r="AC204" s="8"/>
     </row>
-    <row r="205" ht="12.75" customHeight="1">
+    <row r="205" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="8"/>
       <c r="B205" s="8"/>
       <c r="C205" s="8"/>
@@ -11290,7 +11310,7 @@
       <c r="AB205" s="8"/>
       <c r="AC205" s="8"/>
     </row>
-    <row r="206" ht="12.75" customHeight="1">
+    <row r="206" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="8"/>
       <c r="B206" s="8"/>
       <c r="C206" s="8"/>
@@ -11321,7 +11341,7 @@
       <c r="AB206" s="8"/>
       <c r="AC206" s="8"/>
     </row>
-    <row r="207" ht="12.75" customHeight="1">
+    <row r="207" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="8"/>
       <c r="B207" s="8"/>
       <c r="C207" s="8"/>
@@ -11352,7 +11372,7 @@
       <c r="AB207" s="8"/>
       <c r="AC207" s="8"/>
     </row>
-    <row r="208" ht="12.75" customHeight="1">
+    <row r="208" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="8"/>
       <c r="B208" s="8"/>
       <c r="C208" s="8"/>
@@ -11383,7 +11403,7 @@
       <c r="AB208" s="8"/>
       <c r="AC208" s="8"/>
     </row>
-    <row r="209" ht="12.75" customHeight="1">
+    <row r="209" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="8"/>
       <c r="B209" s="8"/>
       <c r="C209" s="8"/>
@@ -11414,7 +11434,7 @@
       <c r="AB209" s="8"/>
       <c r="AC209" s="8"/>
     </row>
-    <row r="210" ht="12.75" customHeight="1">
+    <row r="210" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="8"/>
       <c r="B210" s="8"/>
       <c r="C210" s="8"/>
@@ -11445,7 +11465,7 @@
       <c r="AB210" s="8"/>
       <c r="AC210" s="8"/>
     </row>
-    <row r="211" ht="12.75" customHeight="1">
+    <row r="211" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="8"/>
       <c r="B211" s="8"/>
       <c r="C211" s="8"/>
@@ -11476,7 +11496,7 @@
       <c r="AB211" s="8"/>
       <c r="AC211" s="8"/>
     </row>
-    <row r="212" ht="12.75" customHeight="1">
+    <row r="212" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="8"/>
       <c r="B212" s="8"/>
       <c r="C212" s="8"/>
@@ -11507,7 +11527,7 @@
       <c r="AB212" s="8"/>
       <c r="AC212" s="8"/>
     </row>
-    <row r="213" ht="12.75" customHeight="1">
+    <row r="213" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="8"/>
       <c r="B213" s="8"/>
       <c r="C213" s="8"/>
@@ -11538,7 +11558,7 @@
       <c r="AB213" s="8"/>
       <c r="AC213" s="8"/>
     </row>
-    <row r="214" ht="12.75" customHeight="1">
+    <row r="214" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="8"/>
       <c r="B214" s="8"/>
       <c r="C214" s="8"/>
@@ -11569,7 +11589,7 @@
       <c r="AB214" s="8"/>
       <c r="AC214" s="8"/>
     </row>
-    <row r="215" ht="12.75" customHeight="1">
+    <row r="215" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="8"/>
       <c r="B215" s="8"/>
       <c r="C215" s="8"/>
@@ -11600,7 +11620,7 @@
       <c r="AB215" s="8"/>
       <c r="AC215" s="8"/>
     </row>
-    <row r="216" ht="12.75" customHeight="1">
+    <row r="216" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="8"/>
       <c r="B216" s="8"/>
       <c r="C216" s="8"/>
@@ -11631,7 +11651,7 @@
       <c r="AB216" s="8"/>
       <c r="AC216" s="8"/>
     </row>
-    <row r="217" ht="12.75" customHeight="1">
+    <row r="217" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="8"/>
       <c r="B217" s="8"/>
       <c r="C217" s="8"/>
@@ -11662,7 +11682,7 @@
       <c r="AB217" s="8"/>
       <c r="AC217" s="8"/>
     </row>
-    <row r="218" ht="12.75" customHeight="1">
+    <row r="218" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="8"/>
       <c r="B218" s="8"/>
       <c r="C218" s="8"/>
@@ -11693,7 +11713,7 @@
       <c r="AB218" s="8"/>
       <c r="AC218" s="8"/>
     </row>
-    <row r="219" ht="12.75" customHeight="1">
+    <row r="219" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="8"/>
       <c r="B219" s="8"/>
       <c r="C219" s="8"/>
@@ -11724,7 +11744,7 @@
       <c r="AB219" s="8"/>
       <c r="AC219" s="8"/>
     </row>
-    <row r="220" ht="12.75" customHeight="1">
+    <row r="220" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="8"/>
       <c r="B220" s="8"/>
       <c r="C220" s="8"/>
@@ -11755,7 +11775,7 @@
       <c r="AB220" s="8"/>
       <c r="AC220" s="8"/>
     </row>
-    <row r="221" ht="12.75" customHeight="1">
+    <row r="221" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="8"/>
       <c r="B221" s="8"/>
       <c r="C221" s="8"/>
@@ -11786,7 +11806,7 @@
       <c r="AB221" s="8"/>
       <c r="AC221" s="8"/>
     </row>
-    <row r="222" ht="12.75" customHeight="1">
+    <row r="222" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="8"/>
       <c r="B222" s="8"/>
       <c r="C222" s="8"/>
@@ -11817,7 +11837,7 @@
       <c r="AB222" s="8"/>
       <c r="AC222" s="8"/>
     </row>
-    <row r="223" ht="12.75" customHeight="1">
+    <row r="223" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="8"/>
       <c r="B223" s="8"/>
       <c r="C223" s="8"/>
@@ -11848,7 +11868,7 @@
       <c r="AB223" s="8"/>
       <c r="AC223" s="8"/>
     </row>
-    <row r="224" ht="12.75" customHeight="1">
+    <row r="224" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="8"/>
       <c r="B224" s="8"/>
       <c r="C224" s="8"/>
@@ -11879,7 +11899,7 @@
       <c r="AB224" s="8"/>
       <c r="AC224" s="8"/>
     </row>
-    <row r="225" ht="12.75" customHeight="1">
+    <row r="225" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="8"/>
       <c r="B225" s="8"/>
       <c r="C225" s="8"/>
@@ -11910,7 +11930,7 @@
       <c r="AB225" s="8"/>
       <c r="AC225" s="8"/>
     </row>
-    <row r="226" ht="12.75" customHeight="1">
+    <row r="226" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="8"/>
       <c r="B226" s="8"/>
       <c r="C226" s="8"/>
@@ -11941,7 +11961,7 @@
       <c r="AB226" s="8"/>
       <c r="AC226" s="8"/>
     </row>
-    <row r="227" ht="12.75" customHeight="1">
+    <row r="227" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="8"/>
       <c r="B227" s="8"/>
       <c r="C227" s="8"/>
@@ -11972,7 +11992,7 @@
       <c r="AB227" s="8"/>
       <c r="AC227" s="8"/>
     </row>
-    <row r="228" ht="12.75" customHeight="1">
+    <row r="228" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="8"/>
       <c r="B228" s="8"/>
       <c r="C228" s="8"/>
@@ -12003,7 +12023,7 @@
       <c r="AB228" s="8"/>
       <c r="AC228" s="8"/>
     </row>
-    <row r="229" ht="12.75" customHeight="1">
+    <row r="229" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="8"/>
       <c r="B229" s="8"/>
       <c r="C229" s="8"/>
@@ -12034,7 +12054,7 @@
       <c r="AB229" s="8"/>
       <c r="AC229" s="8"/>
     </row>
-    <row r="230" ht="12.75" customHeight="1">
+    <row r="230" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="8"/>
       <c r="B230" s="8"/>
       <c r="C230" s="8"/>
@@ -12065,7 +12085,7 @@
       <c r="AB230" s="8"/>
       <c r="AC230" s="8"/>
     </row>
-    <row r="231" ht="12.75" customHeight="1">
+    <row r="231" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="8"/>
       <c r="B231" s="8"/>
       <c r="C231" s="8"/>
@@ -12096,7 +12116,7 @@
       <c r="AB231" s="8"/>
       <c r="AC231" s="8"/>
     </row>
-    <row r="232" ht="12.75" customHeight="1">
+    <row r="232" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="8"/>
       <c r="B232" s="8"/>
       <c r="C232" s="8"/>
@@ -12127,7 +12147,7 @@
       <c r="AB232" s="8"/>
       <c r="AC232" s="8"/>
     </row>
-    <row r="233" ht="12.75" customHeight="1">
+    <row r="233" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="8"/>
       <c r="B233" s="8"/>
       <c r="C233" s="8"/>
@@ -12158,7 +12178,7 @@
       <c r="AB233" s="8"/>
       <c r="AC233" s="8"/>
     </row>
-    <row r="234" ht="12.75" customHeight="1">
+    <row r="234" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="8"/>
       <c r="B234" s="8"/>
       <c r="C234" s="8"/>
@@ -12189,7 +12209,7 @@
       <c r="AB234" s="8"/>
       <c r="AC234" s="8"/>
     </row>
-    <row r="235" ht="12.75" customHeight="1">
+    <row r="235" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="8"/>
       <c r="B235" s="8"/>
       <c r="C235" s="8"/>
@@ -12220,7 +12240,7 @@
       <c r="AB235" s="8"/>
       <c r="AC235" s="8"/>
     </row>
-    <row r="236" ht="12.75" customHeight="1">
+    <row r="236" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="8"/>
       <c r="B236" s="8"/>
       <c r="C236" s="8"/>
@@ -12251,7 +12271,7 @@
       <c r="AB236" s="8"/>
       <c r="AC236" s="8"/>
     </row>
-    <row r="237" ht="12.75" customHeight="1">
+    <row r="237" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="8"/>
       <c r="B237" s="8"/>
       <c r="C237" s="8"/>
@@ -12282,7 +12302,7 @@
       <c r="AB237" s="8"/>
       <c r="AC237" s="8"/>
     </row>
-    <row r="238" ht="12.75" customHeight="1">
+    <row r="238" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="8"/>
       <c r="B238" s="8"/>
       <c r="C238" s="8"/>
@@ -12313,7 +12333,7 @@
       <c r="AB238" s="8"/>
       <c r="AC238" s="8"/>
     </row>
-    <row r="239" ht="12.75" customHeight="1">
+    <row r="239" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="8"/>
       <c r="B239" s="8"/>
       <c r="C239" s="8"/>
@@ -12344,7 +12364,7 @@
       <c r="AB239" s="8"/>
       <c r="AC239" s="8"/>
     </row>
-    <row r="240" ht="12.75" customHeight="1">
+    <row r="240" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="8"/>
       <c r="B240" s="8"/>
       <c r="C240" s="8"/>
@@ -12375,7 +12395,7 @@
       <c r="AB240" s="8"/>
       <c r="AC240" s="8"/>
     </row>
-    <row r="241" ht="12.75" customHeight="1">
+    <row r="241" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="8"/>
       <c r="B241" s="8"/>
       <c r="C241" s="8"/>
@@ -12406,7 +12426,7 @@
       <c r="AB241" s="8"/>
       <c r="AC241" s="8"/>
     </row>
-    <row r="242" ht="12.75" customHeight="1">
+    <row r="242" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="8"/>
       <c r="B242" s="8"/>
       <c r="C242" s="8"/>
@@ -12437,7 +12457,7 @@
       <c r="AB242" s="8"/>
       <c r="AC242" s="8"/>
     </row>
-    <row r="243" ht="12.75" customHeight="1">
+    <row r="243" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="8"/>
       <c r="B243" s="8"/>
       <c r="C243" s="8"/>
@@ -12468,7 +12488,7 @@
       <c r="AB243" s="8"/>
       <c r="AC243" s="8"/>
     </row>
-    <row r="244" ht="12.75" customHeight="1">
+    <row r="244" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="8"/>
       <c r="B244" s="8"/>
       <c r="C244" s="8"/>
@@ -12499,7 +12519,7 @@
       <c r="AB244" s="8"/>
       <c r="AC244" s="8"/>
     </row>
-    <row r="245" ht="12.75" customHeight="1">
+    <row r="245" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="8"/>
       <c r="B245" s="8"/>
       <c r="C245" s="8"/>
@@ -12530,7 +12550,7 @@
       <c r="AB245" s="8"/>
       <c r="AC245" s="8"/>
     </row>
-    <row r="246" ht="12.75" customHeight="1">
+    <row r="246" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="8"/>
       <c r="B246" s="8"/>
       <c r="C246" s="8"/>
@@ -12561,7 +12581,7 @@
       <c r="AB246" s="8"/>
       <c r="AC246" s="8"/>
     </row>
-    <row r="247" ht="12.75" customHeight="1">
+    <row r="247" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="8"/>
       <c r="B247" s="8"/>
       <c r="C247" s="8"/>
@@ -12592,7 +12612,7 @@
       <c r="AB247" s="8"/>
       <c r="AC247" s="8"/>
     </row>
-    <row r="248" ht="12.75" customHeight="1">
+    <row r="248" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="8"/>
       <c r="B248" s="8"/>
       <c r="C248" s="8"/>
@@ -12623,7 +12643,7 @@
       <c r="AB248" s="8"/>
       <c r="AC248" s="8"/>
     </row>
-    <row r="249" ht="12.75" customHeight="1">
+    <row r="249" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="8"/>
       <c r="B249" s="8"/>
       <c r="C249" s="8"/>
@@ -12654,7 +12674,7 @@
       <c r="AB249" s="8"/>
       <c r="AC249" s="8"/>
     </row>
-    <row r="250" ht="12.75" customHeight="1">
+    <row r="250" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="8"/>
       <c r="B250" s="8"/>
       <c r="C250" s="8"/>
@@ -12685,7 +12705,7 @@
       <c r="AB250" s="8"/>
       <c r="AC250" s="8"/>
     </row>
-    <row r="251" ht="12.75" customHeight="1">
+    <row r="251" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="8"/>
       <c r="B251" s="8"/>
       <c r="C251" s="8"/>
@@ -12716,7 +12736,7 @@
       <c r="AB251" s="8"/>
       <c r="AC251" s="8"/>
     </row>
-    <row r="252" ht="12.75" customHeight="1">
+    <row r="252" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="8"/>
       <c r="B252" s="8"/>
       <c r="C252" s="8"/>
@@ -12747,7 +12767,7 @@
       <c r="AB252" s="8"/>
       <c r="AC252" s="8"/>
     </row>
-    <row r="253" ht="12.75" customHeight="1">
+    <row r="253" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="8"/>
       <c r="B253" s="8"/>
       <c r="C253" s="8"/>
@@ -12778,7 +12798,7 @@
       <c r="AB253" s="8"/>
       <c r="AC253" s="8"/>
     </row>
-    <row r="254" ht="12.75" customHeight="1">
+    <row r="254" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="8"/>
       <c r="B254" s="8"/>
       <c r="C254" s="8"/>
@@ -12809,7 +12829,7 @@
       <c r="AB254" s="8"/>
       <c r="AC254" s="8"/>
     </row>
-    <row r="255" ht="12.75" customHeight="1">
+    <row r="255" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="8"/>
       <c r="B255" s="8"/>
       <c r="C255" s="8"/>
@@ -12840,7 +12860,7 @@
       <c r="AB255" s="8"/>
       <c r="AC255" s="8"/>
     </row>
-    <row r="256" ht="12.75" customHeight="1">
+    <row r="256" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="8"/>
       <c r="B256" s="8"/>
       <c r="C256" s="8"/>
@@ -12871,7 +12891,7 @@
       <c r="AB256" s="8"/>
       <c r="AC256" s="8"/>
     </row>
-    <row r="257" ht="12.75" customHeight="1">
+    <row r="257" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="8"/>
       <c r="B257" s="8"/>
       <c r="C257" s="8"/>
@@ -12902,7 +12922,7 @@
       <c r="AB257" s="8"/>
       <c r="AC257" s="8"/>
     </row>
-    <row r="258" ht="12.75" customHeight="1">
+    <row r="258" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="8"/>
       <c r="B258" s="8"/>
       <c r="C258" s="8"/>
@@ -12933,7 +12953,7 @@
       <c r="AB258" s="8"/>
       <c r="AC258" s="8"/>
     </row>
-    <row r="259" ht="12.75" customHeight="1">
+    <row r="259" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="8"/>
       <c r="B259" s="8"/>
       <c r="C259" s="8"/>
@@ -12964,7 +12984,7 @@
       <c r="AB259" s="8"/>
       <c r="AC259" s="8"/>
     </row>
-    <row r="260" ht="12.75" customHeight="1">
+    <row r="260" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="8"/>
       <c r="B260" s="8"/>
       <c r="C260" s="8"/>
@@ -12995,7 +13015,7 @@
       <c r="AB260" s="8"/>
       <c r="AC260" s="8"/>
     </row>
-    <row r="261" ht="12.75" customHeight="1">
+    <row r="261" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="8"/>
       <c r="B261" s="8"/>
       <c r="C261" s="8"/>
@@ -13026,7 +13046,7 @@
       <c r="AB261" s="8"/>
       <c r="AC261" s="8"/>
     </row>
-    <row r="262" ht="12.75" customHeight="1">
+    <row r="262" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="8"/>
       <c r="B262" s="8"/>
       <c r="C262" s="8"/>
@@ -13057,7 +13077,7 @@
       <c r="AB262" s="8"/>
       <c r="AC262" s="8"/>
     </row>
-    <row r="263" ht="12.75" customHeight="1">
+    <row r="263" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="8"/>
       <c r="B263" s="8"/>
       <c r="C263" s="8"/>
@@ -13088,7 +13108,7 @@
       <c r="AB263" s="8"/>
       <c r="AC263" s="8"/>
     </row>
-    <row r="264" ht="12.75" customHeight="1">
+    <row r="264" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="8"/>
       <c r="B264" s="8"/>
       <c r="C264" s="8"/>
@@ -13119,7 +13139,7 @@
       <c r="AB264" s="8"/>
       <c r="AC264" s="8"/>
     </row>
-    <row r="265" ht="12.75" customHeight="1">
+    <row r="265" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="8"/>
       <c r="B265" s="8"/>
       <c r="C265" s="8"/>
@@ -13150,7 +13170,7 @@
       <c r="AB265" s="8"/>
       <c r="AC265" s="8"/>
     </row>
-    <row r="266" ht="12.75" customHeight="1">
+    <row r="266" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="8"/>
       <c r="B266" s="8"/>
       <c r="C266" s="8"/>
@@ -13181,7 +13201,7 @@
       <c r="AB266" s="8"/>
       <c r="AC266" s="8"/>
     </row>
-    <row r="267" ht="12.75" customHeight="1">
+    <row r="267" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="8"/>
       <c r="B267" s="8"/>
       <c r="C267" s="8"/>
@@ -13212,7 +13232,7 @@
       <c r="AB267" s="8"/>
       <c r="AC267" s="8"/>
     </row>
-    <row r="268" ht="12.75" customHeight="1">
+    <row r="268" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="8"/>
       <c r="B268" s="8"/>
       <c r="C268" s="8"/>
@@ -13243,7 +13263,7 @@
       <c r="AB268" s="8"/>
       <c r="AC268" s="8"/>
     </row>
-    <row r="269" ht="12.75" customHeight="1">
+    <row r="269" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="8"/>
       <c r="B269" s="8"/>
       <c r="C269" s="8"/>
@@ -13274,7 +13294,7 @@
       <c r="AB269" s="8"/>
       <c r="AC269" s="8"/>
     </row>
-    <row r="270" ht="12.75" customHeight="1">
+    <row r="270" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="8"/>
       <c r="B270" s="8"/>
       <c r="C270" s="8"/>
@@ -13305,7 +13325,7 @@
       <c r="AB270" s="8"/>
       <c r="AC270" s="8"/>
     </row>
-    <row r="271" ht="12.75" customHeight="1">
+    <row r="271" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="8"/>
       <c r="B271" s="8"/>
       <c r="C271" s="8"/>
@@ -13336,7 +13356,7 @@
       <c r="AB271" s="8"/>
       <c r="AC271" s="8"/>
     </row>
-    <row r="272" ht="12.75" customHeight="1">
+    <row r="272" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="8"/>
       <c r="B272" s="8"/>
       <c r="C272" s="8"/>
@@ -13367,7 +13387,7 @@
       <c r="AB272" s="8"/>
       <c r="AC272" s="8"/>
     </row>
-    <row r="273" ht="12.75" customHeight="1">
+    <row r="273" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="8"/>
       <c r="B273" s="8"/>
       <c r="C273" s="8"/>
@@ -13398,7 +13418,7 @@
       <c r="AB273" s="8"/>
       <c r="AC273" s="8"/>
     </row>
-    <row r="274" ht="12.75" customHeight="1">
+    <row r="274" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="8"/>
       <c r="B274" s="8"/>
       <c r="C274" s="8"/>
@@ -13429,7 +13449,7 @@
       <c r="AB274" s="8"/>
       <c r="AC274" s="8"/>
     </row>
-    <row r="275" ht="12.75" customHeight="1">
+    <row r="275" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="8"/>
       <c r="B275" s="8"/>
       <c r="C275" s="8"/>
@@ -13460,7 +13480,7 @@
       <c r="AB275" s="8"/>
       <c r="AC275" s="8"/>
     </row>
-    <row r="276" ht="12.75" customHeight="1">
+    <row r="276" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="8"/>
       <c r="B276" s="8"/>
       <c r="C276" s="8"/>
@@ -13491,7 +13511,7 @@
       <c r="AB276" s="8"/>
       <c r="AC276" s="8"/>
     </row>
-    <row r="277" ht="12.75" customHeight="1">
+    <row r="277" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="8"/>
       <c r="B277" s="8"/>
       <c r="C277" s="8"/>
@@ -13522,7 +13542,7 @@
       <c r="AB277" s="8"/>
       <c r="AC277" s="8"/>
     </row>
-    <row r="278" ht="12.75" customHeight="1">
+    <row r="278" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="8"/>
       <c r="B278" s="8"/>
       <c r="C278" s="8"/>
@@ -13553,7 +13573,7 @@
       <c r="AB278" s="8"/>
       <c r="AC278" s="8"/>
     </row>
-    <row r="279" ht="12.75" customHeight="1">
+    <row r="279" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="8"/>
       <c r="B279" s="8"/>
       <c r="C279" s="8"/>
@@ -13584,7 +13604,7 @@
       <c r="AB279" s="8"/>
       <c r="AC279" s="8"/>
     </row>
-    <row r="280" ht="12.75" customHeight="1">
+    <row r="280" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="8"/>
       <c r="B280" s="8"/>
       <c r="C280" s="8"/>
@@ -13615,7 +13635,7 @@
       <c r="AB280" s="8"/>
       <c r="AC280" s="8"/>
     </row>
-    <row r="281" ht="12.75" customHeight="1">
+    <row r="281" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="8"/>
       <c r="B281" s="8"/>
       <c r="C281" s="8"/>
@@ -13646,7 +13666,7 @@
       <c r="AB281" s="8"/>
       <c r="AC281" s="8"/>
     </row>
-    <row r="282" ht="12.75" customHeight="1">
+    <row r="282" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="8"/>
       <c r="B282" s="8"/>
       <c r="C282" s="8"/>
@@ -13677,7 +13697,7 @@
       <c r="AB282" s="8"/>
       <c r="AC282" s="8"/>
     </row>
-    <row r="283" ht="12.75" customHeight="1">
+    <row r="283" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="8"/>
       <c r="B283" s="8"/>
       <c r="C283" s="8"/>
@@ -13708,7 +13728,7 @@
       <c r="AB283" s="8"/>
       <c r="AC283" s="8"/>
     </row>
-    <row r="284" ht="12.75" customHeight="1">
+    <row r="284" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="8"/>
       <c r="B284" s="8"/>
       <c r="C284" s="8"/>
@@ -13739,7 +13759,7 @@
       <c r="AB284" s="8"/>
       <c r="AC284" s="8"/>
     </row>
-    <row r="285" ht="12.75" customHeight="1">
+    <row r="285" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="8"/>
       <c r="B285" s="8"/>
       <c r="C285" s="8"/>
@@ -13770,7 +13790,7 @@
       <c r="AB285" s="8"/>
       <c r="AC285" s="8"/>
     </row>
-    <row r="286" ht="12.75" customHeight="1">
+    <row r="286" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="8"/>
       <c r="B286" s="8"/>
       <c r="C286" s="8"/>
@@ -13801,7 +13821,7 @@
       <c r="AB286" s="8"/>
       <c r="AC286" s="8"/>
     </row>
-    <row r="287" ht="12.75" customHeight="1">
+    <row r="287" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="8"/>
       <c r="B287" s="8"/>
       <c r="C287" s="8"/>
@@ -13832,7 +13852,7 @@
       <c r="AB287" s="8"/>
       <c r="AC287" s="8"/>
     </row>
-    <row r="288" ht="12.75" customHeight="1">
+    <row r="288" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="8"/>
       <c r="B288" s="8"/>
       <c r="C288" s="8"/>
@@ -13863,7 +13883,7 @@
       <c r="AB288" s="8"/>
       <c r="AC288" s="8"/>
     </row>
-    <row r="289" ht="12.75" customHeight="1">
+    <row r="289" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="8"/>
       <c r="B289" s="8"/>
       <c r="C289" s="8"/>
@@ -13894,7 +13914,7 @@
       <c r="AB289" s="8"/>
       <c r="AC289" s="8"/>
     </row>
-    <row r="290" ht="12.75" customHeight="1">
+    <row r="290" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="8"/>
       <c r="B290" s="8"/>
       <c r="C290" s="8"/>
@@ -13925,7 +13945,7 @@
       <c r="AB290" s="8"/>
       <c r="AC290" s="8"/>
     </row>
-    <row r="291" ht="12.75" customHeight="1">
+    <row r="291" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="8"/>
       <c r="B291" s="8"/>
       <c r="C291" s="8"/>
@@ -13956,7 +13976,7 @@
       <c r="AB291" s="8"/>
       <c r="AC291" s="8"/>
     </row>
-    <row r="292" ht="12.75" customHeight="1">
+    <row r="292" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="8"/>
       <c r="B292" s="8"/>
       <c r="C292" s="8"/>
@@ -13987,7 +14007,7 @@
       <c r="AB292" s="8"/>
       <c r="AC292" s="8"/>
     </row>
-    <row r="293" ht="12.75" customHeight="1">
+    <row r="293" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="8"/>
       <c r="B293" s="8"/>
       <c r="C293" s="8"/>
@@ -14018,7 +14038,7 @@
       <c r="AB293" s="8"/>
       <c r="AC293" s="8"/>
     </row>
-    <row r="294" ht="12.75" customHeight="1">
+    <row r="294" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="8"/>
       <c r="B294" s="8"/>
       <c r="C294" s="8"/>
@@ -14049,7 +14069,7 @@
       <c r="AB294" s="8"/>
       <c r="AC294" s="8"/>
     </row>
-    <row r="295" ht="12.75" customHeight="1">
+    <row r="295" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="8"/>
       <c r="B295" s="8"/>
       <c r="C295" s="8"/>
@@ -14080,7 +14100,7 @@
       <c r="AB295" s="8"/>
       <c r="AC295" s="8"/>
     </row>
-    <row r="296" ht="12.75" customHeight="1">
+    <row r="296" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="8"/>
       <c r="B296" s="8"/>
       <c r="C296" s="8"/>
@@ -14111,7 +14131,7 @@
       <c r="AB296" s="8"/>
       <c r="AC296" s="8"/>
     </row>
-    <row r="297" ht="12.75" customHeight="1">
+    <row r="297" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="8"/>
       <c r="B297" s="8"/>
       <c r="C297" s="8"/>
@@ -14142,7 +14162,7 @@
       <c r="AB297" s="8"/>
       <c r="AC297" s="8"/>
     </row>
-    <row r="298" ht="12.75" customHeight="1">
+    <row r="298" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="8"/>
       <c r="B298" s="8"/>
       <c r="C298" s="8"/>
@@ -14173,7 +14193,7 @@
       <c r="AB298" s="8"/>
       <c r="AC298" s="8"/>
     </row>
-    <row r="299" ht="12.75" customHeight="1">
+    <row r="299" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="8"/>
       <c r="B299" s="8"/>
       <c r="C299" s="8"/>
@@ -14204,7 +14224,7 @@
       <c r="AB299" s="8"/>
       <c r="AC299" s="8"/>
     </row>
-    <row r="300" ht="12.75" customHeight="1">
+    <row r="300" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="8"/>
       <c r="B300" s="8"/>
       <c r="C300" s="8"/>
@@ -14235,7 +14255,7 @@
       <c r="AB300" s="8"/>
       <c r="AC300" s="8"/>
     </row>
-    <row r="301" ht="12.75" customHeight="1">
+    <row r="301" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="8"/>
       <c r="B301" s="8"/>
       <c r="C301" s="8"/>
@@ -14266,7 +14286,7 @@
       <c r="AB301" s="8"/>
       <c r="AC301" s="8"/>
     </row>
-    <row r="302" ht="12.75" customHeight="1">
+    <row r="302" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="8"/>
       <c r="B302" s="8"/>
       <c r="C302" s="8"/>
@@ -14297,7 +14317,7 @@
       <c r="AB302" s="8"/>
       <c r="AC302" s="8"/>
     </row>
-    <row r="303" ht="12.75" customHeight="1">
+    <row r="303" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="8"/>
       <c r="B303" s="8"/>
       <c r="C303" s="8"/>
@@ -14328,7 +14348,7 @@
       <c r="AB303" s="8"/>
       <c r="AC303" s="8"/>
     </row>
-    <row r="304" ht="12.75" customHeight="1">
+    <row r="304" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="8"/>
       <c r="B304" s="8"/>
       <c r="C304" s="8"/>
@@ -14359,7 +14379,7 @@
       <c r="AB304" s="8"/>
       <c r="AC304" s="8"/>
     </row>
-    <row r="305" ht="12.75" customHeight="1">
+    <row r="305" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="8"/>
       <c r="B305" s="8"/>
       <c r="C305" s="8"/>
@@ -14390,7 +14410,7 @@
       <c r="AB305" s="8"/>
       <c r="AC305" s="8"/>
     </row>
-    <row r="306" ht="12.75" customHeight="1">
+    <row r="306" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="8"/>
       <c r="B306" s="8"/>
       <c r="C306" s="8"/>
@@ -14421,7 +14441,7 @@
       <c r="AB306" s="8"/>
       <c r="AC306" s="8"/>
     </row>
-    <row r="307" ht="12.75" customHeight="1">
+    <row r="307" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="8"/>
       <c r="B307" s="8"/>
       <c r="C307" s="8"/>
@@ -14452,7 +14472,7 @@
       <c r="AB307" s="8"/>
       <c r="AC307" s="8"/>
     </row>
-    <row r="308" ht="12.75" customHeight="1">
+    <row r="308" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="8"/>
       <c r="B308" s="8"/>
       <c r="C308" s="8"/>
@@ -14483,7 +14503,7 @@
       <c r="AB308" s="8"/>
       <c r="AC308" s="8"/>
     </row>
-    <row r="309" ht="12.75" customHeight="1">
+    <row r="309" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="8"/>
       <c r="B309" s="8"/>
       <c r="C309" s="8"/>
@@ -14514,7 +14534,7 @@
       <c r="AB309" s="8"/>
       <c r="AC309" s="8"/>
     </row>
-    <row r="310" ht="12.75" customHeight="1">
+    <row r="310" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="8"/>
       <c r="B310" s="8"/>
       <c r="C310" s="8"/>
@@ -14545,7 +14565,7 @@
       <c r="AB310" s="8"/>
       <c r="AC310" s="8"/>
     </row>
-    <row r="311" ht="12.75" customHeight="1">
+    <row r="311" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="8"/>
       <c r="B311" s="8"/>
       <c r="C311" s="8"/>
@@ -14576,7 +14596,7 @@
       <c r="AB311" s="8"/>
       <c r="AC311" s="8"/>
     </row>
-    <row r="312" ht="12.75" customHeight="1">
+    <row r="312" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="8"/>
       <c r="B312" s="8"/>
       <c r="C312" s="8"/>
@@ -14607,7 +14627,7 @@
       <c r="AB312" s="8"/>
       <c r="AC312" s="8"/>
     </row>
-    <row r="313" ht="12.75" customHeight="1">
+    <row r="313" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="8"/>
       <c r="B313" s="8"/>
       <c r="C313" s="8"/>
@@ -14638,7 +14658,7 @@
       <c r="AB313" s="8"/>
       <c r="AC313" s="8"/>
     </row>
-    <row r="314" ht="12.75" customHeight="1">
+    <row r="314" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="8"/>
       <c r="B314" s="8"/>
       <c r="C314" s="8"/>
@@ -14669,7 +14689,7 @@
       <c r="AB314" s="8"/>
       <c r="AC314" s="8"/>
     </row>
-    <row r="315" ht="12.75" customHeight="1">
+    <row r="315" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="8"/>
       <c r="B315" s="8"/>
       <c r="C315" s="8"/>
@@ -14700,7 +14720,7 @@
       <c r="AB315" s="8"/>
       <c r="AC315" s="8"/>
     </row>
-    <row r="316" ht="12.75" customHeight="1">
+    <row r="316" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="8"/>
       <c r="B316" s="8"/>
       <c r="C316" s="8"/>
@@ -14731,7 +14751,7 @@
       <c r="AB316" s="8"/>
       <c r="AC316" s="8"/>
     </row>
-    <row r="317" ht="12.75" customHeight="1">
+    <row r="317" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="8"/>
       <c r="B317" s="8"/>
       <c r="C317" s="8"/>
@@ -14762,7 +14782,7 @@
       <c r="AB317" s="8"/>
       <c r="AC317" s="8"/>
     </row>
-    <row r="318" ht="12.75" customHeight="1">
+    <row r="318" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="8"/>
       <c r="B318" s="8"/>
       <c r="C318" s="8"/>
@@ -14793,7 +14813,7 @@
       <c r="AB318" s="8"/>
       <c r="AC318" s="8"/>
     </row>
-    <row r="319" ht="12.75" customHeight="1">
+    <row r="319" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="8"/>
       <c r="B319" s="8"/>
       <c r="C319" s="8"/>
@@ -14824,7 +14844,7 @@
       <c r="AB319" s="8"/>
       <c r="AC319" s="8"/>
     </row>
-    <row r="320" ht="12.75" customHeight="1">
+    <row r="320" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="8"/>
       <c r="B320" s="8"/>
       <c r="C320" s="8"/>
@@ -14855,7 +14875,7 @@
       <c r="AB320" s="8"/>
       <c r="AC320" s="8"/>
     </row>
-    <row r="321" ht="12.75" customHeight="1">
+    <row r="321" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="8"/>
       <c r="B321" s="8"/>
       <c r="C321" s="8"/>
@@ -14886,7 +14906,7 @@
       <c r="AB321" s="8"/>
       <c r="AC321" s="8"/>
     </row>
-    <row r="322" ht="12.75" customHeight="1">
+    <row r="322" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="8"/>
       <c r="B322" s="8"/>
       <c r="C322" s="8"/>
@@ -14917,7 +14937,7 @@
       <c r="AB322" s="8"/>
       <c r="AC322" s="8"/>
     </row>
-    <row r="323" ht="12.75" customHeight="1">
+    <row r="323" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="8"/>
       <c r="B323" s="8"/>
       <c r="C323" s="8"/>
@@ -14948,7 +14968,7 @@
       <c r="AB323" s="8"/>
       <c r="AC323" s="8"/>
     </row>
-    <row r="324" ht="12.75" customHeight="1">
+    <row r="324" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="8"/>
       <c r="B324" s="8"/>
       <c r="C324" s="8"/>
@@ -14979,7 +14999,7 @@
       <c r="AB324" s="8"/>
       <c r="AC324" s="8"/>
     </row>
-    <row r="325" ht="12.75" customHeight="1">
+    <row r="325" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="8"/>
       <c r="B325" s="8"/>
       <c r="C325" s="8"/>
@@ -15010,7 +15030,7 @@
       <c r="AB325" s="8"/>
       <c r="AC325" s="8"/>
     </row>
-    <row r="326" ht="12.75" customHeight="1">
+    <row r="326" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="8"/>
       <c r="B326" s="8"/>
       <c r="C326" s="8"/>
@@ -15041,7 +15061,7 @@
       <c r="AB326" s="8"/>
       <c r="AC326" s="8"/>
     </row>
-    <row r="327" ht="12.75" customHeight="1">
+    <row r="327" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="8"/>
       <c r="B327" s="8"/>
       <c r="C327" s="8"/>
@@ -15072,7 +15092,7 @@
       <c r="AB327" s="8"/>
       <c r="AC327" s="8"/>
     </row>
-    <row r="328" ht="12.75" customHeight="1">
+    <row r="328" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="8"/>
       <c r="B328" s="8"/>
       <c r="C328" s="8"/>
@@ -15103,7 +15123,7 @@
       <c r="AB328" s="8"/>
       <c r="AC328" s="8"/>
     </row>
-    <row r="329" ht="12.75" customHeight="1">
+    <row r="329" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="8"/>
       <c r="B329" s="8"/>
       <c r="C329" s="8"/>
@@ -15134,7 +15154,7 @@
       <c r="AB329" s="8"/>
       <c r="AC329" s="8"/>
     </row>
-    <row r="330" ht="12.75" customHeight="1">
+    <row r="330" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="8"/>
       <c r="B330" s="8"/>
       <c r="C330" s="8"/>
@@ -15165,7 +15185,7 @@
       <c r="AB330" s="8"/>
       <c r="AC330" s="8"/>
     </row>
-    <row r="331" ht="12.75" customHeight="1">
+    <row r="331" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="8"/>
       <c r="B331" s="8"/>
       <c r="C331" s="8"/>
@@ -15196,7 +15216,7 @@
       <c r="AB331" s="8"/>
       <c r="AC331" s="8"/>
     </row>
-    <row r="332" ht="12.75" customHeight="1">
+    <row r="332" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="8"/>
       <c r="B332" s="8"/>
       <c r="C332" s="8"/>
@@ -15227,7 +15247,7 @@
       <c r="AB332" s="8"/>
       <c r="AC332" s="8"/>
     </row>
-    <row r="333" ht="12.75" customHeight="1">
+    <row r="333" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="8"/>
       <c r="B333" s="8"/>
       <c r="C333" s="8"/>
@@ -15258,7 +15278,7 @@
       <c r="AB333" s="8"/>
       <c r="AC333" s="8"/>
     </row>
-    <row r="334" ht="12.75" customHeight="1">
+    <row r="334" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="8"/>
       <c r="B334" s="8"/>
       <c r="C334" s="8"/>
@@ -15289,7 +15309,7 @@
       <c r="AB334" s="8"/>
       <c r="AC334" s="8"/>
     </row>
-    <row r="335" ht="12.75" customHeight="1">
+    <row r="335" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="8"/>
       <c r="B335" s="8"/>
       <c r="C335" s="8"/>
@@ -15320,7 +15340,7 @@
       <c r="AB335" s="8"/>
       <c r="AC335" s="8"/>
     </row>
-    <row r="336" ht="12.75" customHeight="1">
+    <row r="336" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="8"/>
       <c r="B336" s="8"/>
       <c r="C336" s="8"/>
@@ -15351,7 +15371,7 @@
       <c r="AB336" s="8"/>
       <c r="AC336" s="8"/>
     </row>
-    <row r="337" ht="12.75" customHeight="1">
+    <row r="337" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="8"/>
       <c r="B337" s="8"/>
       <c r="C337" s="8"/>
@@ -15382,7 +15402,7 @@
       <c r="AB337" s="8"/>
       <c r="AC337" s="8"/>
     </row>
-    <row r="338" ht="12.75" customHeight="1">
+    <row r="338" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="8"/>
       <c r="B338" s="8"/>
       <c r="C338" s="8"/>
@@ -15413,7 +15433,7 @@
       <c r="AB338" s="8"/>
       <c r="AC338" s="8"/>
     </row>
-    <row r="339" ht="12.75" customHeight="1">
+    <row r="339" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="8"/>
       <c r="B339" s="8"/>
       <c r="C339" s="8"/>
@@ -15444,7 +15464,7 @@
       <c r="AB339" s="8"/>
       <c r="AC339" s="8"/>
     </row>
-    <row r="340" ht="12.75" customHeight="1">
+    <row r="340" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="8"/>
       <c r="B340" s="8"/>
       <c r="C340" s="8"/>
@@ -15475,7 +15495,7 @@
       <c r="AB340" s="8"/>
       <c r="AC340" s="8"/>
     </row>
-    <row r="341" ht="12.75" customHeight="1">
+    <row r="341" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="8"/>
       <c r="B341" s="8"/>
       <c r="C341" s="8"/>
@@ -15506,7 +15526,7 @@
       <c r="AB341" s="8"/>
       <c r="AC341" s="8"/>
     </row>
-    <row r="342" ht="12.75" customHeight="1">
+    <row r="342" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="8"/>
       <c r="B342" s="8"/>
       <c r="C342" s="8"/>
@@ -15537,7 +15557,7 @@
       <c r="AB342" s="8"/>
       <c r="AC342" s="8"/>
     </row>
-    <row r="343" ht="12.75" customHeight="1">
+    <row r="343" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="8"/>
       <c r="B343" s="8"/>
       <c r="C343" s="8"/>
@@ -15568,7 +15588,7 @@
       <c r="AB343" s="8"/>
       <c r="AC343" s="8"/>
     </row>
-    <row r="344" ht="12.75" customHeight="1">
+    <row r="344" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="8"/>
       <c r="B344" s="8"/>
       <c r="C344" s="8"/>
@@ -15599,7 +15619,7 @@
       <c r="AB344" s="8"/>
       <c r="AC344" s="8"/>
     </row>
-    <row r="345" ht="12.75" customHeight="1">
+    <row r="345" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="8"/>
       <c r="B345" s="8"/>
       <c r="C345" s="8"/>
@@ -15630,7 +15650,7 @@
       <c r="AB345" s="8"/>
       <c r="AC345" s="8"/>
     </row>
-    <row r="346" ht="12.75" customHeight="1">
+    <row r="346" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="8"/>
       <c r="B346" s="8"/>
       <c r="C346" s="8"/>
@@ -15661,7 +15681,7 @@
       <c r="AB346" s="8"/>
       <c r="AC346" s="8"/>
     </row>
-    <row r="347" ht="12.75" customHeight="1">
+    <row r="347" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="8"/>
       <c r="B347" s="8"/>
       <c r="C347" s="8"/>
@@ -15692,7 +15712,7 @@
       <c r="AB347" s="8"/>
       <c r="AC347" s="8"/>
     </row>
-    <row r="348" ht="12.75" customHeight="1">
+    <row r="348" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="8"/>
       <c r="B348" s="8"/>
       <c r="C348" s="8"/>
@@ -15723,7 +15743,7 @@
       <c r="AB348" s="8"/>
       <c r="AC348" s="8"/>
     </row>
-    <row r="349" ht="12.75" customHeight="1">
+    <row r="349" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="8"/>
       <c r="B349" s="8"/>
       <c r="C349" s="8"/>
@@ -15754,7 +15774,7 @@
       <c r="AB349" s="8"/>
       <c r="AC349" s="8"/>
     </row>
-    <row r="350" ht="12.75" customHeight="1">
+    <row r="350" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="8"/>
       <c r="B350" s="8"/>
       <c r="C350" s="8"/>
@@ -15785,7 +15805,7 @@
       <c r="AB350" s="8"/>
       <c r="AC350" s="8"/>
     </row>
-    <row r="351" ht="12.75" customHeight="1">
+    <row r="351" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="8"/>
       <c r="B351" s="8"/>
       <c r="C351" s="8"/>
@@ -15816,7 +15836,7 @@
       <c r="AB351" s="8"/>
       <c r="AC351" s="8"/>
     </row>
-    <row r="352" ht="12.75" customHeight="1">
+    <row r="352" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="8"/>
       <c r="B352" s="8"/>
       <c r="C352" s="8"/>
@@ -15847,7 +15867,7 @@
       <c r="AB352" s="8"/>
       <c r="AC352" s="8"/>
     </row>
-    <row r="353" ht="12.75" customHeight="1">
+    <row r="353" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="8"/>
       <c r="B353" s="8"/>
       <c r="C353" s="8"/>
@@ -15878,7 +15898,7 @@
       <c r="AB353" s="8"/>
       <c r="AC353" s="8"/>
     </row>
-    <row r="354" ht="12.75" customHeight="1">
+    <row r="354" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="8"/>
       <c r="B354" s="8"/>
       <c r="C354" s="8"/>
@@ -15909,7 +15929,7 @@
       <c r="AB354" s="8"/>
       <c r="AC354" s="8"/>
     </row>
-    <row r="355" ht="12.75" customHeight="1">
+    <row r="355" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="8"/>
       <c r="B355" s="8"/>
       <c r="C355" s="8"/>
@@ -15940,7 +15960,7 @@
       <c r="AB355" s="8"/>
       <c r="AC355" s="8"/>
     </row>
-    <row r="356" ht="12.75" customHeight="1">
+    <row r="356" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="8"/>
       <c r="B356" s="8"/>
       <c r="C356" s="8"/>
@@ -15971,7 +15991,7 @@
       <c r="AB356" s="8"/>
       <c r="AC356" s="8"/>
     </row>
-    <row r="357" ht="12.75" customHeight="1">
+    <row r="357" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="8"/>
       <c r="B357" s="8"/>
       <c r="C357" s="8"/>
@@ -16002,7 +16022,7 @@
       <c r="AB357" s="8"/>
       <c r="AC357" s="8"/>
     </row>
-    <row r="358" ht="12.75" customHeight="1">
+    <row r="358" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="8"/>
       <c r="B358" s="8"/>
       <c r="C358" s="8"/>
@@ -16033,7 +16053,7 @@
       <c r="AB358" s="8"/>
       <c r="AC358" s="8"/>
     </row>
-    <row r="359" ht="12.75" customHeight="1">
+    <row r="359" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="8"/>
       <c r="B359" s="8"/>
       <c r="C359" s="8"/>
@@ -16064,7 +16084,7 @@
       <c r="AB359" s="8"/>
       <c r="AC359" s="8"/>
     </row>
-    <row r="360" ht="12.75" customHeight="1">
+    <row r="360" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="8"/>
       <c r="B360" s="8"/>
       <c r="C360" s="8"/>
@@ -16095,7 +16115,7 @@
       <c r="AB360" s="8"/>
       <c r="AC360" s="8"/>
     </row>
-    <row r="361" ht="12.75" customHeight="1">
+    <row r="361" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="8"/>
       <c r="B361" s="8"/>
       <c r="C361" s="8"/>
@@ -16126,7 +16146,7 @@
       <c r="AB361" s="8"/>
       <c r="AC361" s="8"/>
     </row>
-    <row r="362" ht="12.75" customHeight="1">
+    <row r="362" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="8"/>
       <c r="B362" s="8"/>
       <c r="C362" s="8"/>
@@ -16157,7 +16177,7 @@
       <c r="AB362" s="8"/>
       <c r="AC362" s="8"/>
     </row>
-    <row r="363" ht="12.75" customHeight="1">
+    <row r="363" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="8"/>
       <c r="B363" s="8"/>
       <c r="C363" s="8"/>
@@ -16188,7 +16208,7 @@
       <c r="AB363" s="8"/>
       <c r="AC363" s="8"/>
     </row>
-    <row r="364" ht="12.75" customHeight="1">
+    <row r="364" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="8"/>
       <c r="B364" s="8"/>
       <c r="C364" s="8"/>
@@ -16219,7 +16239,7 @@
       <c r="AB364" s="8"/>
       <c r="AC364" s="8"/>
     </row>
-    <row r="365" ht="12.75" customHeight="1">
+    <row r="365" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="8"/>
       <c r="B365" s="8"/>
       <c r="C365" s="8"/>
@@ -16250,7 +16270,7 @@
       <c r="AB365" s="8"/>
       <c r="AC365" s="8"/>
     </row>
-    <row r="366" ht="12.75" customHeight="1">
+    <row r="366" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="8"/>
       <c r="B366" s="8"/>
       <c r="C366" s="8"/>
@@ -16281,7 +16301,7 @@
       <c r="AB366" s="8"/>
       <c r="AC366" s="8"/>
     </row>
-    <row r="367" ht="12.75" customHeight="1">
+    <row r="367" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="8"/>
       <c r="B367" s="8"/>
       <c r="C367" s="8"/>
@@ -16312,7 +16332,7 @@
       <c r="AB367" s="8"/>
       <c r="AC367" s="8"/>
     </row>
-    <row r="368" ht="12.75" customHeight="1">
+    <row r="368" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="8"/>
       <c r="B368" s="8"/>
       <c r="C368" s="8"/>
@@ -16343,7 +16363,7 @@
       <c r="AB368" s="8"/>
       <c r="AC368" s="8"/>
     </row>
-    <row r="369" ht="12.75" customHeight="1">
+    <row r="369" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="8"/>
       <c r="B369" s="8"/>
       <c r="C369" s="8"/>
@@ -16374,7 +16394,7 @@
       <c r="AB369" s="8"/>
       <c r="AC369" s="8"/>
     </row>
-    <row r="370" ht="12.75" customHeight="1">
+    <row r="370" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="8"/>
       <c r="B370" s="8"/>
       <c r="C370" s="8"/>
@@ -16405,7 +16425,7 @@
       <c r="AB370" s="8"/>
       <c r="AC370" s="8"/>
     </row>
-    <row r="371" ht="12.75" customHeight="1">
+    <row r="371" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="8"/>
       <c r="B371" s="8"/>
       <c r="C371" s="8"/>
@@ -16436,7 +16456,7 @@
       <c r="AB371" s="8"/>
       <c r="AC371" s="8"/>
     </row>
-    <row r="372" ht="12.75" customHeight="1">
+    <row r="372" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="8"/>
       <c r="B372" s="8"/>
       <c r="C372" s="8"/>
@@ -16467,7 +16487,7 @@
       <c r="AB372" s="8"/>
       <c r="AC372" s="8"/>
     </row>
-    <row r="373" ht="12.75" customHeight="1">
+    <row r="373" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="8"/>
       <c r="B373" s="8"/>
       <c r="C373" s="8"/>
@@ -16498,7 +16518,7 @@
       <c r="AB373" s="8"/>
       <c r="AC373" s="8"/>
     </row>
-    <row r="374" ht="12.75" customHeight="1">
+    <row r="374" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="8"/>
       <c r="B374" s="8"/>
       <c r="C374" s="8"/>
@@ -16529,7 +16549,7 @@
       <c r="AB374" s="8"/>
       <c r="AC374" s="8"/>
     </row>
-    <row r="375" ht="12.75" customHeight="1">
+    <row r="375" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="8"/>
       <c r="B375" s="8"/>
       <c r="C375" s="8"/>
@@ -16560,7 +16580,7 @@
       <c r="AB375" s="8"/>
       <c r="AC375" s="8"/>
     </row>
-    <row r="376" ht="12.75" customHeight="1">
+    <row r="376" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="8"/>
       <c r="B376" s="8"/>
       <c r="C376" s="8"/>
@@ -16591,7 +16611,7 @@
       <c r="AB376" s="8"/>
       <c r="AC376" s="8"/>
     </row>
-    <row r="377" ht="12.75" customHeight="1">
+    <row r="377" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="8"/>
       <c r="B377" s="8"/>
       <c r="C377" s="8"/>
@@ -16622,7 +16642,7 @@
       <c r="AB377" s="8"/>
       <c r="AC377" s="8"/>
     </row>
-    <row r="378" ht="12.75" customHeight="1">
+    <row r="378" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="8"/>
       <c r="B378" s="8"/>
       <c r="C378" s="8"/>
@@ -16653,7 +16673,7 @@
       <c r="AB378" s="8"/>
       <c r="AC378" s="8"/>
     </row>
-    <row r="379" ht="12.75" customHeight="1">
+    <row r="379" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="8"/>
       <c r="B379" s="8"/>
       <c r="C379" s="8"/>
@@ -16684,7 +16704,7 @@
       <c r="AB379" s="8"/>
       <c r="AC379" s="8"/>
     </row>
-    <row r="380" ht="12.75" customHeight="1">
+    <row r="380" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="8"/>
       <c r="B380" s="8"/>
       <c r="C380" s="8"/>
@@ -16715,7 +16735,7 @@
       <c r="AB380" s="8"/>
       <c r="AC380" s="8"/>
     </row>
-    <row r="381" ht="12.75" customHeight="1">
+    <row r="381" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="8"/>
       <c r="B381" s="8"/>
       <c r="C381" s="8"/>
@@ -16746,7 +16766,7 @@
       <c r="AB381" s="8"/>
       <c r="AC381" s="8"/>
     </row>
-    <row r="382" ht="12.75" customHeight="1">
+    <row r="382" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="8"/>
       <c r="B382" s="8"/>
       <c r="C382" s="8"/>
@@ -16777,7 +16797,7 @@
       <c r="AB382" s="8"/>
       <c r="AC382" s="8"/>
     </row>
-    <row r="383" ht="12.75" customHeight="1">
+    <row r="383" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="8"/>
       <c r="B383" s="8"/>
       <c r="C383" s="8"/>
@@ -16808,7 +16828,7 @@
       <c r="AB383" s="8"/>
       <c r="AC383" s="8"/>
     </row>
-    <row r="384" ht="12.75" customHeight="1">
+    <row r="384" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="8"/>
       <c r="B384" s="8"/>
       <c r="C384" s="8"/>
@@ -16839,7 +16859,7 @@
       <c r="AB384" s="8"/>
       <c r="AC384" s="8"/>
     </row>
-    <row r="385" ht="12.75" customHeight="1">
+    <row r="385" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="8"/>
       <c r="B385" s="8"/>
       <c r="C385" s="8"/>
@@ -16870,7 +16890,7 @@
       <c r="AB385" s="8"/>
       <c r="AC385" s="8"/>
     </row>
-    <row r="386" ht="12.75" customHeight="1">
+    <row r="386" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="8"/>
       <c r="B386" s="8"/>
       <c r="C386" s="8"/>
@@ -16901,7 +16921,7 @@
       <c r="AB386" s="8"/>
       <c r="AC386" s="8"/>
     </row>
-    <row r="387" ht="12.75" customHeight="1">
+    <row r="387" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="8"/>
       <c r="B387" s="8"/>
       <c r="C387" s="8"/>
@@ -16932,7 +16952,7 @@
       <c r="AB387" s="8"/>
       <c r="AC387" s="8"/>
     </row>
-    <row r="388" ht="12.75" customHeight="1">
+    <row r="388" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="8"/>
       <c r="B388" s="8"/>
       <c r="C388" s="8"/>
@@ -16963,7 +16983,7 @@
       <c r="AB388" s="8"/>
       <c r="AC388" s="8"/>
     </row>
-    <row r="389" ht="12.75" customHeight="1">
+    <row r="389" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="8"/>
       <c r="B389" s="8"/>
       <c r="C389" s="8"/>
@@ -16994,7 +17014,7 @@
       <c r="AB389" s="8"/>
       <c r="AC389" s="8"/>
     </row>
-    <row r="390" ht="12.75" customHeight="1">
+    <row r="390" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="8"/>
       <c r="B390" s="8"/>
       <c r="C390" s="8"/>
@@ -17025,7 +17045,7 @@
       <c r="AB390" s="8"/>
       <c r="AC390" s="8"/>
     </row>
-    <row r="391" ht="12.75" customHeight="1">
+    <row r="391" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="8"/>
       <c r="B391" s="8"/>
       <c r="C391" s="8"/>
@@ -17056,7 +17076,7 @@
       <c r="AB391" s="8"/>
       <c r="AC391" s="8"/>
     </row>
-    <row r="392" ht="12.75" customHeight="1">
+    <row r="392" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="8"/>
       <c r="B392" s="8"/>
       <c r="C392" s="8"/>
@@ -17087,7 +17107,7 @@
       <c r="AB392" s="8"/>
       <c r="AC392" s="8"/>
     </row>
-    <row r="393" ht="12.75" customHeight="1">
+    <row r="393" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="8"/>
       <c r="B393" s="8"/>
       <c r="C393" s="8"/>
@@ -17118,7 +17138,7 @@
       <c r="AB393" s="8"/>
       <c r="AC393" s="8"/>
     </row>
-    <row r="394" ht="12.75" customHeight="1">
+    <row r="394" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="8"/>
       <c r="B394" s="8"/>
       <c r="C394" s="8"/>
@@ -17149,7 +17169,7 @@
       <c r="AB394" s="8"/>
       <c r="AC394" s="8"/>
     </row>
-    <row r="395" ht="12.75" customHeight="1">
+    <row r="395" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="8"/>
       <c r="B395" s="8"/>
       <c r="C395" s="8"/>
@@ -17180,7 +17200,7 @@
       <c r="AB395" s="8"/>
       <c r="AC395" s="8"/>
     </row>
-    <row r="396" ht="12.75" customHeight="1">
+    <row r="396" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="8"/>
       <c r="B396" s="8"/>
       <c r="C396" s="8"/>
@@ -17211,7 +17231,7 @@
       <c r="AB396" s="8"/>
       <c r="AC396" s="8"/>
     </row>
-    <row r="397" ht="12.75" customHeight="1">
+    <row r="397" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="8"/>
       <c r="B397" s="8"/>
       <c r="C397" s="8"/>
@@ -17242,617 +17262,615 @@
       <c r="AB397" s="8"/>
       <c r="AC397" s="8"/>
     </row>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="398" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="1.05277777777778" footer="0.0" header="0.0" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>